--- a/docs/UCB_Densimeter_fitting/Input_files/merged_df_wrho-6-8-23.xlsx
+++ b/docs/UCB_Densimeter_fitting/Input_files/merged_df_wrho-6-8-23.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\Box\Berkeley_new\DiadFit_outer\docs\UCB_Densimeter_fitting\Input_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21878EE-AD5E-42A4-9004-F222F458865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="262">
   <si>
     <t>Label</t>
   </si>
@@ -788,16 +807,28 @@
   </si>
   <si>
     <t>08 FDCA-P60</t>
+  </si>
+  <si>
+    <t>1117_1447_old</t>
+  </si>
+  <si>
+    <t>1117_1447_new</t>
+  </si>
+  <si>
+    <t>1220_1447_new</t>
+  </si>
+  <si>
+    <t>1220_1400_new</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,25 +880,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -905,7 +947,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -939,6 +981,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -973,9 +1016,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1148,14 +1192,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CI34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CM34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
+      <selection activeCell="CM6" sqref="CM6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="89" max="89" width="17.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:87">
+    <row r="1" spans="1:91" ht="29" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1414,8 +1463,20 @@
       <c r="CI1" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="CJ1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="CK1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="CL1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="CM1" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
-    <row r="2" spans="1:87">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1423,34 +1484,34 @@
         <v>86</v>
       </c>
       <c r="C2">
-        <v>0.0959092424461564</v>
+        <v>9.5909242446156395E-2</v>
       </c>
       <c r="D2">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E2">
-        <v>0.660905405405405</v>
+        <v>0.66090540540540499</v>
       </c>
       <c r="F2">
-        <v>9.59092424461565</v>
+        <v>9.5909242446156497</v>
       </c>
       <c r="G2">
-        <v>9.6752</v>
+        <v>9.6752000000000002</v>
       </c>
       <c r="H2">
-        <v>36.975</v>
+        <v>36.975000000000001</v>
       </c>
       <c r="I2">
-        <v>36.976</v>
+        <v>36.975999999999999</v>
       </c>
       <c r="J2">
-        <v>36.976</v>
+        <v>36.975999999999999</v>
       </c>
       <c r="K2">
-        <v>36.976</v>
+        <v>36.975999999999999</v>
       </c>
       <c r="L2">
-        <v>36.975</v>
+        <v>36.975000000000001</v>
       </c>
       <c r="N2">
         <v>104.266957695531</v>
@@ -1459,79 +1520,79 @@
         <v>104.2691264897594</v>
       </c>
       <c r="P2">
-        <v>104.2647889013026</v>
+        <v>104.26478890130259</v>
       </c>
       <c r="Q2">
-        <v>0.00216879422836702</v>
+        <v>2.1687942283670201E-3</v>
       </c>
       <c r="R2" t="s">
         <v>119</v>
       </c>
       <c r="S2">
-        <v>104.5246333629943</v>
+        <v>104.52463336299429</v>
       </c>
       <c r="T2">
-        <v>0.002024043015337483</v>
+        <v>2.0240430153374831E-3</v>
       </c>
       <c r="U2">
-        <v>0.002024043015337483</v>
+        <v>2.0240430153374831E-3</v>
       </c>
       <c r="V2">
-        <v>1282.904706709067</v>
+        <v>1282.9047067090671</v>
       </c>
       <c r="W2">
-        <v>0.002024043015337483</v>
+        <v>2.0240430153374831E-3</v>
       </c>
       <c r="X2">
-        <v>4461.261736337414</v>
+        <v>4461.2617363374138</v>
       </c>
       <c r="Y2">
         <v>1282.904756711567</v>
       </c>
       <c r="Z2">
-        <v>12859.65685265869</v>
+        <v>12859.656852658691</v>
       </c>
       <c r="AA2">
-        <v>1.021189648480835</v>
+        <v>1.0211896484808349</v>
       </c>
       <c r="AB2">
         <v>10.01085422788011</v>
       </c>
       <c r="AC2">
-        <v>0.7648804287418353</v>
+        <v>0.76488042874183526</v>
       </c>
       <c r="AD2">
-        <v>2.042379296961671</v>
+        <v>2.0423792969616712</v>
       </c>
       <c r="AE2" t="s">
         <v>152</v>
       </c>
       <c r="AF2">
-        <v>1387.429440077062</v>
+        <v>1387.4294400770621</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>9173.51348368228</v>
+        <v>9173.5134836822799</v>
       </c>
       <c r="AI2">
         <v>1387.429390074562</v>
       </c>
       <c r="AJ2">
-        <v>21727.615323939</v>
+        <v>21727.615323939001</v>
       </c>
       <c r="AK2">
-        <v>0.8252077777025277</v>
+        <v>0.82520777770252773</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>18.4669609508832</v>
+        <v>18.466960950883202</v>
       </c>
       <c r="AN2">
-        <v>0.8022474461634113</v>
+        <v>0.80224744616341126</v>
       </c>
       <c r="AO2">
         <v>1.650415555405055</v>
@@ -1543,19 +1604,19 @@
         <v>1262.85624539371</v>
       </c>
       <c r="AR2">
-        <v>1922.321782936332</v>
+        <v>1922.3217829363321</v>
       </c>
       <c r="AS2">
-        <v>3.057662642812709</v>
+        <v>3.0576626428127089</v>
       </c>
       <c r="AT2">
         <v>1408.795816827522</v>
       </c>
       <c r="AU2">
-        <v>2596.470755731557</v>
+        <v>2596.4707557315569</v>
       </c>
       <c r="AV2">
-        <v>2.290668085941253</v>
+        <v>2.2906680859412529</v>
       </c>
       <c r="BF2" t="s">
         <v>119</v>
@@ -1576,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="BL2">
-        <v>34.002</v>
+        <v>34.002000000000002</v>
       </c>
       <c r="BM2">
         <v>10</v>
@@ -1597,13 +1658,13 @@
         <v>61059</v>
       </c>
       <c r="BS2">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT2" s="2">
-        <v>45085.70670138889</v>
+        <v>45085.706701388888</v>
       </c>
       <c r="BU2" s="2">
-        <v>45085.70670138889</v>
+        <v>45085.706701388888</v>
       </c>
       <c r="BV2">
         <v>1686243459</v>
@@ -1612,22 +1673,22 @@
         <v>51</v>
       </c>
       <c r="BX2" s="2">
-        <v>45085.70671773148</v>
+        <v>45085.706717731482</v>
       </c>
       <c r="BY2" s="2">
         <v>45085.70730800926</v>
       </c>
       <c r="BZ2">
-        <v>9.673804473876954</v>
+        <v>9.6738044738769542</v>
       </c>
       <c r="CA2">
-        <v>0.0005952199300128432</v>
+        <v>5.9521993001284323E-4</v>
       </c>
       <c r="CB2">
         <v>32.4462890625</v>
       </c>
       <c r="CC2">
-        <v>0.0009765625</v>
+        <v>9.765625E-4</v>
       </c>
       <c r="CD2" t="s">
         <v>119</v>
@@ -1642,13 +1703,26 @@
         <v>36.9756</v>
       </c>
       <c r="CH2">
-        <v>0.0005477225575038896</v>
+        <v>5.4772255750388957E-4</v>
       </c>
       <c r="CI2">
-        <v>0.6664416870991486</v>
+        <v>0.66644168709914864</v>
+      </c>
+      <c r="CJ2">
+        <f>N2/S2</f>
+        <v>0.9975347852542239</v>
+      </c>
+      <c r="CK2">
+        <v>0.99753502967771102</v>
+      </c>
+      <c r="CL2">
+        <v>0.99718781524104505</v>
+      </c>
+      <c r="CM2">
+        <v>1.0025309458648199</v>
       </c>
     </row>
-    <row r="3" spans="1:87">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1656,22 +1730,22 @@
         <v>87</v>
       </c>
       <c r="C3">
-        <v>0.0938756571759914</v>
+        <v>9.3875657175991403E-2</v>
       </c>
       <c r="D3">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E3">
-        <v>0.6468648648648641</v>
+        <v>0.64686486486486405</v>
       </c>
       <c r="F3">
-        <v>9.38756571759914</v>
+        <v>9.3875657175991396</v>
       </c>
       <c r="G3">
-        <v>9.4594</v>
+        <v>9.4594000000000005</v>
       </c>
       <c r="H3">
-        <v>37.002</v>
+        <v>37.002000000000002</v>
       </c>
       <c r="I3">
         <v>37.003</v>
@@ -1695,7 +1769,7 @@
         <v>104.2095215389221</v>
       </c>
       <c r="Q3">
-        <v>0.002412448820580544</v>
+        <v>2.4124488205805438E-3</v>
       </c>
       <c r="R3" t="s">
         <v>120</v>
@@ -1704,34 +1778,34 @@
         <v>104.4693676052329</v>
       </c>
       <c r="T3">
-        <v>0.003025126522087223</v>
+        <v>3.0251265220872228E-3</v>
       </c>
       <c r="U3">
-        <v>0.002287494999011431</v>
+        <v>2.287494999011431E-3</v>
       </c>
       <c r="V3">
-        <v>1283.046103787129</v>
+        <v>1283.0461037871289</v>
       </c>
       <c r="W3">
-        <v>0.002085685470168568</v>
+        <v>2.085685470168568E-3</v>
       </c>
       <c r="X3">
-        <v>4230.185622016966</v>
+        <v>4230.1856220169657</v>
       </c>
       <c r="Y3">
         <v>1283.046153789629</v>
       </c>
       <c r="Z3">
-        <v>12337.06317020332</v>
+        <v>12337.063170203321</v>
       </c>
       <c r="AA3">
         <v>1.045651011143186</v>
       </c>
       <c r="AB3">
-        <v>9.55790006283646</v>
+        <v>9.5579000628364597</v>
       </c>
       <c r="AC3">
-        <v>0.7368652023734232</v>
+        <v>0.73686520237342323</v>
       </c>
       <c r="AD3">
         <v>2.091302022286373</v>
@@ -1743,19 +1817,19 @@
         <v>1387.515571397362</v>
       </c>
       <c r="AG3">
-        <v>0.0009394410519186554</v>
+        <v>9.3944105191865542E-4</v>
       </c>
       <c r="AH3">
-        <v>8768.969091080449</v>
+        <v>8768.9690910804493</v>
       </c>
       <c r="AI3">
-        <v>1387.515521394862</v>
+        <v>1387.5155213948619</v>
       </c>
       <c r="AJ3">
-        <v>20711.29110789184</v>
+        <v>20711.291107891841</v>
       </c>
       <c r="AK3">
-        <v>0.8308557477396403</v>
+        <v>0.83085574773964033</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -1764,40 +1838,40 @@
         <v>16.13350953894296</v>
       </c>
       <c r="AN3">
-        <v>0.7800300080632536</v>
+        <v>0.78003000806325362</v>
       </c>
       <c r="AO3">
-        <v>1.661711495479281</v>
+        <v>1.6617114954792811</v>
       </c>
       <c r="AP3" t="s">
         <v>152</v>
       </c>
       <c r="AQ3">
-        <v>1263.038123053084</v>
+        <v>1263.0381230530841</v>
       </c>
       <c r="AR3">
         <v>1888.047626018609</v>
       </c>
       <c r="AS3">
-        <v>3.111349725867606</v>
+        <v>3.1113497258676062</v>
       </c>
       <c r="AT3">
-        <v>1408.8761209865</v>
+        <v>1408.8761209864999</v>
       </c>
       <c r="AU3">
         <v>2530.241991413212</v>
       </c>
       <c r="AV3">
-        <v>2.250907465830083</v>
+        <v>2.2509074658300832</v>
       </c>
       <c r="AW3">
-        <v>1369.781165230222</v>
+        <v>1369.7811652302221</v>
       </c>
       <c r="AX3">
-        <v>235.3627267847229</v>
+        <v>235.36272678472289</v>
       </c>
       <c r="AY3">
-        <v>0.4150454554398536</v>
+        <v>0.41504545543985361</v>
       </c>
       <c r="BF3" t="s">
         <v>120</v>
@@ -1818,7 +1892,7 @@
         <v>8</v>
       </c>
       <c r="BL3">
-        <v>33.916</v>
+        <v>33.915999999999997</v>
       </c>
       <c r="BM3">
         <v>10</v>
@@ -1839,13 +1913,13 @@
         <v>59816</v>
       </c>
       <c r="BS3">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT3" s="2">
-        <v>45085.69231481481</v>
+        <v>45085.692314814813</v>
       </c>
       <c r="BU3" s="2">
-        <v>45085.69231481481</v>
+        <v>45085.692314814813</v>
       </c>
       <c r="BV3">
         <v>1686242216</v>
@@ -1854,7 +1928,7 @@
         <v>51</v>
       </c>
       <c r="BX3" s="2">
-        <v>45085.69230738426</v>
+        <v>45085.692307384263</v>
       </c>
       <c r="BY3" s="2">
         <v>45085.69289766204</v>
@@ -1863,13 +1937,13 @@
         <v>9.250386047363282</v>
       </c>
       <c r="CA3">
-        <v>0.0005326214958637825</v>
+        <v>5.3262149586378248E-4</v>
       </c>
       <c r="CB3">
         <v>32.447265625</v>
       </c>
       <c r="CC3">
-        <v>0.001209721020760877</v>
+        <v>1.2097210207608769E-3</v>
       </c>
       <c r="CD3" t="s">
         <v>120</v>
@@ -1881,16 +1955,29 @@
         <v>226</v>
       </c>
       <c r="CG3">
-        <v>37.0028</v>
+        <v>37.002800000000001</v>
       </c>
       <c r="CH3">
-        <v>0.0004472135954989157</v>
+        <v>4.4721359549891571E-4</v>
       </c>
       <c r="CI3">
-        <v>0.6356963572983957</v>
+        <v>0.63569635729839569</v>
+      </c>
+      <c r="CJ3">
+        <f t="shared" ref="CJ3:CJ34" si="0">N3/S3</f>
+        <v>0.99753579806797443</v>
+      </c>
+      <c r="CK3">
+        <v>0.99753605209842</v>
+      </c>
+      <c r="CL3">
+        <v>0.99719207327739601</v>
+      </c>
+      <c r="CM3">
+        <v>1.0025303158921599</v>
       </c>
     </row>
-    <row r="4" spans="1:87">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1898,34 +1985,34 @@
         <v>88</v>
       </c>
       <c r="C4">
-        <v>0.0921716927040817</v>
+        <v>9.2171692704081695E-2</v>
       </c>
       <c r="D4">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E4">
-        <v>0.632824324324324</v>
+        <v>0.63282432432432401</v>
       </c>
       <c r="F4">
-        <v>9.217169270408171</v>
+        <v>9.2171692704081707</v>
       </c>
       <c r="G4">
-        <v>9.249700000000001</v>
+        <v>9.2497000000000007</v>
       </c>
       <c r="H4">
-        <v>36.978</v>
+        <v>36.978000000000002</v>
       </c>
       <c r="I4">
-        <v>36.98</v>
+        <v>36.979999999999997</v>
       </c>
       <c r="J4">
-        <v>36.981</v>
+        <v>36.981000000000002</v>
       </c>
       <c r="K4">
-        <v>36.982</v>
+        <v>36.981999999999999</v>
       </c>
       <c r="L4">
-        <v>36.983</v>
+        <v>36.982999999999997</v>
       </c>
       <c r="N4">
         <v>104.2131803488392</v>
@@ -1937,7 +2024,7 @@
         <v>104.2104735191736</v>
       </c>
       <c r="Q4">
-        <v>0.002706829665560785</v>
+        <v>2.7068296655607849E-3</v>
       </c>
       <c r="R4" t="s">
         <v>121</v>
@@ -1946,34 +2033,34 @@
         <v>104.4706047347204</v>
       </c>
       <c r="T4">
-        <v>0.003543343439720848</v>
+        <v>3.5433434397208479E-3</v>
       </c>
       <c r="U4">
-        <v>0.002597740380727819</v>
+        <v>2.5977403807278189E-3</v>
       </c>
       <c r="V4">
         <v>1283.045629363422</v>
       </c>
       <c r="W4">
-        <v>0.002256756104147082</v>
+        <v>2.256756104147082E-3</v>
       </c>
       <c r="X4">
         <v>4402.359567230922</v>
       </c>
       <c r="Y4">
-        <v>1283.045679365922</v>
+        <v>1283.0456793659221</v>
       </c>
       <c r="Z4">
-        <v>12836.49296654965</v>
+        <v>12836.492966549649</v>
       </c>
       <c r="AA4">
         <v>1.039113462863712</v>
       </c>
       <c r="AB4">
-        <v>10.66813573857477</v>
+        <v>10.668135738574771</v>
       </c>
       <c r="AC4">
-        <v>0.7511364094082775</v>
+        <v>0.75113640940827753</v>
       </c>
       <c r="AD4">
         <v>2.078226925727424</v>
@@ -1982,13 +2069,13 @@
         <v>152</v>
       </c>
       <c r="AF4">
-        <v>1387.516334103142</v>
+        <v>1387.5163341031421</v>
       </c>
       <c r="AG4">
-        <v>0.001286587335573766</v>
+        <v>1.2865873355737661E-3</v>
       </c>
       <c r="AH4">
-        <v>9122.028638559726</v>
+        <v>9122.0286385597265</v>
       </c>
       <c r="AI4">
         <v>1387.516284100642</v>
@@ -1997,49 +2084,49 @@
         <v>21530.18055857634</v>
       </c>
       <c r="AK4">
-        <v>0.8335154485824812</v>
+        <v>0.83351544858248117</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>16.32462891025146</v>
+        <v>16.324628910251459</v>
       </c>
       <c r="AN4">
-        <v>0.7708769250178427</v>
+        <v>0.77087692501784266</v>
       </c>
       <c r="AO4">
-        <v>1.667030897164962</v>
+        <v>1.6670308971649619</v>
       </c>
       <c r="AP4" t="s">
         <v>152</v>
       </c>
       <c r="AQ4">
-        <v>1262.992662401215</v>
+        <v>1262.9926624012151</v>
       </c>
       <c r="AR4">
-        <v>1956.131264032067</v>
+        <v>1956.1312640320671</v>
       </c>
       <c r="AS4">
-        <v>3.110924706167283</v>
+        <v>3.1109247061672831</v>
       </c>
       <c r="AT4">
-        <v>1408.911021437489</v>
+        <v>1408.9110214374889</v>
       </c>
       <c r="AU4">
-        <v>2526.035139960631</v>
+        <v>2526.0351399606311</v>
       </c>
       <c r="AV4">
-        <v>2.139562009017724</v>
+        <v>2.1395620090177241</v>
       </c>
       <c r="AW4">
-        <v>1369.764137770199</v>
+        <v>1369.7641377701991</v>
       </c>
       <c r="AX4">
-        <v>233.9118872027585</v>
+        <v>233.91188720275849</v>
       </c>
       <c r="AY4">
-        <v>0.4163845607932811</v>
+        <v>0.41638456079328112</v>
       </c>
       <c r="BF4" t="s">
         <v>121</v>
@@ -2060,7 +2147,7 @@
         <v>8</v>
       </c>
       <c r="BL4">
-        <v>33.929</v>
+        <v>33.929000000000002</v>
       </c>
       <c r="BM4">
         <v>10</v>
@@ -2081,13 +2168,13 @@
         <v>59699</v>
       </c>
       <c r="BS4">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT4" s="2">
-        <v>45085.69096064815</v>
+        <v>45085.690960648149</v>
       </c>
       <c r="BU4" s="2">
-        <v>45085.69096064815</v>
+        <v>45085.690960648149</v>
       </c>
       <c r="BV4">
         <v>1686242099</v>
@@ -2096,22 +2183,22 @@
         <v>52</v>
       </c>
       <c r="BX4" s="2">
-        <v>45085.69095322917</v>
+        <v>45085.690953229168</v>
       </c>
       <c r="BY4" s="2">
-        <v>45085.69155508102</v>
+        <v>45085.691555081023</v>
       </c>
       <c r="BZ4">
-        <v>9.253400802612305</v>
+        <v>9.2534008026123047</v>
       </c>
       <c r="CA4">
-        <v>0.0007111396318599558</v>
+        <v>7.1113963185995581E-4</v>
       </c>
       <c r="CB4">
         <v>32.43310546875</v>
       </c>
       <c r="CC4">
-        <v>0.004123263888888889</v>
+        <v>4.123263888888889E-3</v>
       </c>
       <c r="CD4" t="s">
         <v>121</v>
@@ -2123,16 +2210,29 @@
         <v>227</v>
       </c>
       <c r="CG4">
-        <v>36.9808</v>
+        <v>36.980800000000002</v>
       </c>
       <c r="CH4">
-        <v>0.001923538406165976</v>
+        <v>1.9235384061659761E-3</v>
       </c>
       <c r="CI4">
-        <v>0.6364921692413369</v>
+        <v>0.63649216924133689</v>
+      </c>
+      <c r="CJ4">
+        <f t="shared" si="0"/>
+        <v>0.99753591561439825</v>
+      </c>
+      <c r="CK4">
+        <v>0.99753617076690104</v>
+      </c>
+      <c r="CL4">
+        <v>0.99719246940992801</v>
+      </c>
+      <c r="CM4">
+        <v>1.0025303038283599</v>
       </c>
     </row>
-    <row r="5" spans="1:87">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2140,31 +2240,31 @@
         <v>89</v>
       </c>
       <c r="C5">
-        <v>0.0907460896054703</v>
+        <v>9.0746089605470301E-2</v>
       </c>
       <c r="D5">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E5">
-        <v>0.618783783783783</v>
+        <v>0.61878378378378296</v>
       </c>
       <c r="F5">
-        <v>9.07460896054703</v>
+        <v>9.0746089605470299</v>
       </c>
       <c r="G5">
-        <v>9.026899999999999</v>
+        <v>9.0268999999999995</v>
       </c>
       <c r="H5">
-        <v>36.995</v>
+        <v>36.994999999999997</v>
       </c>
       <c r="I5">
         <v>36.994</v>
       </c>
       <c r="J5">
-        <v>36.993</v>
+        <v>36.993000000000002</v>
       </c>
       <c r="K5">
-        <v>36.993</v>
+        <v>36.993000000000002</v>
       </c>
       <c r="L5">
         <v>36.991</v>
@@ -2173,31 +2273,31 @@
         <v>104.1624824666885</v>
       </c>
       <c r="O5">
-        <v>104.1651821407607</v>
+        <v>104.16518214076071</v>
       </c>
       <c r="P5">
         <v>104.1597827926162</v>
       </c>
       <c r="Q5">
-        <v>0.002699674072231249</v>
+        <v>2.6996740722312492E-3</v>
       </c>
       <c r="R5" t="s">
         <v>122</v>
       </c>
       <c r="S5">
-        <v>104.4196656865383</v>
+        <v>104.41966568653829</v>
       </c>
       <c r="T5">
-        <v>0.003560870190133885</v>
+        <v>3.560870190133885E-3</v>
       </c>
       <c r="U5">
-        <v>0.002592074118260978</v>
+        <v>2.592074118260978E-3</v>
       </c>
       <c r="V5">
         <v>1283.149522797285</v>
       </c>
       <c r="W5">
-        <v>0.002215722344516294</v>
+        <v>2.2157223445162938E-3</v>
       </c>
       <c r="X5">
         <v>3975.760810539889</v>
@@ -2206,19 +2306,19 @@
         <v>1283.149572799786</v>
       </c>
       <c r="Z5">
-        <v>11742.04726283895</v>
+        <v>11742.047262838951</v>
       </c>
       <c r="AA5">
-        <v>1.060147769765014</v>
+        <v>1.0601477697650139</v>
       </c>
       <c r="AB5">
-        <v>10.15236753542509</v>
+        <v>10.152367535425091</v>
       </c>
       <c r="AC5">
-        <v>0.7342376765566107</v>
+        <v>0.73423767655661065</v>
       </c>
       <c r="AD5">
-        <v>2.120295539530028</v>
+        <v>2.1202955395300278</v>
       </c>
       <c r="AE5" t="s">
         <v>152</v>
@@ -2227,61 +2327,61 @@
         <v>1387.569288488824</v>
       </c>
       <c r="AG5">
-        <v>0.001345147845617591</v>
+        <v>1.345147845617591E-3</v>
       </c>
       <c r="AH5">
-        <v>8342.545465018424</v>
+        <v>8342.5454650184238</v>
       </c>
       <c r="AI5">
-        <v>1387.569238486324</v>
+        <v>1387.5692384863239</v>
       </c>
       <c r="AJ5">
-        <v>19600.34417319414</v>
+        <v>19600.344173194138</v>
       </c>
       <c r="AK5">
-        <v>0.827976482194237</v>
+        <v>0.82797648219423703</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>15.29099974719271</v>
+        <v>15.290999747192711</v>
       </c>
       <c r="AN5">
-        <v>0.7757522474750385</v>
+        <v>0.77575224747503846</v>
       </c>
       <c r="AO5">
-        <v>1.655952964388474</v>
+        <v>1.6559529643884741</v>
       </c>
       <c r="AP5" t="s">
         <v>152</v>
       </c>
       <c r="AQ5">
-        <v>1263.094860210342</v>
+        <v>1263.0948602103419</v>
       </c>
       <c r="AR5">
-        <v>1848.397528761306</v>
+        <v>1848.3975287613059</v>
       </c>
       <c r="AS5">
-        <v>3.171768375189674</v>
+        <v>3.1717683751896741</v>
       </c>
       <c r="AT5">
         <v>1408.971155361832</v>
       </c>
       <c r="AU5">
-        <v>2346.697722002693</v>
+        <v>2346.6977220026929</v>
       </c>
       <c r="AV5">
-        <v>2.15218061048989</v>
+        <v>2.1521806104898902</v>
       </c>
       <c r="AW5">
         <v>1369.818180812646</v>
       </c>
       <c r="AX5">
-        <v>229.7654015368958</v>
+        <v>229.76540153689581</v>
       </c>
       <c r="AY5">
-        <v>0.4135648468021149</v>
+        <v>0.41356484680211492</v>
       </c>
       <c r="BF5" t="s">
         <v>122</v>
@@ -2302,7 +2402,7 @@
         <v>8</v>
       </c>
       <c r="BL5">
-        <v>33.886</v>
+        <v>33.886000000000003</v>
       </c>
       <c r="BM5">
         <v>10</v>
@@ -2323,13 +2423,13 @@
         <v>58740</v>
       </c>
       <c r="BS5">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT5" s="2">
-        <v>45085.67986111111</v>
+        <v>45085.679861111108</v>
       </c>
       <c r="BU5" s="2">
-        <v>45085.67986111111</v>
+        <v>45085.679861111108</v>
       </c>
       <c r="BV5">
         <v>1686241140</v>
@@ -2338,22 +2438,22 @@
         <v>51</v>
       </c>
       <c r="BX5" s="2">
-        <v>45085.67987695602</v>
+        <v>45085.679876956019</v>
       </c>
       <c r="BY5" s="2">
-        <v>45085.6804672338</v>
+        <v>45085.680467233797</v>
       </c>
       <c r="BZ5">
-        <v>9.02736587524414</v>
+        <v>9.0273658752441399</v>
       </c>
       <c r="CA5">
-        <v>0.0006953769259983034</v>
+        <v>6.9537692599830336E-4</v>
       </c>
       <c r="CB5">
         <v>32.666015625</v>
       </c>
       <c r="CC5">
-        <v>0.001157407407407144</v>
+        <v>1.1574074074071441E-3</v>
       </c>
       <c r="CD5" t="s">
         <v>122</v>
@@ -2365,16 +2465,29 @@
         <v>228</v>
       </c>
       <c r="CG5">
-        <v>36.9932</v>
+        <v>36.993200000000002</v>
       </c>
       <c r="CH5">
-        <v>0.001483239697418311</v>
+        <v>1.4832396974183109E-3</v>
       </c>
       <c r="CI5">
-        <v>0.6137209980156089</v>
+        <v>0.61372099801560887</v>
+      </c>
+      <c r="CJ5">
+        <f t="shared" si="0"/>
+        <v>0.99753702314445403</v>
+      </c>
+      <c r="CK5">
+        <v>0.9975372889063</v>
+      </c>
+      <c r="CL5">
+        <v>0.99719568609576703</v>
+      </c>
+      <c r="CM5">
+        <v>1.0025305112542799</v>
       </c>
     </row>
-    <row r="6" spans="1:87">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2382,46 +2495,46 @@
         <v>90</v>
       </c>
       <c r="C6">
-        <v>0.089553498454039</v>
+        <v>8.9553498454038996E-2</v>
       </c>
       <c r="D6">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E6">
-        <v>0.604743243243243</v>
+        <v>0.60474324324324302</v>
       </c>
       <c r="F6">
-        <v>8.9553498454039</v>
+        <v>8.9553498454038998</v>
       </c>
       <c r="G6">
-        <v>8.9823</v>
+        <v>8.9823000000000004</v>
       </c>
       <c r="H6">
-        <v>37.015</v>
+        <v>37.015000000000001</v>
       </c>
       <c r="I6">
-        <v>37.015</v>
+        <v>37.015000000000001</v>
       </c>
       <c r="J6">
-        <v>37.015</v>
+        <v>37.015000000000001</v>
       </c>
       <c r="K6">
-        <v>37.016</v>
+        <v>37.015999999999998</v>
       </c>
       <c r="L6">
-        <v>37.017</v>
+        <v>37.017000000000003</v>
       </c>
       <c r="N6">
         <v>104.1504910506098</v>
       </c>
       <c r="O6">
-        <v>104.1533514677268</v>
+        <v>104.15335146772679</v>
       </c>
       <c r="P6">
-        <v>104.1476306334929</v>
+        <v>104.14763063349289</v>
       </c>
       <c r="Q6">
-        <v>0.002860417116925094</v>
+        <v>2.8604171169250938E-3</v>
       </c>
       <c r="R6" t="s">
         <v>123</v>
@@ -2430,22 +2543,22 @@
         <v>104.4076057487239</v>
       </c>
       <c r="T6">
-        <v>0.003891482328291024</v>
+        <v>3.8914823282910241E-3</v>
       </c>
       <c r="U6">
-        <v>0.002760347811625024</v>
+        <v>2.7603478116250239E-3</v>
       </c>
       <c r="V6">
-        <v>1283.175037097146</v>
+        <v>1283.1750370971461</v>
       </c>
       <c r="W6">
-        <v>0.002100179963419525</v>
+        <v>2.1001799634195249E-3</v>
       </c>
       <c r="X6">
-        <v>3827.305476024986</v>
+        <v>3827.3054760249861</v>
       </c>
       <c r="Y6">
-        <v>1283.175087099646</v>
+        <v>1283.1750870996459</v>
       </c>
       <c r="Z6">
         <v>11303.51703545268</v>
@@ -2454,10 +2567,10 @@
         <v>1.061917693196178</v>
       </c>
       <c r="AB6">
-        <v>9.211871889362564</v>
+        <v>9.2118718893625644</v>
       </c>
       <c r="AC6">
-        <v>0.73028073606178</v>
+        <v>0.73028073606178001</v>
       </c>
       <c r="AD6">
         <v>2.123835386392356</v>
@@ -2466,31 +2579,31 @@
         <v>152</v>
       </c>
       <c r="AF6">
-        <v>1387.58274285087</v>
+        <v>1387.5827428508701</v>
       </c>
       <c r="AG6">
-        <v>0.001791302364871499</v>
+        <v>1.7913023648714989E-3</v>
       </c>
       <c r="AH6">
-        <v>7955.726092495321</v>
+        <v>7955.7260924953207</v>
       </c>
       <c r="AI6">
         <v>1387.58269284837</v>
       </c>
       <c r="AJ6">
-        <v>18738.32095879986</v>
+        <v>18738.320958799861</v>
       </c>
       <c r="AK6">
-        <v>0.8329606492872768</v>
+        <v>0.83296064928727676</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>17.19042725845794</v>
+        <v>17.190427258457941</v>
       </c>
       <c r="AN6">
-        <v>0.7676031438146451</v>
+        <v>0.76760314381464512</v>
       </c>
       <c r="AO6">
         <v>1.665921298574554</v>
@@ -2511,10 +2624,10 @@
         <v>1408.977426595651</v>
       </c>
       <c r="AU6">
-        <v>2290.413272621158</v>
+        <v>2290.4132726211578</v>
       </c>
       <c r="AV6">
-        <v>2.185988771269996</v>
+        <v>2.1859887712699959</v>
       </c>
       <c r="BF6" t="s">
         <v>123</v>
@@ -2535,7 +2648,7 @@
         <v>8</v>
       </c>
       <c r="BL6">
-        <v>33.953</v>
+        <v>33.953000000000003</v>
       </c>
       <c r="BM6">
         <v>10</v>
@@ -2556,13 +2669,13 @@
         <v>58460</v>
       </c>
       <c r="BS6">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT6" s="2">
-        <v>45085.67662037037</v>
+        <v>45085.676620370366</v>
       </c>
       <c r="BU6" s="2">
-        <v>45085.67662037037</v>
+        <v>45085.676620370366</v>
       </c>
       <c r="BV6">
         <v>1686240860</v>
@@ -2571,22 +2684,22 @@
         <v>51</v>
       </c>
       <c r="BX6" s="2">
-        <v>45085.676613125</v>
+        <v>45085.676613124997</v>
       </c>
       <c r="BY6" s="2">
-        <v>45085.67720340277</v>
+        <v>45085.677203402767</v>
       </c>
       <c r="BZ6">
-        <v>8.981869888305663</v>
+        <v>8.9818698883056634</v>
       </c>
       <c r="CA6">
-        <v>0.0008695249204277013</v>
+        <v>8.6952492042770128E-4</v>
       </c>
       <c r="CB6">
         <v>32.70751953125</v>
       </c>
       <c r="CC6">
-        <v>0.003146701388888889</v>
+        <v>3.146701388888889E-3</v>
       </c>
       <c r="CD6" t="s">
         <v>123</v>
@@ -2598,16 +2711,29 @@
         <v>229</v>
       </c>
       <c r="CG6">
-        <v>37.0156</v>
+        <v>37.015599999999999</v>
       </c>
       <c r="CH6">
-        <v>0.0008944271910006118</v>
+        <v>8.9442719100061175E-4</v>
       </c>
       <c r="CI6">
-        <v>0.6075945492508548</v>
+        <v>0.60759454925085477</v>
+      </c>
+      <c r="CJ6">
+        <f t="shared" si="0"/>
+        <v>0.99753739494100757</v>
+      </c>
+      <c r="CK6">
+        <v>0.997537664275291</v>
+      </c>
+      <c r="CL6">
+        <v>0.99719661510518098</v>
+      </c>
+      <c r="CM6">
+        <v>1.00253067479747</v>
       </c>
     </row>
-    <row r="7" spans="1:87">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2615,34 +2741,34 @@
         <v>91</v>
       </c>
       <c r="C7">
-        <v>0.08855456683603009</v>
+        <v>8.8554566836030094E-2</v>
       </c>
       <c r="D7">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E7">
-        <v>0.590702702702702</v>
+        <v>0.59070270270270198</v>
       </c>
       <c r="F7">
-        <v>8.855456683603011</v>
+        <v>8.8554566836030109</v>
       </c>
       <c r="G7">
-        <v>8.8474</v>
+        <v>8.8474000000000004</v>
       </c>
       <c r="H7">
-        <v>37.015</v>
+        <v>37.015000000000001</v>
       </c>
       <c r="I7">
-        <v>37.016</v>
+        <v>37.015999999999998</v>
       </c>
       <c r="J7">
-        <v>37.016</v>
+        <v>37.015999999999998</v>
       </c>
       <c r="K7">
-        <v>37.016</v>
+        <v>37.015999999999998</v>
       </c>
       <c r="L7">
-        <v>37.016</v>
+        <v>37.015999999999998</v>
       </c>
       <c r="N7">
         <v>104.1066949894154</v>
@@ -2654,76 +2780,76 @@
         <v>104.1040736052076</v>
       </c>
       <c r="Q7">
-        <v>0.002621384207787745</v>
+        <v>2.621384207787745E-3</v>
       </c>
       <c r="R7" t="s">
         <v>124</v>
       </c>
       <c r="S7">
-        <v>104.3636429555795</v>
+        <v>104.36364295557949</v>
       </c>
       <c r="T7">
-        <v>0.003464613012622088</v>
+        <v>3.4646130126220879E-3</v>
       </c>
       <c r="U7">
-        <v>0.002511250469403343</v>
+        <v>2.511250469403343E-3</v>
       </c>
       <c r="V7">
         <v>1283.271796303786</v>
       </c>
       <c r="W7">
-        <v>0.002122567480828968</v>
+        <v>2.1225674808289679E-3</v>
       </c>
       <c r="X7">
-        <v>3817.672617994985</v>
+        <v>3817.6726179949851</v>
       </c>
       <c r="Y7">
         <v>1283.271846306287</v>
       </c>
       <c r="Z7">
-        <v>11448.2457660315</v>
+        <v>11448.245766031499</v>
       </c>
       <c r="AA7">
         <v>1.086101778356513</v>
       </c>
       <c r="AB7">
-        <v>8.990463431905276</v>
+        <v>8.9904634319052761</v>
       </c>
       <c r="AC7">
-        <v>0.7126506133738715</v>
+        <v>0.71265061337387148</v>
       </c>
       <c r="AD7">
-        <v>2.172203556713025</v>
+        <v>2.1722035567130251</v>
       </c>
       <c r="AE7" t="s">
         <v>152</v>
       </c>
       <c r="AF7">
-        <v>1387.635539264366</v>
+        <v>1387.6355392643659</v>
       </c>
       <c r="AG7">
-        <v>0.00134204553179312</v>
+        <v>1.34204553179312E-3</v>
       </c>
       <c r="AH7">
-        <v>8069.782043857669</v>
+        <v>8069.7820438576691</v>
       </c>
       <c r="AI7">
         <v>1387.635489261866</v>
       </c>
       <c r="AJ7">
-        <v>18915.75370468997</v>
+        <v>18915.753704689971</v>
       </c>
       <c r="AK7">
-        <v>0.8330132951500415</v>
+        <v>0.83301329515004152</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>14.93657777027039</v>
+        <v>14.936577770270389</v>
       </c>
       <c r="AN7">
-        <v>0.7561254925641592</v>
+        <v>0.75612549256415917</v>
       </c>
       <c r="AO7">
         <v>1.666026590300083</v>
@@ -2735,28 +2861,28 @@
         <v>1263.182166275086</v>
       </c>
       <c r="AR7">
-        <v>1725.070075481813</v>
+        <v>1725.0700754818131</v>
       </c>
       <c r="AS7">
-        <v>2.908739373832127</v>
+        <v>2.9087393738321272</v>
       </c>
       <c r="AT7">
-        <v>1409.029185160639</v>
+        <v>1409.0291851606389</v>
       </c>
       <c r="AU7">
         <v>2240.01123827738</v>
       </c>
       <c r="AV7">
-        <v>2.044009867491584</v>
+        <v>2.0440098674915839</v>
       </c>
       <c r="AW7">
         <v>1369.80631477425</v>
       </c>
       <c r="AX7">
-        <v>222.7882226406849</v>
+        <v>222.78822264068489</v>
       </c>
       <c r="AY7">
-        <v>0.4159706406927567</v>
+        <v>0.41597064069275669</v>
       </c>
       <c r="BF7" t="s">
         <v>124</v>
@@ -2777,7 +2903,7 @@
         <v>8</v>
       </c>
       <c r="BL7">
-        <v>34.017</v>
+        <v>34.017000000000003</v>
       </c>
       <c r="BM7">
         <v>10</v>
@@ -2798,13 +2924,13 @@
         <v>58066</v>
       </c>
       <c r="BS7">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT7" s="2">
-        <v>45085.67206018518</v>
+        <v>45085.672060185178</v>
       </c>
       <c r="BU7" s="2">
-        <v>45085.67206018518</v>
+        <v>45085.672060185178</v>
       </c>
       <c r="BV7">
         <v>1686240466</v>
@@ -2813,22 +2939,22 @@
         <v>51</v>
       </c>
       <c r="BX7" s="2">
-        <v>45085.67206456018</v>
+        <v>45085.672064560182</v>
       </c>
       <c r="BY7" s="2">
-        <v>45085.67265483797</v>
+        <v>45085.672654837967</v>
       </c>
       <c r="BZ7">
-        <v>8.847907638549806</v>
+        <v>8.8479076385498061</v>
       </c>
       <c r="CA7">
-        <v>0.0003359570915311139</v>
+        <v>3.3595709153111391E-4</v>
       </c>
       <c r="CB7">
         <v>32.7177734375</v>
       </c>
       <c r="CC7">
-        <v>0.0007595486111111111</v>
+        <v>7.5954861111111112E-4</v>
       </c>
       <c r="CD7" t="s">
         <v>124</v>
@@ -2840,16 +2966,29 @@
         <v>230</v>
       </c>
       <c r="CG7">
-        <v>37.0158</v>
+        <v>37.015799999999999</v>
       </c>
       <c r="CH7">
-        <v>0.0004472135954989157</v>
+        <v>4.4721359549891571E-4</v>
       </c>
       <c r="CI7">
-        <v>0.5889383207822966</v>
+        <v>0.58893832078229658</v>
+      </c>
+      <c r="CJ7">
+        <f t="shared" si="0"/>
+        <v>0.99753795518355515</v>
+      </c>
+      <c r="CK7">
+        <v>0.99753822990822505</v>
+      </c>
+      <c r="CL7">
+        <v>0.99719791457015505</v>
+      </c>
+      <c r="CM7">
+        <v>1.0025309837546199</v>
       </c>
     </row>
-    <row r="8" spans="1:87">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2857,22 +2996,22 @@
         <v>92</v>
       </c>
       <c r="C8">
-        <v>0.0877158986343813</v>
+        <v>8.7715898634381298E-2</v>
       </c>
       <c r="D8">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E8">
-        <v>0.576662162162162</v>
+        <v>0.57666216216216204</v>
       </c>
       <c r="F8">
-        <v>8.77158986343813</v>
+        <v>8.7715898634381304</v>
       </c>
       <c r="G8">
-        <v>8.789400000000001</v>
+        <v>8.7894000000000005</v>
       </c>
       <c r="H8">
-        <v>37.005</v>
+        <v>37.005000000000003</v>
       </c>
       <c r="I8">
         <v>37.009</v>
@@ -2881,7 +3020,7 @@
         <v>37.01</v>
       </c>
       <c r="K8">
-        <v>37.011</v>
+        <v>37.011000000000003</v>
       </c>
       <c r="L8">
         <v>37.01</v>
@@ -2896,7 +3035,7 @@
         <v>104.0761144167753</v>
       </c>
       <c r="Q8">
-        <v>0.007342981025650049</v>
+        <v>7.3429810256500491E-3</v>
       </c>
       <c r="R8" t="s">
         <v>125</v>
@@ -2905,25 +3044,25 @@
         <v>104.3402845451094</v>
       </c>
       <c r="T8">
-        <v>0.008497333452096696</v>
+        <v>8.4973334520966962E-3</v>
       </c>
       <c r="U8">
-        <v>0.007320505779973803</v>
+        <v>7.3205057799738031E-3</v>
       </c>
       <c r="V8">
         <v>1283.324033366159</v>
       </c>
       <c r="W8">
-        <v>0.007205647194073887</v>
+        <v>7.2056471940738871E-3</v>
       </c>
       <c r="X8">
-        <v>3862.903080221327</v>
+        <v>3862.9030802213269</v>
       </c>
       <c r="Y8">
         <v>1283.324033366159</v>
       </c>
       <c r="Z8">
-        <v>11475.83082324766</v>
+        <v>11475.830823247659</v>
       </c>
       <c r="AA8">
         <v>1.096536481787624</v>
@@ -2932,10 +3071,10 @@
         <v>18.10994640492261</v>
       </c>
       <c r="AC8">
-        <v>0.673343722775807</v>
+        <v>0.67334372277580701</v>
       </c>
       <c r="AD8">
-        <v>2.193072963575248</v>
+        <v>2.1930729635752479</v>
       </c>
       <c r="AE8" t="s">
         <v>152</v>
@@ -2944,28 +3083,28 @@
         <v>1387.664367913768</v>
       </c>
       <c r="AG8">
-        <v>0.001291686258022809</v>
+        <v>1.2916862580228091E-3</v>
       </c>
       <c r="AH8">
-        <v>8278.393907332485</v>
+        <v>8278.3939073324855</v>
       </c>
       <c r="AI8">
         <v>1387.664317911268</v>
       </c>
       <c r="AJ8">
-        <v>19272.47378052966</v>
+        <v>19272.473780529661</v>
       </c>
       <c r="AK8">
-        <v>0.8282867843413</v>
+        <v>0.82828678434129999</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>14.64799817027552</v>
+        <v>14.647998170275519</v>
       </c>
       <c r="AN8">
-        <v>0.7533936984000253</v>
+        <v>0.75339369840002535</v>
       </c>
       <c r="AO8">
         <v>1.6565735686826</v>
@@ -2974,19 +3113,19 @@
         <v>152</v>
       </c>
       <c r="AT8">
-        <v>1409.074499838652</v>
+        <v>1409.0744998386519</v>
       </c>
       <c r="AU8">
-        <v>2266.149986871969</v>
+        <v>2266.1499868719688</v>
       </c>
       <c r="AV8">
-        <v>2.003072365806313</v>
+        <v>2.0030723658063132</v>
       </c>
       <c r="AW8">
         <v>1369.84063245322</v>
       </c>
       <c r="AX8">
-        <v>217.9379225725093</v>
+        <v>217.93792257250931</v>
       </c>
       <c r="AY8">
         <v>0.4135829843746342</v>
@@ -3010,7 +3149,7 @@
         <v>8</v>
       </c>
       <c r="BL8">
-        <v>33.979</v>
+        <v>33.978999999999999</v>
       </c>
       <c r="BM8">
         <v>10</v>
@@ -3031,7 +3170,7 @@
         <v>57670</v>
       </c>
       <c r="BS8">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT8" s="2">
         <v>45085.66747685185</v>
@@ -3046,22 +3185,22 @@
         <v>51</v>
       </c>
       <c r="BX8" s="2">
-        <v>45085.66748127315</v>
+        <v>45085.667481273151</v>
       </c>
       <c r="BY8" s="2">
-        <v>45085.66807155093</v>
+        <v>45085.668071550928</v>
       </c>
       <c r="BZ8">
         <v>8.789143371582032</v>
       </c>
       <c r="CA8">
-        <v>0.0003105242772085943</v>
+        <v>3.1052427720859431E-4</v>
       </c>
       <c r="CB8">
         <v>32.765625</v>
       </c>
       <c r="CC8">
-        <v>0.001054282006920292</v>
+        <v>1.0542820069202919E-3</v>
       </c>
       <c r="CD8" t="s">
         <v>125</v>
@@ -3076,13 +3215,26 @@
         <v>37.009</v>
       </c>
       <c r="CH8">
-        <v>0.002345207879910794</v>
+        <v>2.3452078799107942E-3</v>
       </c>
       <c r="CI8">
-        <v>0.5794373776877834</v>
+        <v>0.57943737768778336</v>
+      </c>
+      <c r="CJ8">
+        <f t="shared" si="0"/>
+        <v>0.99753856194251167</v>
+      </c>
+      <c r="CK8">
+        <v>0.99753884251310498</v>
+      </c>
+      <c r="CL8">
+        <v>0.99719921146141999</v>
+      </c>
+      <c r="CM8">
+        <v>1.00253138714454</v>
       </c>
     </row>
-    <row r="9" spans="1:87">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3090,34 +3242,34 @@
         <v>93</v>
       </c>
       <c r="C9">
-        <v>0.08700948078191691</v>
+        <v>8.7009480781916906E-2</v>
       </c>
       <c r="D9">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E9">
-        <v>0.562621621621621</v>
+        <v>0.56262162162162099</v>
       </c>
       <c r="F9">
-        <v>8.70094807819169</v>
+        <v>8.7009480781916899</v>
       </c>
       <c r="G9">
-        <v>8.7217</v>
+        <v>8.7217000000000002</v>
       </c>
       <c r="H9">
-        <v>37.013</v>
+        <v>37.012999999999998</v>
       </c>
       <c r="I9">
-        <v>37.014</v>
+        <v>37.014000000000003</v>
       </c>
       <c r="J9">
-        <v>37.015</v>
+        <v>37.015000000000001</v>
       </c>
       <c r="K9">
-        <v>37.017</v>
+        <v>37.017000000000003</v>
       </c>
       <c r="L9">
-        <v>37.016</v>
+        <v>37.015999999999998</v>
       </c>
       <c r="N9">
         <v>104.0531306533623</v>
@@ -3129,7 +3281,7 @@
         <v>104.0505538944408</v>
       </c>
       <c r="Q9">
-        <v>0.002576758921456629</v>
+        <v>2.5767589214566291E-3</v>
       </c>
       <c r="R9" t="s">
         <v>126</v>
@@ -3138,22 +3290,22 @@
         <v>104.3098260721663</v>
       </c>
       <c r="T9">
-        <v>0.003399457522938215</v>
+        <v>3.3994575229382151E-3</v>
       </c>
       <c r="U9">
-        <v>0.002465603354980881</v>
+        <v>2.4656033549808809E-3</v>
       </c>
       <c r="V9">
-        <v>1283.394121707608</v>
+        <v>1283.3941217076081</v>
       </c>
       <c r="W9">
-        <v>0.002087700525237016</v>
+        <v>2.0877005252370158E-3</v>
       </c>
       <c r="X9">
         <v>3433.725426664284</v>
       </c>
       <c r="Y9">
-        <v>1283.394171710108</v>
+        <v>1283.3941717101079</v>
       </c>
       <c r="Z9">
         <v>10392.20867621411</v>
@@ -3162,13 +3314,13 @@
         <v>1.101054888501082</v>
       </c>
       <c r="AB9">
-        <v>8.030613674280909</v>
+        <v>8.0306136742809091</v>
       </c>
       <c r="AC9">
-        <v>0.7023503346766651</v>
+        <v>0.70235033467666508</v>
       </c>
       <c r="AD9">
-        <v>2.202109777002163</v>
+        <v>2.2021097770021631</v>
       </c>
       <c r="AE9" t="s">
         <v>152</v>
@@ -3177,10 +3329,10 @@
         <v>1387.704047784774</v>
       </c>
       <c r="AG9">
-        <v>0.0013117569977012</v>
+        <v>1.3117569977011999E-3</v>
       </c>
       <c r="AH9">
-        <v>7338.867250896852</v>
+        <v>7338.8672508968521</v>
       </c>
       <c r="AI9">
         <v>1387.703997782274</v>
@@ -3189,31 +3341,31 @@
         <v>17137.81166619368</v>
       </c>
       <c r="AK9">
-        <v>0.8311766116573271</v>
+        <v>0.83117661165732715</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>13.99150911939618</v>
+        <v>13.991509119396181</v>
       </c>
       <c r="AN9">
-        <v>0.7524233557323718</v>
+        <v>0.75242335573237185</v>
       </c>
       <c r="AO9">
-        <v>1.662353223314654</v>
+        <v>1.6623532233146541</v>
       </c>
       <c r="AP9" t="s">
         <v>152</v>
       </c>
       <c r="AQ9">
-        <v>1263.350935964478</v>
+        <v>1263.3509359644779</v>
       </c>
       <c r="AR9">
-        <v>1670.527200012357</v>
+        <v>1670.5272000123571</v>
       </c>
       <c r="AS9">
-        <v>3.116070404939607</v>
+        <v>3.1160704049396069</v>
       </c>
       <c r="AT9">
         <v>1409.096779726133</v>
@@ -3222,16 +3374,16 @@
         <v>2023.307122913958</v>
       </c>
       <c r="AV9">
-        <v>1.962542716144776</v>
+        <v>1.9625427161447759</v>
       </c>
       <c r="AW9">
         <v>1369.854308682894</v>
       </c>
       <c r="AX9">
-        <v>197.5019411746092</v>
+        <v>197.50194117460919</v>
       </c>
       <c r="AY9">
-        <v>0.4149747890651735</v>
+        <v>0.41497478906517349</v>
       </c>
       <c r="BF9" t="s">
         <v>126</v>
@@ -3252,7 +3404,7 @@
         <v>8</v>
       </c>
       <c r="BL9">
-        <v>34.027</v>
+        <v>34.027000000000001</v>
       </c>
       <c r="BM9">
         <v>10</v>
@@ -3273,13 +3425,13 @@
         <v>57337</v>
       </c>
       <c r="BS9">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT9" s="2">
-        <v>45085.66362268518</v>
+        <v>45085.663622685177</v>
       </c>
       <c r="BU9" s="2">
-        <v>45085.66362268518</v>
+        <v>45085.663622685177</v>
       </c>
       <c r="BV9">
         <v>1686239737</v>
@@ -3288,22 +3440,22 @@
         <v>51</v>
       </c>
       <c r="BX9" s="2">
-        <v>45085.66362672453</v>
+        <v>45085.663626724527</v>
       </c>
       <c r="BY9" s="2">
-        <v>45085.66421700231</v>
+        <v>45085.664217002311</v>
       </c>
       <c r="BZ9">
-        <v>8.722406005859375</v>
+        <v>8.7224060058593746</v>
       </c>
       <c r="CA9">
-        <v>0.0003278158115269789</v>
+        <v>3.2781581152697888E-4</v>
       </c>
       <c r="CB9">
         <v>32.806640625</v>
       </c>
       <c r="CC9">
-        <v>0.001392192906574173</v>
+        <v>1.3921929065741729E-3</v>
       </c>
       <c r="CD9" t="s">
         <v>126</v>
@@ -3315,16 +3467,29 @@
         <v>232</v>
       </c>
       <c r="CG9">
-        <v>37.015</v>
+        <v>37.015000000000001</v>
       </c>
       <c r="CH9">
-        <v>0.001581138830084999</v>
+        <v>1.5811388300849989E-3</v>
       </c>
       <c r="CI9">
-        <v>0.5664469816800456</v>
+        <v>0.56644698168004559</v>
+      </c>
+      <c r="CJ9">
+        <f t="shared" si="0"/>
+        <v>0.99753910606056995</v>
+      </c>
+      <c r="CK9">
+        <v>0.99753939187930696</v>
+      </c>
+      <c r="CL9">
+        <v>0.99720029491337103</v>
+      </c>
+      <c r="CM9">
+        <v>1.0025317984195701</v>
       </c>
     </row>
-    <row r="10" spans="1:87">
+    <row r="10" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3332,19 +3497,19 @@
         <v>94</v>
       </c>
       <c r="C10">
-        <v>0.0864113650161995</v>
+        <v>8.6411365016199504E-2</v>
       </c>
       <c r="D10">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E10">
-        <v>0.5485810810810809</v>
+        <v>0.54858108108108095</v>
       </c>
       <c r="F10">
-        <v>8.64113650161995</v>
+        <v>8.6411365016199504</v>
       </c>
       <c r="G10">
-        <v>8.674099999999999</v>
+        <v>8.6740999999999993</v>
       </c>
       <c r="H10">
         <v>36.997</v>
@@ -3353,10 +3518,10 @@
         <v>37</v>
       </c>
       <c r="J10">
-        <v>37.002</v>
+        <v>37.002000000000002</v>
       </c>
       <c r="K10">
-        <v>37.004</v>
+        <v>37.003999999999998</v>
       </c>
       <c r="L10">
         <v>37.009</v>
@@ -3371,28 +3536,28 @@
         <v>104.0251250878709</v>
       </c>
       <c r="Q10">
-        <v>0.002494845144531236</v>
+        <v>2.4948451445312358E-3</v>
       </c>
       <c r="R10" t="s">
         <v>127</v>
       </c>
       <c r="S10">
-        <v>104.2842083174799</v>
+        <v>104.28420831747989</v>
       </c>
       <c r="T10">
-        <v>0.003289267050379525</v>
+        <v>3.289267050379525E-3</v>
       </c>
       <c r="U10">
-        <v>0.002379841562779068</v>
+        <v>2.3798415627790679E-3</v>
       </c>
       <c r="V10">
         <v>1283.456972782715</v>
       </c>
       <c r="W10">
-        <v>0.002001009029099967</v>
+        <v>2.001009029099967E-3</v>
       </c>
       <c r="X10">
-        <v>3597.980974707808</v>
+        <v>3597.9809747078079</v>
       </c>
       <c r="Y10">
         <v>1283.457022785215</v>
@@ -3401,16 +3566,16 @@
         <v>10896.60633956005</v>
       </c>
       <c r="AA10">
-        <v>1.110264621143047</v>
+        <v>1.1102646211430469</v>
       </c>
       <c r="AB10">
-        <v>8.21943370716952</v>
+        <v>8.2194337071695198</v>
       </c>
       <c r="AC10">
         <v>0.683496097840536</v>
       </c>
       <c r="AD10">
-        <v>2.220529242286093</v>
+        <v>2.2205292422860929</v>
       </c>
       <c r="AE10" t="s">
         <v>152</v>
@@ -3419,19 +3584,19 @@
         <v>1387.741281105195</v>
       </c>
       <c r="AG10">
-        <v>0.001288258021279559</v>
+        <v>1.2882580212795591E-3</v>
       </c>
       <c r="AH10">
-        <v>7733.941742261714</v>
+        <v>7733.9417422617144</v>
       </c>
       <c r="AI10">
-        <v>1387.741231102695</v>
+        <v>1387.7412311026951</v>
       </c>
       <c r="AJ10">
-        <v>17984.79586813216</v>
+        <v>17984.795868132162</v>
       </c>
       <c r="AK10">
-        <v>0.8303709360416103</v>
+        <v>0.83037093604161027</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -3440,7 +3605,7 @@
         <v>13.39827604492729</v>
       </c>
       <c r="AN10">
-        <v>0.7447565512056732</v>
+        <v>0.74475655120567319</v>
       </c>
       <c r="AO10">
         <v>1.660741872083221</v>
@@ -3455,25 +3620,25 @@
         <v>1649.698020596468</v>
       </c>
       <c r="AS10">
-        <v>2.838952668545595</v>
+        <v>2.8389526685455948</v>
       </c>
       <c r="AT10">
-        <v>1409.183308696218</v>
+        <v>1409.1833086962181</v>
       </c>
       <c r="AU10">
-        <v>2060.989422847799</v>
+        <v>2060.9894228477988</v>
       </c>
       <c r="AV10">
-        <v>1.858487506932523</v>
+        <v>1.8584875069325231</v>
       </c>
       <c r="AW10">
         <v>1369.892544236774</v>
       </c>
       <c r="AX10">
-        <v>216.5358424709962</v>
+        <v>216.53584247099619</v>
       </c>
       <c r="AY10">
-        <v>0.4145353457304513</v>
+        <v>0.41453534573045131</v>
       </c>
       <c r="BF10" t="s">
         <v>127</v>
@@ -3494,7 +3659,7 @@
         <v>8</v>
       </c>
       <c r="BL10">
-        <v>33.993</v>
+        <v>33.993000000000002</v>
       </c>
       <c r="BM10">
         <v>10</v>
@@ -3515,13 +3680,13 @@
         <v>57091</v>
       </c>
       <c r="BS10">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT10" s="2">
-        <v>45085.66077546297</v>
+        <v>45085.660775462973</v>
       </c>
       <c r="BU10" s="2">
-        <v>45085.66077546297</v>
+        <v>45085.660775462973</v>
       </c>
       <c r="BV10">
         <v>1686239491</v>
@@ -3530,22 +3695,22 @@
         <v>51</v>
       </c>
       <c r="BX10" s="2">
-        <v>45085.66077947916</v>
+        <v>45085.660779479163</v>
       </c>
       <c r="BY10" s="2">
-        <v>45085.66136975694</v>
+        <v>45085.661369756941</v>
       </c>
       <c r="BZ10">
-        <v>8.674592590332031</v>
+        <v>8.6745925903320309</v>
       </c>
       <c r="CA10">
-        <v>0.000432953620039393</v>
+        <v>4.3295362003939301E-4</v>
       </c>
       <c r="CB10">
         <v>32.8681640625</v>
       </c>
       <c r="CC10">
-        <v>0.002331585207612531</v>
+        <v>2.3315852076125311E-3</v>
       </c>
       <c r="CD10" t="s">
         <v>127</v>
@@ -3557,16 +3722,29 @@
         <v>233</v>
       </c>
       <c r="CG10">
-        <v>37.0024</v>
+        <v>37.002400000000002</v>
       </c>
       <c r="CH10">
-        <v>0.004505552130427432</v>
+        <v>4.5055521304274322E-3</v>
       </c>
       <c r="CI10">
-        <v>0.5565924596114691</v>
+        <v>0.55659245961146908</v>
+      </c>
+      <c r="CJ10">
+        <f t="shared" si="0"/>
+        <v>0.99753952790547784</v>
+      </c>
+      <c r="CK10">
+        <v>0.99753981779616796</v>
+      </c>
+      <c r="CL10">
+        <v>0.99720109112626898</v>
+      </c>
+      <c r="CM10">
+        <v>1.00253214452495</v>
       </c>
     </row>
-    <row r="11" spans="1:87">
+    <row r="11" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3574,37 +3752,37 @@
         <v>95</v>
       </c>
       <c r="C11">
-        <v>0.08590016376480369</v>
+        <v>8.5900163764803694E-2</v>
       </c>
       <c r="D11">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E11">
-        <v>0.53454054054054</v>
+        <v>0.53454054054054001</v>
       </c>
       <c r="F11">
-        <v>8.590016376480371</v>
+        <v>8.5900163764803708</v>
       </c>
       <c r="G11">
-        <v>8.5982</v>
+        <v>8.5982000000000003</v>
       </c>
       <c r="H11">
-        <v>36.992</v>
+        <v>36.991999999999997</v>
       </c>
       <c r="I11">
-        <v>36.992</v>
+        <v>36.991999999999997</v>
       </c>
       <c r="J11">
-        <v>36.993</v>
+        <v>36.993000000000002</v>
       </c>
       <c r="K11">
-        <v>36.993</v>
+        <v>36.993000000000002</v>
       </c>
       <c r="L11">
-        <v>36.995</v>
+        <v>36.994999999999997</v>
       </c>
       <c r="N11">
-        <v>103.9735100165097</v>
+        <v>103.97351001650971</v>
       </c>
       <c r="O11">
         <v>103.9762035463158</v>
@@ -3613,7 +3791,7 @@
         <v>103.9708164867036</v>
       </c>
       <c r="Q11">
-        <v>0.002693529806079849</v>
+        <v>2.6935298060798492E-3</v>
       </c>
       <c r="R11" t="s">
         <v>128</v>
@@ -3622,34 +3800,34 @@
         <v>104.2299371938022</v>
       </c>
       <c r="T11">
-        <v>0.003571474071530882</v>
+        <v>3.5714740715308822E-3</v>
       </c>
       <c r="U11">
-        <v>0.002588660748806185</v>
+        <v>2.588660748806185E-3</v>
       </c>
       <c r="V11">
         <v>1283.581328206838</v>
       </c>
       <c r="W11">
-        <v>0.002187888096065618</v>
+        <v>2.1878880960656179E-3</v>
       </c>
       <c r="X11">
-        <v>3235.367494160114</v>
+        <v>3235.3674941601139</v>
       </c>
       <c r="Y11">
         <v>1283.581378209338</v>
       </c>
       <c r="Z11">
-        <v>9843.631204619198</v>
+        <v>9843.6312046191979</v>
       </c>
       <c r="AA11">
-        <v>1.12183733907125</v>
+        <v>1.1218373390712499</v>
       </c>
       <c r="AB11">
-        <v>8.236240479910116</v>
+        <v>8.2362404799101157</v>
       </c>
       <c r="AC11">
-        <v>0.66959966942077</v>
+        <v>0.66959966942076998</v>
       </c>
       <c r="AD11">
         <v>2.243674678142499</v>
@@ -3661,31 +3839,31 @@
         <v>1387.811365405641</v>
       </c>
       <c r="AG11">
-        <v>0.001383585975465264</v>
+        <v>1.383585975465264E-3</v>
       </c>
       <c r="AH11">
-        <v>6961.305736465671</v>
+        <v>6961.3057364656706</v>
       </c>
       <c r="AI11">
         <v>1387.81131540314</v>
       </c>
       <c r="AJ11">
-        <v>16073.35705590909</v>
+        <v>16073.357055909089</v>
       </c>
       <c r="AK11">
-        <v>0.8283778893337697</v>
+        <v>0.82837788933376966</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>13.84275627292105</v>
+        <v>13.842756272921051</v>
       </c>
       <c r="AN11">
-        <v>0.7336432270690881</v>
+        <v>0.73364322706908813</v>
       </c>
       <c r="AO11">
-        <v>1.656755778667539</v>
+        <v>1.6567557786675391</v>
       </c>
       <c r="AP11" t="s">
         <v>152</v>
@@ -3694,16 +3872,16 @@
         <v>1263.490112584783</v>
       </c>
       <c r="AR11">
-        <v>1523.996899768979</v>
+        <v>1523.9968997689789</v>
       </c>
       <c r="AS11">
-        <v>2.875055476317584</v>
+        <v>2.8750554763175842</v>
       </c>
       <c r="AT11">
-        <v>1409.240156046793</v>
+        <v>1409.2401560467929</v>
       </c>
       <c r="AU11">
-        <v>1896.412610104417</v>
+        <v>1896.4126101044169</v>
       </c>
       <c r="AV11">
         <v>1.850028693906532</v>
@@ -3712,10 +3890,10 @@
         <v>1369.99378294706</v>
       </c>
       <c r="AX11">
-        <v>190.0561806859425</v>
+        <v>190.05618068594251</v>
       </c>
       <c r="AY11">
-        <v>0.4135503564679038</v>
+        <v>0.41355035646790378</v>
       </c>
       <c r="BF11" t="s">
         <v>128</v>
@@ -3736,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="BL11">
-        <v>33.992</v>
+        <v>33.991999999999997</v>
       </c>
       <c r="BM11">
         <v>10</v>
@@ -3757,13 +3935,13 @@
         <v>56941</v>
       </c>
       <c r="BS11">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT11" s="2">
-        <v>45085.65903935185</v>
+        <v>45085.659039351849</v>
       </c>
       <c r="BU11" s="2">
-        <v>45085.65903935185</v>
+        <v>45085.659039351849</v>
       </c>
       <c r="BV11">
         <v>1686239341</v>
@@ -3772,22 +3950,22 @@
         <v>52</v>
       </c>
       <c r="BX11" s="2">
-        <v>45085.65904336805</v>
+        <v>45085.659043368047</v>
       </c>
       <c r="BY11" s="2">
-        <v>45085.65964521991</v>
+        <v>45085.659645219908</v>
       </c>
       <c r="BZ11">
-        <v>8.597866058349609</v>
+        <v>8.5978660583496094</v>
       </c>
       <c r="CA11">
-        <v>0.000835969712999053</v>
+        <v>8.3596971299905302E-4</v>
       </c>
       <c r="CB11">
         <v>32.8671875</v>
       </c>
       <c r="CC11">
-        <v>0.004177517361111111</v>
+        <v>4.177517361111111E-3</v>
       </c>
       <c r="CD11" t="s">
         <v>128</v>
@@ -3799,16 +3977,29 @@
         <v>234</v>
       </c>
       <c r="CG11">
-        <v>36.993</v>
+        <v>36.993000000000002</v>
       </c>
       <c r="CH11">
-        <v>0.001224744871391636</v>
+        <v>1.224744871391636E-3</v>
       </c>
       <c r="CI11">
-        <v>0.5372559457283406</v>
+        <v>0.53725594572834057</v>
+      </c>
+      <c r="CJ11">
+        <f t="shared" si="0"/>
+        <v>0.9975397934202368</v>
+      </c>
+      <c r="CK11">
+        <v>0.99754008587512399</v>
+      </c>
+      <c r="CL11">
+        <v>0.99720157488080197</v>
+      </c>
+      <c r="CM11">
+        <v>1.0025323731973099</v>
       </c>
     </row>
-    <row r="12" spans="1:87">
+    <row r="12" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3816,19 +4007,19 @@
         <v>96</v>
       </c>
       <c r="C12">
-        <v>0.0854563412387008</v>
+        <v>8.54563412387008E-2</v>
       </c>
       <c r="D12">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E12">
-        <v>0.5205</v>
+        <v>0.52049999999999996</v>
       </c>
       <c r="F12">
-        <v>8.54563412387008</v>
+        <v>8.5456341238700801</v>
       </c>
       <c r="G12">
-        <v>8.5688</v>
+        <v>8.5687999999999995</v>
       </c>
       <c r="H12">
         <v>37.01</v>
@@ -3840,13 +4031,13 @@
         <v>37.012</v>
       </c>
       <c r="K12">
-        <v>37.013</v>
+        <v>37.012999999999998</v>
       </c>
       <c r="L12">
         <v>37.012</v>
       </c>
       <c r="N12">
-        <v>103.9541939177008</v>
+        <v>103.95419391770081</v>
       </c>
       <c r="O12">
         <v>103.9568422626636</v>
@@ -3855,7 +4046,7 @@
         <v>103.951545572738</v>
       </c>
       <c r="Q12">
-        <v>0.002648344962815275</v>
+        <v>2.6483449628152749E-3</v>
       </c>
       <c r="R12" t="s">
         <v>129</v>
@@ -3864,34 +4055,34 @@
         <v>104.2104215765642</v>
       </c>
       <c r="T12">
-        <v>0.003471096552595929</v>
+        <v>3.471096552595929E-3</v>
       </c>
       <c r="U12">
-        <v>0.002542298527993141</v>
+        <v>2.5422985279931411E-3</v>
       </c>
       <c r="V12">
         <v>1283.621007921296</v>
       </c>
       <c r="W12">
-        <v>0.002204070509876276</v>
+        <v>2.204070509876276E-3</v>
       </c>
       <c r="X12">
-        <v>3234.866352236052</v>
+        <v>3234.8663522360521</v>
       </c>
       <c r="Y12">
-        <v>1283.621057923796</v>
+        <v>1283.6210579237959</v>
       </c>
       <c r="Z12">
-        <v>9829.60679905182</v>
+        <v>9829.6067990518204</v>
       </c>
       <c r="AA12">
-        <v>1.13017208388344</v>
+        <v>1.1301720838834399</v>
       </c>
       <c r="AB12">
-        <v>8.038669339193993</v>
+        <v>8.0386693391939925</v>
       </c>
       <c r="AC12">
-        <v>0.6482040404472252</v>
+        <v>0.64820404044722524</v>
       </c>
       <c r="AD12">
         <v>2.260344167766879</v>
@@ -3900,22 +4091,22 @@
         <v>152</v>
       </c>
       <c r="AF12">
-        <v>1387.83152950286</v>
+        <v>1387.8315295028599</v>
       </c>
       <c r="AG12">
-        <v>0.001267026042719653</v>
+        <v>1.267026042719653E-3</v>
       </c>
       <c r="AH12">
-        <v>6971.914288186164</v>
+        <v>6971.9142881861644</v>
       </c>
       <c r="AI12">
         <v>1387.83147950036</v>
       </c>
       <c r="AJ12">
-        <v>16017.06583563533</v>
+        <v>16017.065835635331</v>
       </c>
       <c r="AK12">
-        <v>0.8281295857969069</v>
+        <v>0.82812958579690688</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -3924,7 +4115,7 @@
         <v>13.16450785918526</v>
       </c>
       <c r="AN12">
-        <v>0.7223823521364867</v>
+        <v>0.72238235213648672</v>
       </c>
       <c r="AO12">
         <v>1.656259171593814</v>
@@ -3933,7 +4124,7 @@
         <v>152</v>
       </c>
       <c r="AQ12">
-        <v>1263.575358309426</v>
+        <v>1263.5753583094261</v>
       </c>
       <c r="AR12">
         <v>1460.301393257143</v>
@@ -3942,22 +4133,22 @@
         <v>2.743451335509929</v>
       </c>
       <c r="AT12">
-        <v>1409.237632892612</v>
+        <v>1409.2376328926121</v>
       </c>
       <c r="AU12">
-        <v>1865.099176981537</v>
+        <v>1865.0991769815371</v>
       </c>
       <c r="AV12">
-        <v>1.818620310296826</v>
+        <v>1.8186203102968259</v>
       </c>
       <c r="AW12">
-        <v>1370.062458810843</v>
+        <v>1370.0624588108431</v>
       </c>
       <c r="AX12">
         <v>184.3822695070788</v>
       </c>
       <c r="AY12">
-        <v>0.4134468499585234</v>
+        <v>0.41344684995852338</v>
       </c>
       <c r="BF12" t="s">
         <v>129</v>
@@ -3978,7 +4169,7 @@
         <v>8</v>
       </c>
       <c r="BL12">
-        <v>33.981</v>
+        <v>33.981000000000002</v>
       </c>
       <c r="BM12">
         <v>10</v>
@@ -3999,13 +4190,13 @@
         <v>56175</v>
       </c>
       <c r="BS12">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT12" s="2">
-        <v>45085.65017361111</v>
+        <v>45085.650173611109</v>
       </c>
       <c r="BU12" s="2">
-        <v>45085.65017361111</v>
+        <v>45085.650173611109</v>
       </c>
       <c r="BV12">
         <v>1686238575</v>
@@ -4014,22 +4205,22 @@
         <v>52</v>
       </c>
       <c r="BX12" s="2">
-        <v>45085.65018905092</v>
+        <v>45085.650189050917</v>
       </c>
       <c r="BY12" s="2">
-        <v>45085.65079090278</v>
+        <v>45085.650790902779</v>
       </c>
       <c r="BZ12">
         <v>8.569773864746093</v>
       </c>
       <c r="CA12">
-        <v>0.0004842970106335227</v>
+        <v>4.8429701063352272E-4</v>
       </c>
       <c r="CB12">
         <v>33.08837890625</v>
       </c>
       <c r="CC12">
-        <v>0.001410590277777778</v>
+        <v>1.410590277777778E-3</v>
       </c>
       <c r="CD12" t="s">
         <v>129</v>
@@ -4041,16 +4232,29 @@
         <v>235</v>
       </c>
       <c r="CG12">
-        <v>37.0118</v>
+        <v>37.011800000000001</v>
       </c>
       <c r="CH12">
-        <v>0.001095445115010698</v>
+        <v>1.095445115010698E-3</v>
       </c>
       <c r="CI12">
-        <v>0.5276118704314988</v>
+        <v>0.52761187043149882</v>
+      </c>
+      <c r="CJ12">
+        <f t="shared" si="0"/>
+        <v>0.99754124726695259</v>
+      </c>
+      <c r="CK12">
+        <v>0.99754155377667098</v>
+      </c>
+      <c r="CL12">
+        <v>0.99720402468698699</v>
+      </c>
+      <c r="CM12">
+        <v>1.0025337492327</v>
       </c>
     </row>
-    <row r="13" spans="1:87">
+    <row r="13" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4058,70 +4262,70 @@
         <v>97</v>
       </c>
       <c r="C13">
-        <v>0.0850625445232125</v>
+        <v>8.5062544523212505E-2</v>
       </c>
       <c r="D13">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E13">
-        <v>0.506459459459459</v>
+        <v>0.50645945945945903</v>
       </c>
       <c r="F13">
-        <v>8.506254452321251</v>
+        <v>8.5062544523212509</v>
       </c>
       <c r="G13">
-        <v>8.5228</v>
+        <v>8.5228000000000002</v>
       </c>
       <c r="H13">
         <v>36.994</v>
       </c>
       <c r="I13">
-        <v>36.995</v>
+        <v>36.994999999999997</v>
       </c>
       <c r="J13">
-        <v>36.996</v>
+        <v>36.996000000000002</v>
       </c>
       <c r="K13">
         <v>36.997</v>
       </c>
       <c r="L13">
-        <v>36.999</v>
+        <v>36.999000000000002</v>
       </c>
       <c r="N13">
-        <v>103.9052138764521</v>
+        <v>103.90521387645209</v>
       </c>
       <c r="O13">
         <v>103.9079913923908</v>
       </c>
       <c r="P13">
-        <v>103.9024363605134</v>
+        <v>103.90243636051341</v>
       </c>
       <c r="Q13">
-        <v>0.002777515938712701</v>
+        <v>2.7775159387127008E-3</v>
       </c>
       <c r="R13" t="s">
         <v>130</v>
       </c>
       <c r="S13">
-        <v>104.1612331893161</v>
+        <v>104.16123318931611</v>
       </c>
       <c r="T13">
-        <v>0.003632493317464618</v>
+        <v>3.6324933174646181E-3</v>
       </c>
       <c r="U13">
-        <v>0.002677726565877018</v>
+        <v>2.6777265658770181E-3</v>
       </c>
       <c r="V13">
         <v>1283.71695075557</v>
       </c>
       <c r="W13">
-        <v>0.002351370808295275</v>
+        <v>2.3513708082952751E-3</v>
       </c>
       <c r="X13">
-        <v>2940.371496592625</v>
+        <v>2940.3714965926251</v>
       </c>
       <c r="Y13">
-        <v>1283.71700075807</v>
+        <v>1283.7170007580701</v>
       </c>
       <c r="Z13">
         <v>8969.934737384885</v>
@@ -4130,13 +4334,13 @@
         <v>1.139073126608283</v>
       </c>
       <c r="AB13">
-        <v>7.489914668473913</v>
+        <v>7.4899146684739133</v>
       </c>
       <c r="AC13">
-        <v>0.6387496342183744</v>
+        <v>0.63874963421837438</v>
       </c>
       <c r="AD13">
-        <v>2.278146253216566</v>
+        <v>2.2781462532165659</v>
       </c>
       <c r="AE13" t="s">
         <v>152</v>
@@ -4145,19 +4349,19 @@
         <v>1387.878283949887</v>
       </c>
       <c r="AG13">
-        <v>0.001281122509169344</v>
+        <v>1.281122509169344E-3</v>
       </c>
       <c r="AH13">
-        <v>6374.971799566512</v>
+        <v>6374.9717995665123</v>
       </c>
       <c r="AI13">
         <v>1387.878233947386</v>
       </c>
       <c r="AJ13">
-        <v>14542.27917771139</v>
+        <v>14542.279177711391</v>
       </c>
       <c r="AK13">
-        <v>0.8255683413004238</v>
+        <v>0.82556834130042378</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -4166,7 +4370,7 @@
         <v>12.57991839464208</v>
       </c>
       <c r="AN13">
-        <v>0.7128402537769161</v>
+        <v>0.71284025377691607</v>
       </c>
       <c r="AO13">
         <v>1.651136682600848</v>
@@ -4175,31 +4379,31 @@
         <v>152</v>
       </c>
       <c r="AQ13">
-        <v>1263.679157072533</v>
+        <v>1263.6791570725329</v>
       </c>
       <c r="AR13">
         <v>1386.489603233219</v>
       </c>
       <c r="AS13">
-        <v>2.814346079049547</v>
+        <v>2.8143460790495469</v>
       </c>
       <c r="AT13">
         <v>1409.298991599047</v>
       </c>
       <c r="AU13">
-        <v>1681.383909682234</v>
+        <v>1681.3839096822339</v>
       </c>
       <c r="AV13">
-        <v>1.768376082110911</v>
+        <v>1.7683760821109109</v>
       </c>
       <c r="AW13">
         <v>1370.10487437913</v>
       </c>
       <c r="AX13">
-        <v>168.4961278576773</v>
+        <v>168.49612785767729</v>
       </c>
       <c r="AY13">
-        <v>0.4122321533193136</v>
+        <v>0.41223215331931362</v>
       </c>
       <c r="BF13" t="s">
         <v>130</v>
@@ -4220,7 +4424,7 @@
         <v>8</v>
       </c>
       <c r="BL13">
-        <v>34.092</v>
+        <v>34.091999999999999</v>
       </c>
       <c r="BM13">
         <v>10</v>
@@ -4241,13 +4445,13 @@
         <v>55768</v>
       </c>
       <c r="BS13">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT13" s="2">
-        <v>45085.64546296297</v>
+        <v>45085.645462962973</v>
       </c>
       <c r="BU13" s="2">
-        <v>45085.64546296297</v>
+        <v>45085.645462962973</v>
       </c>
       <c r="BV13">
         <v>1686238168</v>
@@ -4256,22 +4460,22 @@
         <v>52</v>
       </c>
       <c r="BX13" s="2">
-        <v>45085.64546679398</v>
+        <v>45085.645466793983</v>
       </c>
       <c r="BY13" s="2">
         <v>45085.64606864583</v>
       </c>
       <c r="BZ13">
-        <v>8.523164749145508</v>
+        <v>8.5231647491455078</v>
       </c>
       <c r="CA13">
-        <v>0.0002954930434991472</v>
+        <v>2.9549304349914718E-4</v>
       </c>
       <c r="CB13">
         <v>33.11962890625</v>
       </c>
       <c r="CC13">
-        <v>0.0009223090277777778</v>
+        <v>9.2230902777777775E-4</v>
       </c>
       <c r="CD13" t="s">
         <v>130</v>
@@ -4283,16 +4487,29 @@
         <v>236</v>
       </c>
       <c r="CG13">
-        <v>36.9962</v>
+        <v>36.996200000000002</v>
       </c>
       <c r="CH13">
-        <v>0.001923538406168377</v>
+        <v>1.923538406168377E-3</v>
       </c>
       <c r="CI13">
-        <v>0.512938496635385</v>
+        <v>0.51293849663538504</v>
+      </c>
+      <c r="CJ13">
+        <f t="shared" si="0"/>
+        <v>0.9975420863883333</v>
+      </c>
+      <c r="CK13">
+        <v>0.99754240101924496</v>
+      </c>
+      <c r="CL13">
+        <v>0.99720531235251897</v>
+      </c>
+      <c r="CM13">
+        <v>1.00253462208003</v>
       </c>
     </row>
-    <row r="14" spans="1:87">
+    <row r="14" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4300,34 +4517,34 @@
         <v>98</v>
       </c>
       <c r="C14">
-        <v>0.0847042851472886</v>
+        <v>8.4704285147288602E-2</v>
       </c>
       <c r="D14">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E14">
-        <v>0.492418918918919</v>
+        <v>0.49241891891891898</v>
       </c>
       <c r="F14">
-        <v>8.470428514728869</v>
+        <v>8.4704285147288694</v>
       </c>
       <c r="G14">
-        <v>8.4786</v>
+        <v>8.4786000000000001</v>
       </c>
       <c r="H14">
-        <v>36.989</v>
+        <v>36.988999999999997</v>
       </c>
       <c r="I14">
-        <v>36.989</v>
+        <v>36.988999999999997</v>
       </c>
       <c r="J14">
         <v>36.991</v>
       </c>
       <c r="K14">
-        <v>36.992</v>
+        <v>36.991999999999997</v>
       </c>
       <c r="L14">
-        <v>36.995</v>
+        <v>36.994999999999997</v>
       </c>
       <c r="N14">
         <v>103.8643533011917</v>
@@ -4336,10 +4553,10 @@
         <v>103.8672742727699</v>
       </c>
       <c r="P14">
-        <v>103.8614323296134</v>
+        <v>103.86143232961339</v>
       </c>
       <c r="Q14">
-        <v>0.002920971578258389</v>
+        <v>2.9209715782583892E-3</v>
       </c>
       <c r="R14" t="s">
         <v>131</v>
@@ -4348,16 +4565,16 @@
         <v>104.1201513544904</v>
       </c>
       <c r="T14">
-        <v>0.003907060227548551</v>
+        <v>3.9070602275485507E-3</v>
       </c>
       <c r="U14">
-        <v>0.002827462824668996</v>
+        <v>2.8274628246689961E-3</v>
       </c>
       <c r="V14">
-        <v>1283.811460382483</v>
+        <v>1283.8114603824829</v>
       </c>
       <c r="W14">
-        <v>0.002378962960437127</v>
+        <v>2.3789629604371271E-3</v>
       </c>
       <c r="X14">
         <v>2960.164184548446</v>
@@ -4366,40 +4583,40 @@
         <v>1283.811510384983</v>
       </c>
       <c r="Z14">
-        <v>8946.899723070401</v>
+        <v>8946.8997230704008</v>
       </c>
       <c r="AA14">
-        <v>1.130995218188476</v>
+        <v>1.1309952181884759</v>
       </c>
       <c r="AB14">
-        <v>7.633878896157912</v>
+        <v>7.6338788961579116</v>
       </c>
       <c r="AC14">
-        <v>0.6330365460896656</v>
+        <v>0.63303654608966564</v>
       </c>
       <c r="AD14">
-        <v>2.261990436376952</v>
+        <v>2.2619904363769519</v>
       </c>
       <c r="AE14" t="s">
         <v>152</v>
       </c>
       <c r="AF14">
-        <v>1387.931711741974</v>
+        <v>1387.9317117419739</v>
       </c>
       <c r="AG14">
-        <v>0.001528097267111424</v>
+        <v>1.5280972671114241E-3</v>
       </c>
       <c r="AH14">
-        <v>6414.38260920074</v>
+        <v>6414.3826092007403</v>
       </c>
       <c r="AI14">
-        <v>1387.931661739474</v>
+        <v>1387.9316617394741</v>
       </c>
       <c r="AJ14">
-        <v>14495.19987076332</v>
+        <v>14495.199870763319</v>
       </c>
       <c r="AK14">
-        <v>0.820311162665863</v>
+        <v>0.82031116266586301</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -4408,7 +4625,7 @@
         <v>13.02195980430745</v>
       </c>
       <c r="AN14">
-        <v>0.7055956152497825</v>
+        <v>0.70559561524978254</v>
       </c>
       <c r="AO14">
         <v>1.640622325331726</v>
@@ -4423,7 +4640,7 @@
         <v>1294.549868039612</v>
       </c>
       <c r="AS14">
-        <v>2.583048463568564</v>
+        <v>2.5830484635685642</v>
       </c>
       <c r="AT14">
         <v>1409.351914291881</v>
@@ -4432,10 +4649,10 @@
         <v>1679.18183259186</v>
       </c>
       <c r="AV14">
-        <v>1.725047048524173</v>
+        <v>1.7250470485241729</v>
       </c>
       <c r="AW14">
-        <v>1370.092297420923</v>
+        <v>1370.0922974209229</v>
       </c>
       <c r="AX14">
         <v>169.8719800880688</v>
@@ -4462,7 +4679,7 @@
         <v>8</v>
       </c>
       <c r="BL14">
-        <v>34.179</v>
+        <v>34.179000000000002</v>
       </c>
       <c r="BM14">
         <v>10</v>
@@ -4483,13 +4700,13 @@
         <v>55241</v>
       </c>
       <c r="BS14">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT14" s="2">
-        <v>45085.63936342593</v>
+        <v>45085.639363425929</v>
       </c>
       <c r="BU14" s="2">
-        <v>45085.63936342593</v>
+        <v>45085.639363425929</v>
       </c>
       <c r="BV14">
         <v>1686237641</v>
@@ -4498,22 +4715,22 @@
         <v>51</v>
       </c>
       <c r="BX14" s="2">
-        <v>45085.63935502315</v>
+        <v>45085.639355023151</v>
       </c>
       <c r="BY14" s="2">
-        <v>45085.63994530093</v>
+        <v>45085.639945300929</v>
       </c>
       <c r="BZ14">
-        <v>8.478323364257813</v>
+        <v>8.4783233642578129</v>
       </c>
       <c r="CA14">
-        <v>0.0005405002170140665</v>
+        <v>5.4050021701406651E-4</v>
       </c>
       <c r="CB14">
         <v>33.0966796875</v>
       </c>
       <c r="CC14">
-        <v>0.002013406635802381</v>
+        <v>2.0134066358023809E-3</v>
       </c>
       <c r="CD14" t="s">
         <v>131</v>
@@ -4525,16 +4742,29 @@
         <v>237</v>
       </c>
       <c r="CG14">
-        <v>36.9912</v>
+        <v>36.991199999999999</v>
       </c>
       <c r="CH14">
-        <v>0.002489979919597793</v>
+        <v>2.4899799195977931E-3</v>
       </c>
       <c r="CI14">
-        <v>0.4962668846080008</v>
+        <v>0.49626688460800078</v>
+      </c>
+      <c r="CJ14">
+        <f t="shared" si="0"/>
+        <v>0.99754324163026031</v>
+      </c>
+      <c r="CK14">
+        <v>0.99754356745050299</v>
+      </c>
+      <c r="CL14">
+        <v>0.99720696524582297</v>
+      </c>
+      <c r="CM14">
+        <v>1.00253589838954</v>
       </c>
     </row>
-    <row r="15" spans="1:87">
+    <row r="15" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4542,64 +4772,64 @@
         <v>99</v>
       </c>
       <c r="C15">
-        <v>0.0843702228278741</v>
+        <v>8.4370222827874097E-2</v>
       </c>
       <c r="D15">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E15">
-        <v>0.478378378378378</v>
+        <v>0.47837837837837799</v>
       </c>
       <c r="F15">
-        <v>8.43702228278741</v>
+        <v>8.4370222827874102</v>
       </c>
       <c r="G15">
         <v>8.4581</v>
       </c>
       <c r="H15">
-        <v>36.984</v>
+        <v>36.984000000000002</v>
       </c>
       <c r="I15">
-        <v>36.983</v>
+        <v>36.982999999999997</v>
       </c>
       <c r="J15">
-        <v>36.983</v>
+        <v>36.982999999999997</v>
       </c>
       <c r="K15">
-        <v>36.982</v>
+        <v>36.981999999999999</v>
       </c>
       <c r="L15">
-        <v>36.982</v>
+        <v>36.981999999999999</v>
       </c>
       <c r="N15">
-        <v>103.8396659788553</v>
+        <v>103.83966597885529</v>
       </c>
       <c r="O15">
-        <v>103.8431436270458</v>
+        <v>103.84314362704581</v>
       </c>
       <c r="P15">
         <v>103.8361883306648</v>
       </c>
       <c r="Q15">
-        <v>0.003477648190494838</v>
+        <v>3.4776481904948381E-3</v>
       </c>
       <c r="R15" t="s">
         <v>132</v>
       </c>
       <c r="S15">
-        <v>104.0953282940686</v>
+        <v>104.09532829406859</v>
       </c>
       <c r="T15">
-        <v>0.004797594425187458</v>
+        <v>4.7975944251874578E-3</v>
       </c>
       <c r="U15">
-        <v>0.003402288648553106</v>
+        <v>3.402288648553106E-3</v>
       </c>
       <c r="V15">
-        <v>1283.863989329075</v>
+        <v>1283.8639893290749</v>
       </c>
       <c r="W15">
-        <v>0.00258198006356296</v>
+        <v>2.5819800635629598E-3</v>
       </c>
       <c r="X15">
         <v>2920.822222301369</v>
@@ -4608,40 +4838,40 @@
         <v>1283.864039331575</v>
       </c>
       <c r="Z15">
-        <v>8837.287902795886</v>
+        <v>8837.2879027958861</v>
       </c>
       <c r="AA15">
-        <v>1.137106700117933</v>
+        <v>1.1371067001179329</v>
       </c>
       <c r="AB15">
-        <v>7.869237474718254</v>
+        <v>7.8692374747182541</v>
       </c>
       <c r="AC15">
-        <v>0.6224705913462419</v>
+        <v>0.62247059134624194</v>
       </c>
       <c r="AD15">
-        <v>2.274213400235866</v>
+        <v>2.2742134002358658</v>
       </c>
       <c r="AE15" t="s">
         <v>152</v>
       </c>
       <c r="AF15">
-        <v>1387.959417628144</v>
+        <v>1387.9594176281439</v>
       </c>
       <c r="AG15">
-        <v>0.002215614361624498</v>
+        <v>2.215614361624498E-3</v>
       </c>
       <c r="AH15">
-        <v>6328.693416939722</v>
+        <v>6328.6934169397218</v>
       </c>
       <c r="AI15">
-        <v>1387.959367625644</v>
+        <v>1387.9593676256441</v>
       </c>
       <c r="AJ15">
-        <v>14254.25267201981</v>
+        <v>14254.252672019809</v>
       </c>
       <c r="AK15">
-        <v>0.8230706319327423</v>
+        <v>0.82307063193274232</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -4650,40 +4880,40 @@
         <v>14.48041240617045</v>
       </c>
       <c r="AN15">
-        <v>0.6895112693826517</v>
+        <v>0.68951126938265173</v>
       </c>
       <c r="AO15">
-        <v>1.646141263865485</v>
+        <v>1.6461412638654851</v>
       </c>
       <c r="AP15" t="s">
         <v>152</v>
       </c>
       <c r="AQ15">
-        <v>1263.750909294927</v>
+        <v>1263.7509092949269</v>
       </c>
       <c r="AR15">
         <v>1325.96119507701</v>
       </c>
       <c r="AS15">
-        <v>2.694129651163025</v>
+        <v>2.6941296511630251</v>
       </c>
       <c r="AT15">
-        <v>1409.395257020879</v>
+        <v>1409.3952570208789</v>
       </c>
       <c r="AU15">
-        <v>1641.701589036791</v>
+        <v>1641.7015890367909</v>
       </c>
       <c r="AV15">
-        <v>1.678601884986128</v>
+        <v>1.6786018849861279</v>
       </c>
       <c r="AW15">
         <v>1371.642598671179</v>
       </c>
       <c r="AX15">
-        <v>69.05114805013635</v>
+        <v>69.051148050136348</v>
       </c>
       <c r="AY15">
-        <v>0.4110975690527601</v>
+        <v>0.41109756905276013</v>
       </c>
       <c r="BF15" t="s">
         <v>132</v>
@@ -4704,7 +4934,7 @@
         <v>8</v>
       </c>
       <c r="BL15">
-        <v>34.153</v>
+        <v>34.152999999999999</v>
       </c>
       <c r="BM15">
         <v>10</v>
@@ -4725,13 +4955,13 @@
         <v>54930</v>
       </c>
       <c r="BS15">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT15" s="2">
-        <v>45085.63576388889</v>
+        <v>45085.635763888888</v>
       </c>
       <c r="BU15" s="2">
-        <v>45085.63576388889</v>
+        <v>45085.635763888888</v>
       </c>
       <c r="BV15">
         <v>1686237330</v>
@@ -4740,22 +4970,22 @@
         <v>51</v>
       </c>
       <c r="BX15" s="2">
-        <v>45085.63577855324</v>
+        <v>45085.635778553238</v>
       </c>
       <c r="BY15" s="2">
-        <v>45085.63636883102</v>
+        <v>45085.636368831023</v>
       </c>
       <c r="BZ15">
         <v>8.460591888427734</v>
       </c>
       <c r="CA15">
-        <v>0.0007124798520629671</v>
+        <v>7.1247985206296708E-4</v>
       </c>
       <c r="CB15">
         <v>33.12109375</v>
       </c>
       <c r="CC15">
-        <v>0.00157466479238747</v>
+        <v>1.57466479238747E-3</v>
       </c>
       <c r="CD15" t="s">
         <v>132</v>
@@ -4767,16 +4997,29 @@
         <v>238</v>
       </c>
       <c r="CG15">
-        <v>36.9828</v>
+        <v>36.982799999999997</v>
       </c>
       <c r="CH15">
-        <v>0.0008366600265346734</v>
+        <v>8.3666002653467336E-4</v>
       </c>
       <c r="CI15">
-        <v>0.4896771574456116</v>
+        <v>0.48967715744561158</v>
+      </c>
+      <c r="CJ15">
+        <f t="shared" si="0"/>
+        <v>0.99754395975877941</v>
+      </c>
+      <c r="CK15">
+        <v>0.99754429253891297</v>
+      </c>
+      <c r="CL15">
+        <v>0.99720793303317601</v>
+      </c>
+      <c r="CM15">
+        <v>1.0025367289443801</v>
       </c>
     </row>
-    <row r="16" spans="1:87">
+    <row r="16" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4784,46 +5027,46 @@
         <v>100</v>
       </c>
       <c r="C16">
-        <v>0.0840520237648776</v>
+        <v>8.4052023764877595E-2</v>
       </c>
       <c r="D16">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E16">
         <v>0.464337837837837</v>
       </c>
       <c r="F16">
-        <v>8.405202376487759</v>
+        <v>8.4052023764877593</v>
       </c>
       <c r="G16">
-        <v>8.423400000000001</v>
+        <v>8.4234000000000009</v>
       </c>
       <c r="H16">
-        <v>37.017</v>
+        <v>37.017000000000003</v>
       </c>
       <c r="I16">
-        <v>37.019</v>
+        <v>37.018999999999998</v>
       </c>
       <c r="J16">
-        <v>37.02</v>
+        <v>37.020000000000003</v>
       </c>
       <c r="K16">
-        <v>37.023</v>
+        <v>37.023000000000003</v>
       </c>
       <c r="L16">
-        <v>37.024</v>
+        <v>37.024000000000001</v>
       </c>
       <c r="N16">
         <v>103.8009836188282</v>
       </c>
       <c r="O16">
-        <v>103.8042068947775</v>
+        <v>103.80420689477749</v>
       </c>
       <c r="P16">
         <v>103.7977603428789</v>
       </c>
       <c r="Q16">
-        <v>0.003223275949306614</v>
+        <v>3.2232759493066141E-3</v>
       </c>
       <c r="R16" t="s">
         <v>133</v>
@@ -4832,37 +5075,37 @@
         <v>104.0564527751276</v>
       </c>
       <c r="T16">
-        <v>0.004366286887587495</v>
+        <v>4.3662868875874953E-3</v>
       </c>
       <c r="U16">
-        <v>0.003140767642031752</v>
+        <v>3.140767642031752E-3</v>
       </c>
       <c r="V16">
         <v>1283.962322062059</v>
       </c>
       <c r="W16">
-        <v>0.002590691470947874</v>
+        <v>2.590691470947874E-3</v>
       </c>
       <c r="X16">
-        <v>2781.242146652561</v>
+        <v>2781.2421466525611</v>
       </c>
       <c r="Y16">
-        <v>1283.962372064559</v>
+        <v>1283.9623720645591</v>
       </c>
       <c r="Z16">
-        <v>8303.066760505437</v>
+        <v>8303.0667605054368</v>
       </c>
       <c r="AA16">
-        <v>1.125979804166544</v>
+        <v>1.1259798041665441</v>
       </c>
       <c r="AB16">
         <v>7.577672517021993</v>
       </c>
       <c r="AC16">
-        <v>0.6134229741436592</v>
+        <v>0.61342297414365921</v>
       </c>
       <c r="AD16">
-        <v>2.251959608333088</v>
+        <v>2.2519596083330882</v>
       </c>
       <c r="AE16" t="s">
         <v>152</v>
@@ -4871,16 +5114,16 @@
         <v>1388.018874842187</v>
       </c>
       <c r="AG16">
-        <v>0.001775595416639622</v>
+        <v>1.7755954166396219E-3</v>
       </c>
       <c r="AH16">
-        <v>6020.693617757009</v>
+        <v>6020.6936177570087</v>
       </c>
       <c r="AI16">
-        <v>1388.018824839687</v>
+        <v>1388.0188248396871</v>
       </c>
       <c r="AJ16">
-        <v>13410.9153572275</v>
+        <v>13410.915357227501</v>
       </c>
       <c r="AK16">
         <v>0.8121893526976327</v>
@@ -4892,7 +5135,7 @@
         <v>13.17279896536798</v>
       </c>
       <c r="AN16">
-        <v>0.6948392312186024</v>
+        <v>0.69483923121860236</v>
       </c>
       <c r="AO16">
         <v>1.624378705395265</v>
@@ -4901,16 +5144,16 @@
         <v>152</v>
       </c>
       <c r="AQ16">
-        <v>1263.8744955151</v>
+        <v>1263.8744955151001</v>
       </c>
       <c r="AR16">
-        <v>1217.473742324791</v>
+        <v>1217.4737423247909</v>
       </c>
       <c r="AS16">
-        <v>2.523312172242559</v>
+        <v>2.5233121722425591</v>
       </c>
       <c r="AT16">
-        <v>1409.478082735801</v>
+        <v>1409.4780827358011</v>
       </c>
       <c r="AU16">
         <v>1560.202739112063</v>
@@ -4922,10 +5165,10 @@
         <v>1370.137375838869</v>
       </c>
       <c r="AX16">
-        <v>162.3637246027633</v>
+        <v>162.36372460276331</v>
       </c>
       <c r="AY16">
-        <v>0.4056725551714949</v>
+        <v>0.40567255517149492</v>
       </c>
       <c r="BF16" t="s">
         <v>133</v>
@@ -4946,7 +5189,7 @@
         <v>8</v>
       </c>
       <c r="BL16">
-        <v>34.141</v>
+        <v>34.140999999999998</v>
       </c>
       <c r="BM16">
         <v>10</v>
@@ -4967,13 +5210,13 @@
         <v>54540</v>
       </c>
       <c r="BS16">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT16" s="2">
-        <v>45085.63125</v>
+        <v>45085.631249999999</v>
       </c>
       <c r="BU16" s="2">
-        <v>45085.63125</v>
+        <v>45085.631249999999</v>
       </c>
       <c r="BV16">
         <v>1686236940</v>
@@ -4982,22 +5225,22 @@
         <v>52</v>
       </c>
       <c r="BX16" s="2">
-        <v>45085.63126417824</v>
+        <v>45085.631264178242</v>
       </c>
       <c r="BY16" s="2">
-        <v>45085.63186603009</v>
+        <v>45085.631866030089</v>
       </c>
       <c r="BZ16">
-        <v>8.423641967773438</v>
+        <v>8.4236419677734382</v>
       </c>
       <c r="CA16">
-        <v>0.0004561812789352575</v>
+        <v>4.5618127893525749E-4</v>
       </c>
       <c r="CB16">
         <v>33.13134765625</v>
       </c>
       <c r="CC16">
-        <v>0.0007595486111111111</v>
+        <v>7.5954861111111112E-4</v>
       </c>
       <c r="CD16" t="s">
         <v>133</v>
@@ -5009,16 +5252,29 @@
         <v>239</v>
       </c>
       <c r="CG16">
-        <v>37.0206</v>
+        <v>37.020600000000002</v>
       </c>
       <c r="CH16">
-        <v>0.002880972058177655</v>
+        <v>2.8809720581776548E-3</v>
       </c>
       <c r="CI16">
-        <v>0.4709549603152438</v>
+        <v>0.47095496031524381</v>
+      </c>
+      <c r="CJ16">
+        <f t="shared" si="0"/>
+        <v>0.99754489847110694</v>
+      </c>
+      <c r="CK16">
+        <v>0.99754524035325898</v>
+      </c>
+      <c r="CL16">
+        <v>0.99720913864356997</v>
+      </c>
+      <c r="CM16">
+        <v>1.00253785163017</v>
       </c>
     </row>
-    <row r="17" spans="1:87">
+    <row r="17" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5026,31 +5282,31 @@
         <v>101</v>
       </c>
       <c r="C17">
-        <v>0.08374561049477761</v>
+        <v>8.3745610494777606E-2</v>
       </c>
       <c r="D17">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E17">
-        <v>0.450297297297297</v>
+        <v>0.45029729729729701</v>
       </c>
       <c r="F17">
-        <v>8.37456104947776</v>
+        <v>8.3745610494777605</v>
       </c>
       <c r="G17">
-        <v>8.3963</v>
+        <v>8.3963000000000001</v>
       </c>
       <c r="H17">
-        <v>36.977</v>
+        <v>36.976999999999997</v>
       </c>
       <c r="I17">
-        <v>36.978</v>
+        <v>36.978000000000002</v>
       </c>
       <c r="J17">
-        <v>36.984</v>
+        <v>36.984000000000002</v>
       </c>
       <c r="K17">
-        <v>36.986</v>
+        <v>36.985999999999997</v>
       </c>
       <c r="L17">
         <v>36.988</v>
@@ -5065,58 +5321,58 @@
         <v>103.7803027228332</v>
       </c>
       <c r="Q17">
-        <v>0.003376633038382152</v>
+        <v>3.376633038382152E-3</v>
       </c>
       <c r="R17" t="s">
         <v>134</v>
       </c>
       <c r="S17">
-        <v>104.0390068065171</v>
+        <v>104.03900680651709</v>
       </c>
       <c r="T17">
-        <v>0.004576268598199484</v>
+        <v>4.5762685981994844E-3</v>
       </c>
       <c r="U17">
-        <v>0.003298919727363282</v>
+        <v>3.298919727363282E-3</v>
       </c>
       <c r="V17">
-        <v>1284.010223185862</v>
+        <v>1284.0102231858621</v>
       </c>
       <c r="W17">
-        <v>0.002741871131500031</v>
+        <v>2.7418711315000308E-3</v>
       </c>
       <c r="X17">
         <v>2572.841080765646</v>
       </c>
       <c r="Y17">
-        <v>1284.010273188362</v>
+        <v>1284.0102731883619</v>
       </c>
       <c r="Z17">
-        <v>7634.110391666187</v>
+        <v>7634.1103916661868</v>
       </c>
       <c r="AA17">
         <v>1.120710002566311</v>
       </c>
       <c r="AB17">
-        <v>7.223076689653475</v>
+        <v>7.2230766896534746</v>
       </c>
       <c r="AC17">
-        <v>0.6098817115317972</v>
+        <v>0.60988171153179715</v>
       </c>
       <c r="AD17">
-        <v>2.241420005132622</v>
+        <v>2.2414200051326221</v>
       </c>
       <c r="AE17" t="s">
         <v>152</v>
       </c>
       <c r="AF17">
-        <v>1388.049329997379</v>
+        <v>1388.0493299973789</v>
       </c>
       <c r="AG17">
-        <v>0.001834397466699453</v>
+        <v>1.8343974666994529E-3</v>
       </c>
       <c r="AH17">
-        <v>5539.574681005324</v>
+        <v>5539.5746810053242</v>
       </c>
       <c r="AI17">
         <v>1388.049279994879</v>
@@ -5125,7 +5381,7 @@
         <v>12215.99145234143</v>
       </c>
       <c r="AK17">
-        <v>0.808453784665581</v>
+        <v>0.80845378466558104</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -5134,25 +5390,25 @@
         <v>12.58981409848834</v>
       </c>
       <c r="AN17">
-        <v>0.6817198344710264</v>
+        <v>0.68171983447102635</v>
       </c>
       <c r="AO17">
-        <v>1.616907569331162</v>
+        <v>1.6169075693311621</v>
       </c>
       <c r="AP17" t="s">
         <v>152</v>
       </c>
       <c r="AQ17">
-        <v>1263.885400653697</v>
+        <v>1263.8854006536969</v>
       </c>
       <c r="AR17">
-        <v>1129.041251636602</v>
+        <v>1129.0412516366021</v>
       </c>
       <c r="AS17">
-        <v>2.52221125585464</v>
+        <v>2.5222112558546401</v>
       </c>
       <c r="AT17">
-        <v>1409.455995949177</v>
+        <v>1409.4559959491769</v>
       </c>
       <c r="AU17">
         <v>1419.044037107406</v>
@@ -5164,10 +5420,10 @@
         <v>1370.12609034808</v>
       </c>
       <c r="AX17">
-        <v>146.9776841631873</v>
+        <v>146.97768416318729</v>
       </c>
       <c r="AY17">
-        <v>0.4038147861936219</v>
+        <v>0.40381478619362188</v>
       </c>
       <c r="BF17" t="s">
         <v>134</v>
@@ -5188,7 +5444,7 @@
         <v>8</v>
       </c>
       <c r="BL17">
-        <v>34.068</v>
+        <v>34.067999999999998</v>
       </c>
       <c r="BM17">
         <v>10</v>
@@ -5209,13 +5465,13 @@
         <v>54162</v>
       </c>
       <c r="BS17">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT17" s="2">
-        <v>45085.626875</v>
+        <v>45085.626875000002</v>
       </c>
       <c r="BU17" s="2">
-        <v>45085.626875</v>
+        <v>45085.626875000002</v>
       </c>
       <c r="BV17">
         <v>1686236562</v>
@@ -5224,22 +5480,22 @@
         <v>52</v>
       </c>
       <c r="BX17" s="2">
-        <v>45085.62688925926</v>
+        <v>45085.626889259263</v>
       </c>
       <c r="BY17" s="2">
         <v>45085.62749111111</v>
       </c>
       <c r="BZ17">
-        <v>8.397560119628906</v>
+        <v>8.3975601196289063</v>
       </c>
       <c r="CA17">
-        <v>0.0005023108588324061</v>
+        <v>5.0231085883240608E-4</v>
       </c>
       <c r="CB17">
         <v>33.1689453125</v>
       </c>
       <c r="CC17">
-        <v>0.001199604552469838</v>
+        <v>1.1996045524698381E-3</v>
       </c>
       <c r="CD17" t="s">
         <v>134</v>
@@ -5251,16 +5507,29 @@
         <v>240</v>
       </c>
       <c r="CG17">
-        <v>36.9826</v>
+        <v>36.982599999999998</v>
       </c>
       <c r="CH17">
-        <v>0.004878524367060251</v>
+        <v>4.8785243670602507E-3</v>
       </c>
       <c r="CI17">
-        <v>0.4622299538749963</v>
+        <v>0.46222995387499632</v>
+      </c>
+      <c r="CJ17">
+        <f t="shared" si="0"/>
+        <v>0.99754584882648556</v>
+      </c>
+      <c r="CK17">
+        <v>0.99754619992792404</v>
+      </c>
+      <c r="CL17">
+        <v>0.99721029864885802</v>
+      </c>
+      <c r="CM17">
+        <v>1.0025390259465701</v>
       </c>
     </row>
-    <row r="18" spans="1:87">
+    <row r="18" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5268,28 +5537,28 @@
         <v>102</v>
       </c>
       <c r="C18">
-        <v>0.0834437616410196</v>
+        <v>8.3443761641019604E-2</v>
       </c>
       <c r="D18">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E18">
-        <v>0.436256756756756</v>
+        <v>0.43625675675675601</v>
       </c>
       <c r="F18">
-        <v>8.344376164101959</v>
+        <v>8.3443761641019591</v>
       </c>
       <c r="G18">
-        <v>8.3698</v>
+        <v>8.3697999999999997</v>
       </c>
       <c r="H18">
-        <v>36.986</v>
+        <v>36.985999999999997</v>
       </c>
       <c r="I18">
-        <v>36.987</v>
+        <v>36.987000000000002</v>
       </c>
       <c r="J18">
-        <v>36.987</v>
+        <v>36.987000000000002</v>
       </c>
       <c r="K18">
         <v>36.988</v>
@@ -5307,37 +5576,37 @@
         <v>103.7449123920389</v>
       </c>
       <c r="Q18">
-        <v>0.007398330865485291</v>
+        <v>7.3983308654852909E-3</v>
       </c>
       <c r="R18" t="s">
         <v>135</v>
       </c>
       <c r="S18">
-        <v>104.0074479839027</v>
+        <v>104.00744798390269</v>
       </c>
       <c r="T18">
-        <v>0.008932336583995832</v>
+        <v>8.9323365839958316E-3</v>
       </c>
       <c r="U18">
-        <v>0.007377755490033646</v>
+        <v>7.3777554900336462E-3</v>
       </c>
       <c r="V18">
-        <v>1284.054007350973</v>
+        <v>1284.0540073509731</v>
       </c>
       <c r="W18">
-        <v>0.007162272671081415</v>
+        <v>7.1622726710814152E-3</v>
       </c>
       <c r="X18">
-        <v>2506.759582951896</v>
+        <v>2506.7595829518959</v>
       </c>
       <c r="Y18">
-        <v>1284.054007350973</v>
+        <v>1284.0540073509731</v>
       </c>
       <c r="Z18">
-        <v>7320.172944374785</v>
+        <v>7320.1729443747854</v>
       </c>
       <c r="AA18">
-        <v>1.108405689167587</v>
+        <v>1.1084056891675871</v>
       </c>
       <c r="AB18">
         <v>12.73827517155536</v>
@@ -5346,7 +5615,7 @@
         <v>0.6044864177817848</v>
       </c>
       <c r="AD18">
-        <v>2.216811378335175</v>
+        <v>2.2168113783351751</v>
       </c>
       <c r="AE18" t="s">
         <v>152</v>
@@ -5355,10 +5624,10 @@
         <v>1388.061505337376</v>
       </c>
       <c r="AG18">
-        <v>0.001770063912914416</v>
+        <v>1.770063912914416E-3</v>
       </c>
       <c r="AH18">
-        <v>5435.566449879979</v>
+        <v>5435.5664498799788</v>
       </c>
       <c r="AI18">
         <v>1388.061455334876</v>
@@ -5367,37 +5636,37 @@
         <v>11916.52904624385</v>
       </c>
       <c r="AK18">
-        <v>0.7991609866752432</v>
+        <v>0.79916098667524316</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>11.31491083560046</v>
+        <v>11.314910835600459</v>
       </c>
       <c r="AN18">
-        <v>0.6954128483607004</v>
+        <v>0.69541284836070039</v>
       </c>
       <c r="AO18">
-        <v>1.598321973350486</v>
+        <v>1.5983219733504861</v>
       </c>
       <c r="AP18" t="s">
         <v>152</v>
       </c>
       <c r="AT18">
-        <v>1409.481139326302</v>
+        <v>1409.4811393263019</v>
       </c>
       <c r="AU18">
-        <v>1336.860278687075</v>
+        <v>1336.8602786870749</v>
       </c>
       <c r="AV18">
-        <v>1.552026725367677</v>
+        <v>1.5520267253676769</v>
       </c>
       <c r="AW18">
         <v>1370.148106774438</v>
       </c>
       <c r="AX18">
-        <v>144.1319144712091</v>
+        <v>144.13191447120909</v>
       </c>
       <c r="AY18">
         <v>0.3991895030797627</v>
@@ -5442,13 +5711,13 @@
         <v>53749</v>
       </c>
       <c r="BS18">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT18" s="2">
-        <v>45085.6220949074</v>
+        <v>45085.622094907398</v>
       </c>
       <c r="BU18" s="2">
-        <v>45085.6220949074</v>
+        <v>45085.622094907398</v>
       </c>
       <c r="BV18">
         <v>1686236149</v>
@@ -5457,22 +5726,22 @@
         <v>51</v>
       </c>
       <c r="BX18" s="2">
-        <v>45085.62209746528</v>
+        <v>45085.622097465282</v>
       </c>
       <c r="BY18" s="2">
-        <v>45085.62268774305</v>
+        <v>45085.622687743053</v>
       </c>
       <c r="BZ18">
-        <v>8.368891906738282</v>
+        <v>8.3688919067382823</v>
       </c>
       <c r="CA18">
-        <v>0.0006024264959315171</v>
+        <v>6.0242649593151708E-4</v>
       </c>
       <c r="CB18">
         <v>33.2333984375</v>
       </c>
       <c r="CC18">
-        <v>0.001108347750865298</v>
+        <v>1.1083477508652981E-3</v>
       </c>
       <c r="CD18" t="s">
         <v>135</v>
@@ -5484,16 +5753,29 @@
         <v>241</v>
       </c>
       <c r="CG18">
-        <v>36.9872</v>
+        <v>36.987200000000001</v>
       </c>
       <c r="CH18">
-        <v>0.0008366600265346734</v>
+        <v>8.3666002653467336E-4</v>
       </c>
       <c r="CI18">
         <v>0.448647062400093</v>
       </c>
+      <c r="CJ18">
+        <f t="shared" si="0"/>
+        <v>0.99754693278275819</v>
+      </c>
+      <c r="CK18">
+        <v>0.99754729440423995</v>
+      </c>
+      <c r="CL18">
+        <v>0.997211556486297</v>
+      </c>
+      <c r="CM18">
+        <v>1.0025404059696399</v>
+      </c>
     </row>
-    <row r="19" spans="1:87">
+    <row r="19" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5501,34 +5783,34 @@
         <v>103</v>
       </c>
       <c r="C19">
-        <v>0.083136522379148</v>
+        <v>8.3136522379147995E-2</v>
       </c>
       <c r="D19">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E19">
-        <v>0.422216216216216</v>
+        <v>0.42221621621621602</v>
       </c>
       <c r="F19">
-        <v>8.3136522379148</v>
+        <v>8.3136522379148001</v>
       </c>
       <c r="G19">
-        <v>8.3269</v>
+        <v>8.3269000000000002</v>
       </c>
       <c r="H19">
         <v>36.99</v>
       </c>
       <c r="I19">
-        <v>36.992</v>
+        <v>36.991999999999997</v>
       </c>
       <c r="J19">
-        <v>36.993</v>
+        <v>36.993000000000002</v>
       </c>
       <c r="K19">
         <v>36.994</v>
       </c>
       <c r="L19">
-        <v>36.996</v>
+        <v>36.996000000000002</v>
       </c>
       <c r="N19">
         <v>103.7123174888937</v>
@@ -5540,67 +5822,67 @@
         <v>103.7087488628358</v>
       </c>
       <c r="Q19">
-        <v>0.003568626057901329</v>
+        <v>3.5686260579013288E-3</v>
       </c>
       <c r="R19" t="s">
         <v>136</v>
       </c>
       <c r="S19">
-        <v>103.9672503959521</v>
+        <v>103.96725039595211</v>
       </c>
       <c r="T19">
-        <v>0.004844511094209049</v>
+        <v>4.8445110942090487E-3</v>
       </c>
       <c r="U19">
-        <v>0.003496487287716902</v>
+        <v>3.4964872877169019E-3</v>
       </c>
       <c r="V19">
         <v>1284.14598829699</v>
       </c>
       <c r="W19">
-        <v>0.002917623835456043</v>
+        <v>2.9176238354560432E-3</v>
       </c>
       <c r="X19">
-        <v>2494.394187491448</v>
+        <v>2494.3941874914481</v>
       </c>
       <c r="Y19">
         <v>1284.146038299491</v>
       </c>
       <c r="Z19">
-        <v>7259.304776423065</v>
+        <v>7259.3047764230651</v>
       </c>
       <c r="AA19">
         <v>1.090076755368921</v>
       </c>
       <c r="AB19">
-        <v>7.481072154848794</v>
+        <v>7.4810721548487944</v>
       </c>
       <c r="AC19">
-        <v>0.6303552445463511</v>
+        <v>0.63035524454635106</v>
       </c>
       <c r="AD19">
-        <v>2.180153510737841</v>
+        <v>2.1801535107378411</v>
       </c>
       <c r="AE19" t="s">
         <v>152</v>
       </c>
       <c r="AF19">
-        <v>1388.113338697943</v>
+        <v>1388.1133386979429</v>
       </c>
       <c r="AG19">
-        <v>0.001926887258753006</v>
+        <v>1.926887258753006E-3</v>
       </c>
       <c r="AH19">
-        <v>5411.097024670273</v>
+        <v>5411.0970246702727</v>
       </c>
       <c r="AI19">
-        <v>1388.113288695443</v>
+        <v>1388.1132886954431</v>
       </c>
       <c r="AJ19">
         <v>11660.80181175711</v>
       </c>
       <c r="AK19">
-        <v>0.7819550456051831</v>
+        <v>0.78195504560518314</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -5609,22 +5891,22 @@
         <v>12.11806216696138</v>
       </c>
       <c r="AN19">
-        <v>0.7064131562451992</v>
+        <v>0.70641315624519918</v>
       </c>
       <c r="AO19">
-        <v>1.563910091210366</v>
+        <v>1.5639100912103661</v>
       </c>
       <c r="AP19" t="s">
         <v>152</v>
       </c>
       <c r="AQ19">
-        <v>1264.027782256482</v>
+        <v>1264.0277822564819</v>
       </c>
       <c r="AR19">
         <v>1033.770459872911</v>
       </c>
       <c r="AS19">
-        <v>2.389079685656763</v>
+        <v>2.3890796856567631</v>
       </c>
       <c r="AT19">
         <v>1409.552546618844</v>
@@ -5633,16 +5915,16 @@
         <v>1338.922924879821</v>
       </c>
       <c r="AV19">
-        <v>1.533953588181188</v>
+        <v>1.5339535881811881</v>
       </c>
       <c r="AW19">
-        <v>1370.173111269704</v>
+        <v>1370.1731112697039</v>
       </c>
       <c r="AX19">
         <v>135.5449379046203</v>
       </c>
       <c r="AY19">
-        <v>0.3905558370901153</v>
+        <v>0.39055583709011532</v>
       </c>
       <c r="BF19" t="s">
         <v>136</v>
@@ -5684,13 +5966,13 @@
         <v>53377</v>
       </c>
       <c r="BS19">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT19" s="2">
-        <v>45085.61778935185</v>
+        <v>45085.617789351847</v>
       </c>
       <c r="BU19" s="2">
-        <v>45085.61778935185</v>
+        <v>45085.617789351847</v>
       </c>
       <c r="BV19">
         <v>1686235777</v>
@@ -5702,19 +5984,19 @@
         <v>45085.61779152778</v>
       </c>
       <c r="BY19" s="2">
-        <v>45085.61839337963</v>
+        <v>45085.618393379627</v>
       </c>
       <c r="BZ19">
-        <v>8.328193283081056</v>
+        <v>8.3281932830810561</v>
       </c>
       <c r="CA19">
-        <v>0.0006049262152776594</v>
+        <v>6.049262152776594E-4</v>
       </c>
       <c r="CB19">
         <v>33.14697265625</v>
       </c>
       <c r="CC19">
-        <v>0.005208333333333333</v>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="CD19" t="s">
         <v>136</v>
@@ -5726,16 +6008,29 @@
         <v>242</v>
       </c>
       <c r="CG19">
-        <v>36.993</v>
+        <v>36.993000000000002</v>
       </c>
       <c r="CH19">
-        <v>0.002236067977500139</v>
+        <v>2.236067977500139E-3</v>
       </c>
       <c r="CI19">
         <v>0.429304265259906</v>
       </c>
+      <c r="CJ19">
+        <f t="shared" si="0"/>
+        <v>0.99754794989684248</v>
+      </c>
+      <c r="CK19">
+        <v>0.99754832139368399</v>
+      </c>
+      <c r="CL19">
+        <v>0.99721268089397397</v>
+      </c>
+      <c r="CM19">
+        <v>1.0025417356770201</v>
+      </c>
     </row>
-    <row r="20" spans="1:87">
+    <row r="20" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5743,64 +6038,64 @@
         <v>104</v>
       </c>
       <c r="C20">
-        <v>0.0828135445648419</v>
+        <v>8.2813544564841898E-2</v>
       </c>
       <c r="D20">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E20">
-        <v>0.408175675675675</v>
+        <v>0.40817567567567498</v>
       </c>
       <c r="F20">
-        <v>8.281354456484189</v>
+        <v>8.2813544564841894</v>
       </c>
       <c r="G20">
-        <v>8.271000000000001</v>
+        <v>8.2710000000000008</v>
       </c>
       <c r="H20">
-        <v>36.979</v>
+        <v>36.978999999999999</v>
       </c>
       <c r="I20">
-        <v>36.979</v>
+        <v>36.978999999999999</v>
       </c>
       <c r="J20">
-        <v>36.98</v>
+        <v>36.979999999999997</v>
       </c>
       <c r="K20">
-        <v>36.981</v>
+        <v>36.981000000000002</v>
       </c>
       <c r="L20">
-        <v>36.98</v>
+        <v>36.979999999999997</v>
       </c>
       <c r="N20">
         <v>103.6693659439363</v>
       </c>
       <c r="O20">
-        <v>103.676419536025</v>
+        <v>103.67641953602499</v>
       </c>
       <c r="P20">
         <v>103.6623123518476</v>
       </c>
       <c r="Q20">
-        <v>0.007053592088681502</v>
+        <v>7.0535920886815023E-3</v>
       </c>
       <c r="R20" t="s">
         <v>137</v>
       </c>
       <c r="S20">
-        <v>103.9240871966499</v>
+        <v>103.92408719664989</v>
       </c>
       <c r="T20">
-        <v>0.008696305058463935</v>
+        <v>8.6963050584639347E-3</v>
       </c>
       <c r="U20">
-        <v>0.007030408264805513</v>
+        <v>7.0304082648055127E-3</v>
       </c>
       <c r="V20">
         <v>1284.247399719962</v>
       </c>
       <c r="W20">
-        <v>0.006757901430560999</v>
+        <v>6.7579014305609994E-3</v>
       </c>
       <c r="X20">
         <v>2468.90881871178</v>
@@ -5809,19 +6104,19 @@
         <v>1284.247399719962</v>
       </c>
       <c r="Z20">
-        <v>6955.351773279435</v>
+        <v>6955.3517732794353</v>
       </c>
       <c r="AA20">
-        <v>1.05685687678422</v>
+        <v>1.0568568767842199</v>
       </c>
       <c r="AB20">
         <v>12.07490354547142</v>
       </c>
       <c r="AC20">
-        <v>0.6331663658967245</v>
+        <v>0.63316636589672448</v>
       </c>
       <c r="AD20">
-        <v>2.11371375356844</v>
+        <v>2.1137137535684398</v>
       </c>
       <c r="AE20" t="s">
         <v>152</v>
@@ -5830,25 +6125,25 @@
         <v>1388.171536919112</v>
       </c>
       <c r="AG20">
-        <v>0.001938403627902936</v>
+        <v>1.938403627902936E-3</v>
       </c>
       <c r="AH20">
-        <v>5305.355530762292</v>
+        <v>5305.3555307622919</v>
       </c>
       <c r="AI20">
-        <v>1388.171486916612</v>
+        <v>1388.1714869166119</v>
       </c>
       <c r="AJ20">
         <v>11170.39515747615</v>
       </c>
       <c r="AK20">
-        <v>0.7745947171153629</v>
+        <v>0.77459471711536287</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>11.33116048035373</v>
+        <v>11.331160480353731</v>
       </c>
       <c r="AN20">
         <v>0.6731046651416932</v>
@@ -5866,7 +6161,7 @@
         <v>1252.655782478397</v>
       </c>
       <c r="AV20">
-        <v>1.405135764493651</v>
+        <v>1.4051357644936511</v>
       </c>
       <c r="AW20">
         <v>1370.207904225854</v>
@@ -5875,7 +6170,7 @@
         <v>138.9287561020727</v>
       </c>
       <c r="AY20">
-        <v>0.3868438877864092</v>
+        <v>0.38684388778640921</v>
       </c>
       <c r="BF20" t="s">
         <v>137</v>
@@ -5896,7 +6191,7 @@
         <v>8</v>
       </c>
       <c r="BL20">
-        <v>34.283</v>
+        <v>34.283000000000001</v>
       </c>
       <c r="BM20">
         <v>10</v>
@@ -5917,13 +6212,13 @@
         <v>53018</v>
       </c>
       <c r="BS20">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT20" s="2">
-        <v>45085.61363425926</v>
+        <v>45085.613634259258</v>
       </c>
       <c r="BU20" s="2">
-        <v>45085.61363425926</v>
+        <v>45085.613634259258</v>
       </c>
       <c r="BV20">
         <v>1686235418</v>
@@ -5935,19 +6230,19 @@
         <v>45085.61362491898</v>
       </c>
       <c r="BY20" s="2">
-        <v>45085.61421519676</v>
+        <v>45085.614215196758</v>
       </c>
       <c r="BZ20">
-        <v>8.271165084838866</v>
+        <v>8.2711650848388665</v>
       </c>
       <c r="CA20">
-        <v>0.0004187689887149817</v>
+        <v>4.1876898871498171E-4</v>
       </c>
       <c r="CB20">
         <v>33.0771484375</v>
       </c>
       <c r="CC20">
-        <v>0.002760898919753174</v>
+        <v>2.7608989197531741E-3</v>
       </c>
       <c r="CD20" t="s">
         <v>137</v>
@@ -5959,16 +6254,29 @@
         <v>243</v>
       </c>
       <c r="CG20">
-        <v>36.9798</v>
+        <v>36.979799999999997</v>
       </c>
       <c r="CH20">
-        <v>0.0008366600265346735</v>
+        <v>8.3666002653467347E-4</v>
       </c>
       <c r="CI20">
-        <v>0.4051719076739264</v>
+        <v>0.40517190767392641</v>
+      </c>
+      <c r="CJ20">
+        <f t="shared" si="0"/>
+        <v>0.99754896810176841</v>
+      </c>
+      <c r="CK20">
+        <v>0.99754934948804197</v>
+      </c>
+      <c r="CL20">
+        <v>0.99721375831550496</v>
+      </c>
+      <c r="CM20">
+        <v>1.00254309681641</v>
       </c>
     </row>
-    <row r="21" spans="1:87">
+    <row r="21" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5976,19 +6284,19 @@
         <v>105</v>
       </c>
       <c r="C21">
-        <v>0.0820806227237597</v>
+        <v>8.2080622723759697E-2</v>
       </c>
       <c r="D21">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E21">
-        <v>0.380094594594594</v>
+        <v>0.38009459459459399</v>
       </c>
       <c r="F21">
-        <v>8.208062272375971</v>
+        <v>8.2080622723759706</v>
       </c>
       <c r="G21">
-        <v>8.199</v>
+        <v>8.1989999999999998</v>
       </c>
       <c r="H21">
         <v>37.012</v>
@@ -5997,13 +6305,13 @@
         <v>37.012</v>
       </c>
       <c r="J21">
-        <v>37.013</v>
+        <v>37.012999999999998</v>
       </c>
       <c r="K21">
-        <v>37.015</v>
+        <v>37.015000000000001</v>
       </c>
       <c r="L21">
-        <v>37.017</v>
+        <v>37.017000000000003</v>
       </c>
       <c r="N21">
         <v>103.6065546786739</v>
@@ -6012,10 +6320,10 @@
         <v>103.6136724005885</v>
       </c>
       <c r="P21">
-        <v>103.5994369567592</v>
+        <v>103.59943695675921</v>
       </c>
       <c r="Q21">
-        <v>0.007117721914632834</v>
+        <v>7.1177219146328343E-3</v>
       </c>
       <c r="R21" t="s">
         <v>138</v>
@@ -6024,25 +6332,25 @@
         <v>103.8609497046123</v>
       </c>
       <c r="T21">
-        <v>0.008633704641446532</v>
+        <v>8.633704641446532E-3</v>
       </c>
       <c r="U21">
-        <v>0.007095138739397049</v>
+        <v>7.0951387393970488E-3</v>
       </c>
       <c r="V21">
-        <v>1284.382864704189</v>
+        <v>1284.3828647041889</v>
       </c>
       <c r="W21">
-        <v>0.006873272260152726</v>
+        <v>6.8732722601527263E-3</v>
       </c>
       <c r="X21">
         <v>2188.146329906941</v>
       </c>
       <c r="Y21">
-        <v>1284.382864704189</v>
+        <v>1284.3828647041889</v>
       </c>
       <c r="Z21">
-        <v>5951.560683931081</v>
+        <v>5951.5606839310813</v>
       </c>
       <c r="AA21">
         <v>1.011039252251605</v>
@@ -6051,10 +6359,10 @@
         <v>11.12934902334764</v>
       </c>
       <c r="AC21">
-        <v>0.6561423966472947</v>
+        <v>0.65614239664729468</v>
       </c>
       <c r="AD21">
-        <v>2.02207850450321</v>
+        <v>2.0220785045032099</v>
       </c>
       <c r="AE21" t="s">
         <v>152</v>
@@ -6063,28 +6371,28 @@
         <v>1388.243864411302</v>
       </c>
       <c r="AG21">
-        <v>0.001760432381293805</v>
+        <v>1.760432381293805E-3</v>
       </c>
       <c r="AH21">
-        <v>4618.585719536556</v>
+        <v>4618.5857195365561</v>
       </c>
       <c r="AI21">
-        <v>1388.243814408802</v>
+        <v>1388.2438144088021</v>
       </c>
       <c r="AJ21">
-        <v>9451.824783840042</v>
+        <v>9451.8247838400421</v>
       </c>
       <c r="AK21">
-        <v>0.7428399326248143</v>
+        <v>0.74283993262481429</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>9.690296579237828</v>
+        <v>9.6902965792378275</v>
       </c>
       <c r="AN21">
-        <v>0.7054984633185876</v>
+        <v>0.70549846331858757</v>
       </c>
       <c r="AO21">
         <v>1.485679865249629</v>
@@ -6093,22 +6401,22 @@
         <v>152</v>
       </c>
       <c r="AT21">
-        <v>1409.686117373952</v>
+        <v>1409.6861173739519</v>
       </c>
       <c r="AU21">
-        <v>1073.424498511591</v>
+        <v>1073.4244985115911</v>
       </c>
       <c r="AV21">
-        <v>1.402600465680823</v>
+        <v>1.4026004656808231</v>
       </c>
       <c r="AW21">
-        <v>1370.222458821852</v>
+        <v>1370.2224588218519</v>
       </c>
       <c r="AX21">
         <v>123.1613992849376</v>
       </c>
       <c r="AY21">
-        <v>0.3708773663972701</v>
+        <v>0.37087736639727009</v>
       </c>
       <c r="BF21" t="s">
         <v>138</v>
@@ -6129,7 +6437,7 @@
         <v>8</v>
       </c>
       <c r="BL21">
-        <v>34.254</v>
+        <v>34.253999999999998</v>
       </c>
       <c r="BM21">
         <v>10</v>
@@ -6150,13 +6458,13 @@
         <v>52461</v>
       </c>
       <c r="BS21">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT21" s="2">
-        <v>45085.6071875</v>
+        <v>45085.607187499998</v>
       </c>
       <c r="BU21" s="2">
-        <v>45085.6071875</v>
+        <v>45085.607187499998</v>
       </c>
       <c r="BV21">
         <v>1686234861</v>
@@ -6165,22 +6473,22 @@
         <v>51</v>
       </c>
       <c r="BX21" s="2">
-        <v>45085.60720142361</v>
+        <v>45085.607201423612</v>
       </c>
       <c r="BY21" s="2">
         <v>45085.60779170139</v>
       </c>
       <c r="BZ21">
-        <v>8.19828109741211</v>
+        <v>8.1982810974121101</v>
       </c>
       <c r="CA21">
-        <v>0.0007033087390514644</v>
+        <v>7.0330873905146438E-4</v>
       </c>
       <c r="CB21">
         <v>32.9892578125</v>
       </c>
       <c r="CC21">
-        <v>0.002797902249135538</v>
+        <v>2.7979022491355378E-3</v>
       </c>
       <c r="CD21" t="s">
         <v>138</v>
@@ -6192,16 +6500,29 @@
         <v>244</v>
       </c>
       <c r="CG21">
-        <v>37.0138</v>
+        <v>37.013800000000003</v>
       </c>
       <c r="CH21">
-        <v>0.002167948338869055</v>
+        <v>2.167948338869055E-3</v>
       </c>
       <c r="CI21">
-        <v>0.376117400431889</v>
+        <v>0.37611740043188902</v>
+      </c>
+      <c r="CJ21">
+        <f t="shared" si="0"/>
+        <v>0.99755061910504472</v>
+      </c>
+      <c r="CK21">
+        <v>0.99755101653339895</v>
+      </c>
+      <c r="CL21">
+        <v>0.99721541501416999</v>
+      </c>
+      <c r="CM21">
+        <v>1.0025453601208001</v>
       </c>
     </row>
-    <row r="22" spans="1:87">
+    <row r="22" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6209,46 +6530,46 @@
         <v>106</v>
       </c>
       <c r="C22">
-        <v>0.0816519442188009</v>
+        <v>8.1651944218800898E-2</v>
       </c>
       <c r="D22">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E22">
         <v>0.366054054054054</v>
       </c>
       <c r="F22">
-        <v>8.16519442188009</v>
+        <v>8.1651944218800896</v>
       </c>
       <c r="G22">
-        <v>8.135400000000001</v>
+        <v>8.1354000000000006</v>
       </c>
       <c r="H22">
-        <v>36.975</v>
+        <v>36.975000000000001</v>
       </c>
       <c r="I22">
-        <v>36.975</v>
+        <v>36.975000000000001</v>
       </c>
       <c r="J22">
-        <v>36.976</v>
+        <v>36.975999999999999</v>
       </c>
       <c r="K22">
-        <v>36.98</v>
+        <v>36.979999999999997</v>
       </c>
       <c r="L22">
-        <v>36.981</v>
+        <v>36.981000000000002</v>
       </c>
       <c r="N22">
-        <v>103.5880922666015</v>
+        <v>103.58809226660151</v>
       </c>
       <c r="O22">
-        <v>103.5906737049769</v>
+        <v>103.59067370497689</v>
       </c>
       <c r="P22">
-        <v>103.5855108282261</v>
+        <v>103.58551082822611</v>
       </c>
       <c r="Q22">
-        <v>0.002581438375404609</v>
+        <v>2.581438375404609E-3</v>
       </c>
       <c r="R22" t="s">
         <v>139</v>
@@ -6257,34 +6578,34 @@
         <v>103.8423391442354</v>
       </c>
       <c r="T22">
-        <v>0.003499630753703532</v>
+        <v>3.499630753703532E-3</v>
       </c>
       <c r="U22">
-        <v>0.002475248071432495</v>
+        <v>2.4752480714324951E-3</v>
       </c>
       <c r="V22">
-        <v>1284.44541904603</v>
+        <v>1284.4454190460301</v>
       </c>
       <c r="W22">
-        <v>0.001710158668740085</v>
+        <v>1.710158668740085E-3</v>
       </c>
       <c r="X22">
-        <v>2232.149391860181</v>
+        <v>2232.1493918601809</v>
       </c>
       <c r="Y22">
         <v>1284.44546904853</v>
       </c>
       <c r="Z22">
-        <v>6020.78009486417</v>
+        <v>6020.7800948641698</v>
       </c>
       <c r="AA22">
-        <v>0.992959131571989</v>
+        <v>0.99295913157198901</v>
       </c>
       <c r="AB22">
-        <v>6.825048434494587</v>
+        <v>6.8250484344945868</v>
       </c>
       <c r="AC22">
-        <v>0.6724139002279927</v>
+        <v>0.67241390022799274</v>
       </c>
       <c r="AD22">
         <v>1.985918263143978</v>
@@ -6296,16 +6617,16 @@
         <v>1388.287858195265</v>
       </c>
       <c r="AG22">
-        <v>0.001789472084963447</v>
+        <v>1.7894720849634469E-3</v>
       </c>
       <c r="AH22">
         <v>4783.374972907367</v>
       </c>
       <c r="AI22">
-        <v>1388.287808192765</v>
+        <v>1388.2878081927649</v>
       </c>
       <c r="AJ22">
-        <v>9553.983586492413</v>
+        <v>9553.9835864924135</v>
       </c>
       <c r="AK22">
         <v>0.7241353932415262</v>
@@ -6314,10 +6635,10 @@
         <v>0</v>
       </c>
       <c r="AM22">
-        <v>9.829347947725115</v>
+        <v>9.8293479477251147</v>
       </c>
       <c r="AN22">
-        <v>0.7082882310917119</v>
+        <v>0.70828823109171191</v>
       </c>
       <c r="AO22">
         <v>1.448270786483052</v>
@@ -6326,31 +6647,31 @@
         <v>152</v>
       </c>
       <c r="AQ22">
-        <v>1264.250825815568</v>
+        <v>1264.2508258155681</v>
       </c>
       <c r="AR22">
-        <v>825.3158172467722</v>
+        <v>825.31581724677221</v>
       </c>
       <c r="AS22">
-        <v>2.105395051878138</v>
+        <v>2.1053950518781379</v>
       </c>
       <c r="AT22">
-        <v>1409.708787556296</v>
+        <v>1409.7087875562961</v>
       </c>
       <c r="AU22">
-        <v>1035.698601910159</v>
+        <v>1035.6986019101589</v>
       </c>
       <c r="AV22">
         <v>1.30514407030349</v>
       </c>
       <c r="AW22">
-        <v>1370.212885265137</v>
+        <v>1370.2128852651369</v>
       </c>
       <c r="AX22">
-        <v>122.592225151472</v>
+        <v>122.59222515147199</v>
       </c>
       <c r="AY22">
-        <v>0.3615157889127174</v>
+        <v>0.36151578891271741</v>
       </c>
       <c r="BF22" t="s">
         <v>139</v>
@@ -6371,7 +6692,7 @@
         <v>8</v>
       </c>
       <c r="BL22">
-        <v>34.184</v>
+        <v>34.183999999999997</v>
       </c>
       <c r="BM22">
         <v>10</v>
@@ -6392,13 +6713,13 @@
         <v>52141</v>
       </c>
       <c r="BS22">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT22" s="2">
-        <v>45085.60348379629</v>
+        <v>45085.603483796287</v>
       </c>
       <c r="BU22" s="2">
-        <v>45085.60348379629</v>
+        <v>45085.603483796287</v>
       </c>
       <c r="BV22">
         <v>1686234541</v>
@@ -6407,22 +6728,22 @@
         <v>52</v>
       </c>
       <c r="BX22" s="2">
-        <v>45085.60348615741</v>
+        <v>45085.603486157408</v>
       </c>
       <c r="BY22" s="2">
-        <v>45085.60408800926</v>
+        <v>45085.604088009262</v>
       </c>
       <c r="BZ22">
-        <v>8.135749053955077</v>
+        <v>8.1357490539550774</v>
       </c>
       <c r="CA22">
-        <v>0.0005522833930121528</v>
+        <v>5.5228339301215275E-4</v>
       </c>
       <c r="CB22">
         <v>32.9326171875</v>
       </c>
       <c r="CC22">
-        <v>0.003200954861111111</v>
+        <v>3.200954861111111E-3</v>
       </c>
       <c r="CD22" t="s">
         <v>139</v>
@@ -6434,16 +6755,29 @@
         <v>245</v>
       </c>
       <c r="CG22">
-        <v>36.9774</v>
+        <v>36.977400000000003</v>
       </c>
       <c r="CH22">
-        <v>0.002880972058176915</v>
+        <v>2.880972058176915E-3</v>
       </c>
       <c r="CI22">
-        <v>0.3581198855271439</v>
+        <v>0.35811988552714391</v>
+      </c>
+      <c r="CJ22">
+        <f t="shared" si="0"/>
+        <v>0.99755160679421195</v>
+      </c>
+      <c r="CK22">
+        <v>0.99755201382294501</v>
+      </c>
+      <c r="CL22">
+        <v>0.99721635857183299</v>
+      </c>
+      <c r="CM22">
+        <v>1.0025467437094999</v>
       </c>
     </row>
-    <row r="23" spans="1:87">
+    <row r="23" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6451,37 +6785,37 @@
         <v>107</v>
       </c>
       <c r="C23">
-        <v>0.08116908336897979</v>
+        <v>8.1169083368979794E-2</v>
       </c>
       <c r="D23">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E23">
-        <v>0.352013513513513</v>
+        <v>0.35201351351351301</v>
       </c>
       <c r="F23">
-        <v>8.11690833689798</v>
+        <v>8.1169083368979802</v>
       </c>
       <c r="G23">
-        <v>8.101699999999999</v>
+        <v>8.1016999999999992</v>
       </c>
       <c r="H23">
-        <v>37.011</v>
+        <v>37.011000000000003</v>
       </c>
       <c r="I23">
         <v>37.012</v>
       </c>
       <c r="J23">
-        <v>37.013</v>
+        <v>37.012999999999998</v>
       </c>
       <c r="K23">
-        <v>37.014</v>
+        <v>37.014000000000003</v>
       </c>
       <c r="L23">
-        <v>37.013</v>
+        <v>37.012999999999998</v>
       </c>
       <c r="N23">
-        <v>103.5646288892681</v>
+        <v>103.56462888926811</v>
       </c>
       <c r="O23">
         <v>103.568739178713</v>
@@ -6490,43 +6824,43 @@
         <v>103.5605185998232</v>
       </c>
       <c r="Q23">
-        <v>0.004110289444904804</v>
+        <v>4.1102894449048036E-3</v>
       </c>
       <c r="R23" t="s">
         <v>140</v>
       </c>
       <c r="S23">
-        <v>103.8185978073386</v>
+        <v>103.81859780733861</v>
       </c>
       <c r="T23">
-        <v>0.005392297789668835</v>
+        <v>5.3922977896688354E-3</v>
       </c>
       <c r="U23">
-        <v>0.004050661912025503</v>
+        <v>4.0506619120255034E-3</v>
       </c>
       <c r="V23">
-        <v>1284.48552695408</v>
+        <v>1284.4855269540799</v>
       </c>
       <c r="W23">
-        <v>0.003662953993936713</v>
+        <v>3.6629539939367129E-3</v>
       </c>
       <c r="X23">
-        <v>2156.356933265066</v>
+        <v>2156.3569332650659</v>
       </c>
       <c r="Y23">
         <v>1284.48557695658</v>
       </c>
       <c r="Z23">
-        <v>5751.414166547734</v>
+        <v>5751.4141665477337</v>
       </c>
       <c r="AA23">
-        <v>0.9892163042667044</v>
+        <v>0.98921630426670437</v>
       </c>
       <c r="AB23">
         <v>6.395877788502073</v>
       </c>
       <c r="AC23">
-        <v>0.6541213776869019</v>
+        <v>0.65412137768690193</v>
       </c>
       <c r="AD23">
         <v>1.978432608533409</v>
@@ -6538,19 +6872,19 @@
         <v>1388.304224766418</v>
       </c>
       <c r="AG23">
-        <v>0.001729343795732121</v>
+        <v>1.729343795732121E-3</v>
       </c>
       <c r="AH23">
-        <v>4637.99835831253</v>
+        <v>4637.9983583125304</v>
       </c>
       <c r="AI23">
-        <v>1388.304174763918</v>
+        <v>1388.3041747639179</v>
       </c>
       <c r="AJ23">
-        <v>9196.497013777263</v>
+        <v>9196.4970137772634</v>
       </c>
       <c r="AK23">
-        <v>0.7188384578288347</v>
+        <v>0.71883845782883471</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -6559,7 +6893,7 @@
         <v>9.651463433736275</v>
       </c>
       <c r="AN23">
-        <v>0.7084673156098958</v>
+        <v>0.70846731560989584</v>
       </c>
       <c r="AO23">
         <v>1.437676915657669</v>
@@ -6568,13 +6902,13 @@
         <v>152</v>
       </c>
       <c r="AQ23">
-        <v>1264.343567604346</v>
+        <v>1264.3435676043459</v>
       </c>
       <c r="AR23">
-        <v>759.232570109874</v>
+        <v>759.23257010987402</v>
       </c>
       <c r="AS23">
-        <v>2.014547648279992</v>
+        <v>2.0145476482799922</v>
       </c>
       <c r="AT23">
         <v>1409.726931027911</v>
@@ -6586,13 +6920,13 @@
         <v>1.320157070677308</v>
       </c>
       <c r="AW23">
-        <v>1370.257727995474</v>
+        <v>1370.2577279954739</v>
       </c>
       <c r="AX23">
         <v>117.9553013360748</v>
       </c>
       <c r="AY23">
-        <v>0.3588525573498222</v>
+        <v>0.35885255734982219</v>
       </c>
       <c r="BF23" t="s">
         <v>140</v>
@@ -6613,7 +6947,7 @@
         <v>8</v>
       </c>
       <c r="BL23">
-        <v>34.329</v>
+        <v>34.329000000000001</v>
       </c>
       <c r="BM23">
         <v>10</v>
@@ -6634,13 +6968,13 @@
         <v>51484</v>
       </c>
       <c r="BS23">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT23" s="2">
-        <v>45085.59587962963</v>
+        <v>45085.595879629633</v>
       </c>
       <c r="BU23" s="2">
-        <v>45085.59587962963</v>
+        <v>45085.595879629633</v>
       </c>
       <c r="BV23">
         <v>1686233884</v>
@@ -6649,22 +6983,22 @@
         <v>51</v>
       </c>
       <c r="BX23" s="2">
-        <v>45085.59588208333</v>
+        <v>45085.595882083333</v>
       </c>
       <c r="BY23" s="2">
-        <v>45085.59647236111</v>
+        <v>45085.596472361111</v>
       </c>
       <c r="BZ23">
-        <v>8.101799392700196</v>
+        <v>8.1017993927001957</v>
       </c>
       <c r="CA23">
-        <v>0.0004167109359929613</v>
+        <v>4.1671093599296129E-4</v>
       </c>
       <c r="CB23">
         <v>32.89697265625</v>
       </c>
       <c r="CC23">
-        <v>0.003526475694444444</v>
+        <v>3.5264756944444441E-3</v>
       </c>
       <c r="CD23" t="s">
         <v>140</v>
@@ -6676,16 +7010,29 @@
         <v>246</v>
       </c>
       <c r="CG23">
-        <v>37.01260000000001</v>
+        <v>37.012600000000013</v>
       </c>
       <c r="CH23">
-        <v>0.001140175425098662</v>
+        <v>1.140175425098662E-3</v>
       </c>
       <c r="CI23">
-        <v>0.3475479561720113</v>
+        <v>0.34754795617201129</v>
+      </c>
+      <c r="CJ23">
+        <f t="shared" si="0"/>
+        <v>0.99755372425139277</v>
+      </c>
+      <c r="CK23">
+        <v>0.99755415186943697</v>
+      </c>
+      <c r="CL23">
+        <v>0.99721827699858301</v>
+      </c>
+      <c r="CM23">
+        <v>1.0025497749304899</v>
       </c>
     </row>
-    <row r="24" spans="1:87">
+    <row r="24" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6693,19 +7040,19 @@
         <v>108</v>
       </c>
       <c r="C24">
-        <v>0.0806211828868349</v>
+        <v>8.0621182886834897E-2</v>
       </c>
       <c r="D24">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E24">
-        <v>0.337972972972973</v>
+        <v>0.33797297297297302</v>
       </c>
       <c r="F24">
-        <v>8.062118288683489</v>
+        <v>8.0621182886834895</v>
       </c>
       <c r="G24">
-        <v>8.055099999999999</v>
+        <v>8.0550999999999995</v>
       </c>
       <c r="H24">
         <v>37.006</v>
@@ -6720,19 +7067,19 @@
         <v>37.01</v>
       </c>
       <c r="L24">
-        <v>37.011</v>
+        <v>37.011000000000003</v>
       </c>
       <c r="N24">
-        <v>103.541630804016</v>
+        <v>103.54163080401599</v>
       </c>
       <c r="O24">
         <v>103.5455391399987</v>
       </c>
       <c r="P24">
-        <v>103.5377224680333</v>
+        <v>103.53772246803329</v>
       </c>
       <c r="Q24">
-        <v>0.003908335982711482</v>
+        <v>3.9083359827114823E-3</v>
       </c>
       <c r="R24" t="s">
         <v>141</v>
@@ -6741,34 +7088,34 @@
         <v>103.7954523192698</v>
       </c>
       <c r="T24">
-        <v>0.005102636641578348</v>
+        <v>5.1026366415783484E-3</v>
       </c>
       <c r="U24">
-        <v>0.003844548136013995</v>
+        <v>3.8445481360139949E-3</v>
       </c>
       <c r="V24">
-        <v>1284.531846732867</v>
+        <v>1284.5318467328671</v>
       </c>
       <c r="W24">
-        <v>0.003489960963688937</v>
+        <v>3.4899609636889371E-3</v>
       </c>
       <c r="X24">
-        <v>2092.404142300176</v>
+        <v>2092.4041423001759</v>
       </c>
       <c r="Y24">
-        <v>1284.531896735367</v>
+        <v>1284.5318967353669</v>
       </c>
       <c r="Z24">
-        <v>5506.66219014431</v>
+        <v>5506.6621901443104</v>
       </c>
       <c r="AA24">
-        <v>0.9604784626800731</v>
+        <v>0.96047846268007309</v>
       </c>
       <c r="AB24">
-        <v>6.507879543624131</v>
+        <v>6.5078795436241306</v>
       </c>
       <c r="AC24">
-        <v>0.6932377708910566</v>
+        <v>0.69323777089105665</v>
       </c>
       <c r="AD24">
         <v>1.920956925360146</v>
@@ -6780,28 +7127,28 @@
         <v>1388.327399057137</v>
       </c>
       <c r="AG24">
-        <v>0.001612675677889411</v>
+        <v>1.6126756778894111E-3</v>
       </c>
       <c r="AH24">
-        <v>4422.03066134535</v>
+        <v>4422.0306613453504</v>
       </c>
       <c r="AI24">
-        <v>1388.327349054637</v>
+        <v>1388.3273490546369</v>
       </c>
       <c r="AJ24">
-        <v>8664.848412803443</v>
+        <v>8664.8484128034434</v>
       </c>
       <c r="AK24">
-        <v>0.7120104553413691</v>
+        <v>0.71201045534136909</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>8.880307499632572</v>
+        <v>8.8803074996325719</v>
       </c>
       <c r="AN24">
-        <v>0.7028935679564104</v>
+        <v>0.70289356795641045</v>
       </c>
       <c r="AO24">
         <v>1.424020910682738</v>
@@ -6810,19 +7157,19 @@
         <v>152</v>
       </c>
       <c r="AQ24">
-        <v>1264.381541424087</v>
+        <v>1264.3815414240869</v>
       </c>
       <c r="AR24">
-        <v>738.2999248949274</v>
+        <v>738.29992489492736</v>
       </c>
       <c r="AS24">
         <v>2.033385325986611</v>
       </c>
       <c r="AT24">
-        <v>1409.748886361915</v>
+        <v>1409.7488863619151</v>
       </c>
       <c r="AU24">
-        <v>967.906288414505</v>
+        <v>967.90628841450496</v>
       </c>
       <c r="AV24">
         <v>1.287174930152847</v>
@@ -6831,7 +7178,7 @@
         <v>1370.238730036044</v>
       </c>
       <c r="AX24">
-        <v>113.9769148995071</v>
+        <v>113.97691489950709</v>
       </c>
       <c r="AY24">
         <v>0.3554538053611988</v>
@@ -6855,7 +7202,7 @@
         <v>8</v>
       </c>
       <c r="BL24">
-        <v>34.343</v>
+        <v>34.343000000000004</v>
       </c>
       <c r="BM24">
         <v>10</v>
@@ -6876,13 +7223,13 @@
         <v>51223</v>
       </c>
       <c r="BS24">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT24" s="2">
-        <v>45085.5928587963</v>
+        <v>45085.592858796299</v>
       </c>
       <c r="BU24" s="2">
-        <v>45085.5928587963</v>
+        <v>45085.592858796299</v>
       </c>
       <c r="BV24">
         <v>1686233623</v>
@@ -6891,22 +7238,22 @@
         <v>52</v>
       </c>
       <c r="BX24" s="2">
-        <v>45085.59286125</v>
+        <v>45085.592861249999</v>
       </c>
       <c r="BY24" s="2">
-        <v>45085.59346310185</v>
+        <v>45085.593463101854</v>
       </c>
       <c r="BZ24">
-        <v>8.055899047851563</v>
+        <v>8.0558990478515629</v>
       </c>
       <c r="CA24">
-        <v>0.0004813300238714686</v>
+        <v>4.8133002387146858E-4</v>
       </c>
       <c r="CB24">
         <v>32.86328125</v>
       </c>
       <c r="CC24">
-        <v>0.0009645061728396817</v>
+        <v>9.6450617283968165E-4</v>
       </c>
       <c r="CD24" t="s">
         <v>141</v>
@@ -6918,16 +7265,29 @@
         <v>247</v>
       </c>
       <c r="CG24">
-        <v>37.0084</v>
+        <v>37.008400000000002</v>
       </c>
       <c r="CH24">
-        <v>0.002302172886644612</v>
+        <v>2.3021728866446118E-3</v>
       </c>
       <c r="CI24">
-        <v>0.3362535866353757</v>
+        <v>0.33625358663537569</v>
+      </c>
+      <c r="CJ24">
+        <f t="shared" si="0"/>
+        <v>0.99755459888095033</v>
+      </c>
+      <c r="CK24">
+        <v>0.99755503500623999</v>
+      </c>
+      <c r="CL24">
+        <v>0.99721903209021401</v>
+      </c>
+      <c r="CM24">
+        <v>1.0025510502372299</v>
       </c>
     </row>
-    <row r="25" spans="1:87">
+    <row r="25" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6935,34 +7295,34 @@
         <v>109</v>
       </c>
       <c r="C25">
-        <v>0.0799956983795299</v>
+        <v>7.9995698379529898E-2</v>
       </c>
       <c r="D25">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E25">
-        <v>0.323932432432432</v>
+        <v>0.32393243243243203</v>
       </c>
       <c r="F25">
-        <v>7.99956983795299</v>
+        <v>7.9995698379529898</v>
       </c>
       <c r="G25">
-        <v>8.0105</v>
+        <v>8.0105000000000004</v>
       </c>
       <c r="H25">
-        <v>36.992</v>
+        <v>36.991999999999997</v>
       </c>
       <c r="I25">
-        <v>36.993</v>
+        <v>36.993000000000002</v>
       </c>
       <c r="J25">
         <v>36.994</v>
       </c>
       <c r="K25">
-        <v>36.996</v>
+        <v>36.996000000000002</v>
       </c>
       <c r="L25">
-        <v>36.996</v>
+        <v>36.996000000000002</v>
       </c>
       <c r="N25">
         <v>103.5283783819945</v>
@@ -6974,46 +7334,46 @@
         <v>103.5255039855225</v>
       </c>
       <c r="Q25">
-        <v>0.002874396471991707</v>
+        <v>2.874396471991707E-3</v>
       </c>
       <c r="R25" t="s">
         <v>142</v>
       </c>
       <c r="S25">
-        <v>103.7819732344228</v>
+        <v>103.78197323442279</v>
       </c>
       <c r="T25">
-        <v>0.002780760338983397</v>
+        <v>2.7807603389833971E-3</v>
       </c>
       <c r="U25">
-        <v>0.002780760338983397</v>
+        <v>2.7807603389833971E-3</v>
       </c>
       <c r="V25">
         <v>1284.57857306506</v>
       </c>
       <c r="W25">
-        <v>0.002780760338983397</v>
+        <v>2.7807603389833971E-3</v>
       </c>
       <c r="X25">
         <v>1956.446894758511</v>
       </c>
       <c r="Y25">
-        <v>1284.57862306756</v>
+        <v>1284.5786230675601</v>
       </c>
       <c r="Z25">
-        <v>5088.513584813372</v>
+        <v>5088.5135848133723</v>
       </c>
       <c r="AA25">
-        <v>0.9527219815295607</v>
+        <v>0.95272198152956067</v>
       </c>
       <c r="AB25">
-        <v>6.530589157418908</v>
+        <v>6.5305891574189081</v>
       </c>
       <c r="AC25">
-        <v>0.6843621256707665</v>
+        <v>0.68436212567076649</v>
       </c>
       <c r="AD25">
-        <v>1.905443963059121</v>
+        <v>1.9054439630591209</v>
       </c>
       <c r="AE25" t="s">
         <v>152</v>
@@ -7025,28 +7385,28 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>4080.445545574648</v>
+        <v>4080.4455455746479</v>
       </c>
       <c r="AI25">
-        <v>1388.360596301983</v>
+        <v>1388.3605963019829</v>
       </c>
       <c r="AJ25">
-        <v>7881.828618219782</v>
+        <v>7881.8286182197817</v>
       </c>
       <c r="AK25">
-        <v>0.6945274241221662</v>
+        <v>0.69452742412216617</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>8.706407003149963</v>
+        <v>8.7064070031499625</v>
       </c>
       <c r="AN25">
-        <v>0.7280021705943246</v>
+        <v>0.72800217059432459</v>
       </c>
       <c r="AO25">
-        <v>1.389054848244332</v>
+        <v>1.3890548482443319</v>
       </c>
       <c r="AP25" t="s">
         <v>153</v>
@@ -7055,16 +7415,16 @@
         <v>1264.411791816505</v>
       </c>
       <c r="AR25">
-        <v>702.481690126354</v>
+        <v>702.48169012635401</v>
       </c>
       <c r="AS25">
-        <v>2.012940874846194</v>
+        <v>2.0129408748461941</v>
       </c>
       <c r="AT25">
         <v>1409.781488370129</v>
       </c>
       <c r="AU25">
-        <v>869.1083633662706</v>
+        <v>869.10836336627062</v>
       </c>
       <c r="AV25">
         <v>1.248913842776294</v>
@@ -7088,7 +7448,7 @@
         <v>8</v>
       </c>
       <c r="BL25">
-        <v>34.312</v>
+        <v>34.311999999999998</v>
       </c>
       <c r="BM25">
         <v>10</v>
@@ -7109,7 +7469,7 @@
         <v>50684</v>
       </c>
       <c r="BS25">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT25" s="2">
         <v>45085.58662037037</v>
@@ -7124,22 +7484,22 @@
         <v>52</v>
       </c>
       <c r="BX25" s="2">
-        <v>45085.58661077546</v>
+        <v>45085.586610775463</v>
       </c>
       <c r="BY25" s="2">
-        <v>45085.58721262732</v>
+        <v>45085.587212627317</v>
       </c>
       <c r="BZ25">
-        <v>8.011235427856445</v>
+        <v>8.0112354278564446</v>
       </c>
       <c r="CA25">
-        <v>0.0005278128164785616</v>
+        <v>5.2781281647856163E-4</v>
       </c>
       <c r="CB25">
         <v>32.7197265625</v>
       </c>
       <c r="CC25">
-        <v>0.002495659722222222</v>
+        <v>2.495659722222222E-3</v>
       </c>
       <c r="CD25" t="s">
         <v>142</v>
@@ -7151,16 +7511,29 @@
         <v>248</v>
       </c>
       <c r="CG25">
-        <v>36.9942</v>
+        <v>36.994199999999999</v>
       </c>
       <c r="CH25">
-        <v>0.001788854382001422</v>
+        <v>1.7888543820014219E-3</v>
       </c>
       <c r="CI25">
-        <v>0.3265536690626716</v>
+        <v>0.32655366906267158</v>
+      </c>
+      <c r="CJ25">
+        <f t="shared" si="0"/>
+        <v>0.99755646530389752</v>
+      </c>
+      <c r="CK25">
+        <v>0.99755691958796</v>
+      </c>
+      <c r="CL25">
+        <v>0.99722057881633697</v>
+      </c>
+      <c r="CM25">
+        <v>1.0025538119155</v>
       </c>
     </row>
-    <row r="26" spans="1:87">
+    <row r="26" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -7168,34 +7541,34 @@
         <v>110</v>
       </c>
       <c r="C26">
-        <v>0.07927838115731919</v>
+        <v>7.9278381157319194E-2</v>
       </c>
       <c r="D26">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E26">
-        <v>0.309891891891891</v>
+        <v>0.30989189189189098</v>
       </c>
       <c r="F26">
-        <v>7.92783811573191</v>
+        <v>7.9278381157319098</v>
       </c>
       <c r="G26">
-        <v>7.921</v>
+        <v>7.9210000000000003</v>
       </c>
       <c r="H26">
-        <v>36.975</v>
+        <v>36.975000000000001</v>
       </c>
       <c r="I26">
-        <v>36.975</v>
+        <v>36.975000000000001</v>
       </c>
       <c r="J26">
-        <v>36.975</v>
+        <v>36.975000000000001</v>
       </c>
       <c r="K26">
-        <v>36.975</v>
+        <v>36.975000000000001</v>
       </c>
       <c r="L26">
-        <v>36.975</v>
+        <v>36.975000000000001</v>
       </c>
       <c r="N26">
         <v>103.4935628744668</v>
@@ -7207,7 +7580,7 @@
         <v>103.489581883231</v>
       </c>
       <c r="Q26">
-        <v>0.00398099123576111</v>
+        <v>3.98099123576111E-3</v>
       </c>
       <c r="R26" t="s">
         <v>143</v>
@@ -7216,34 +7589,34 @@
         <v>103.7469035447098</v>
       </c>
       <c r="T26">
-        <v>0.005237483802370355</v>
+        <v>5.2374838023703553E-3</v>
       </c>
       <c r="U26">
-        <v>0.003918604221292817</v>
+        <v>3.9186042212928174E-3</v>
       </c>
       <c r="V26">
-        <v>1284.660588808791</v>
+        <v>1284.6605888087911</v>
       </c>
       <c r="W26">
-        <v>0.00352423644923281</v>
+        <v>3.5242364492328098E-3</v>
       </c>
       <c r="X26">
         <v>2033.544448953588</v>
       </c>
       <c r="Y26">
-        <v>1284.660638811291</v>
+        <v>1284.6606388112909</v>
       </c>
       <c r="Z26">
         <v>5103.328143891551</v>
       </c>
       <c r="AA26">
-        <v>0.9184328062785735</v>
+        <v>0.91843280627857349</v>
       </c>
       <c r="AB26">
-        <v>6.053532210751648</v>
+        <v>6.0535322107516478</v>
       </c>
       <c r="AC26">
-        <v>0.6863309443309946</v>
+        <v>0.68633094433099462</v>
       </c>
       <c r="AD26">
         <v>1.836865612557147</v>
@@ -7255,31 +7628,31 @@
         <v>1388.407592358501</v>
       </c>
       <c r="AG26">
-        <v>0.001713247353137545</v>
+        <v>1.713247353137545E-3</v>
       </c>
       <c r="AH26">
-        <v>4226.007520319651</v>
+        <v>4226.0075203196511</v>
       </c>
       <c r="AI26">
-        <v>1388.407542356001</v>
+        <v>1388.4075423560009</v>
       </c>
       <c r="AJ26">
         <v>8002.836242258476</v>
       </c>
       <c r="AK26">
-        <v>0.6851808923979406</v>
+        <v>0.68518089239794056</v>
       </c>
       <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26">
-        <v>7.193536716503281</v>
+        <v>7.1935367165032806</v>
       </c>
       <c r="AN26">
-        <v>0.7130658478899985</v>
+        <v>0.71306584788999849</v>
       </c>
       <c r="AO26">
-        <v>1.370361784795881</v>
+        <v>1.3703617847958811</v>
       </c>
       <c r="AP26" t="s">
         <v>152</v>
@@ -7288,28 +7661,28 @@
         <v>1264.506680154775</v>
       </c>
       <c r="AR26">
-        <v>669.5974802420878</v>
+        <v>669.59748024208784</v>
       </c>
       <c r="AS26">
-        <v>1.810679092058422</v>
+        <v>1.8106790920584219</v>
       </c>
       <c r="AT26">
         <v>1409.80626102463</v>
       </c>
       <c r="AU26">
-        <v>871.630148744173</v>
+        <v>871.63014874417297</v>
       </c>
       <c r="AV26">
-        <v>1.193503243046592</v>
+        <v>1.1935032430465919</v>
       </c>
       <c r="AW26">
-        <v>1370.289924505559</v>
+        <v>1370.2899245055589</v>
       </c>
       <c r="AX26">
         <v>113.5653902326614</v>
       </c>
       <c r="AY26">
-        <v>0.3421906503698928</v>
+        <v>0.34219065036989282</v>
       </c>
       <c r="BF26" t="s">
         <v>143</v>
@@ -7330,7 +7703,7 @@
         <v>8</v>
       </c>
       <c r="BL26">
-        <v>34.233</v>
+        <v>34.232999999999997</v>
       </c>
       <c r="BM26">
         <v>10</v>
@@ -7351,13 +7724,13 @@
         <v>50233</v>
       </c>
       <c r="BS26">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT26" s="2">
-        <v>45085.58140046296</v>
+        <v>45085.581400462957</v>
       </c>
       <c r="BU26" s="2">
-        <v>45085.58140046296</v>
+        <v>45085.581400462957</v>
       </c>
       <c r="BV26">
         <v>1686232633</v>
@@ -7366,22 +7739,22 @@
         <v>51</v>
       </c>
       <c r="BX26" s="2">
-        <v>45085.58140248842</v>
+        <v>45085.581402488417</v>
       </c>
       <c r="BY26" s="2">
-        <v>45085.5819927662</v>
+        <v>45085.581992766201</v>
       </c>
       <c r="BZ26">
-        <v>7.921723937988282</v>
+        <v>7.9217239379882818</v>
       </c>
       <c r="CA26">
-        <v>0.0004333865683794216</v>
+        <v>4.3338656837942161E-4</v>
       </c>
       <c r="CB26">
         <v>32.6572265625</v>
       </c>
       <c r="CC26">
-        <v>0.001067798442906648</v>
+        <v>1.067798442906648E-3</v>
       </c>
       <c r="CD26" t="s">
         <v>143</v>
@@ -7393,16 +7766,29 @@
         <v>249</v>
       </c>
       <c r="CG26">
-        <v>36.975</v>
+        <v>36.975000000000001</v>
       </c>
       <c r="CH26">
         <v>0</v>
       </c>
       <c r="CI26">
-        <v>0.3092653741875405</v>
+        <v>0.30926537418754052</v>
+      </c>
+      <c r="CJ26">
+        <f t="shared" si="0"/>
+        <v>0.99755808933484158</v>
+      </c>
+      <c r="CK26">
+        <v>0.99755855942407601</v>
+      </c>
+      <c r="CL26">
+        <v>0.99722185992821299</v>
+      </c>
+      <c r="CM26">
+        <v>1.00255625524509</v>
       </c>
     </row>
-    <row r="27" spans="1:87">
+    <row r="27" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -7410,31 +7796,31 @@
         <v>111</v>
       </c>
       <c r="C27">
-        <v>0.07845351061847081</v>
+        <v>7.8453510618470806E-2</v>
       </c>
       <c r="D27">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E27">
-        <v>0.295851351351351</v>
+        <v>0.29585135135135099</v>
       </c>
       <c r="F27">
-        <v>7.84535106184708</v>
+        <v>7.8453510618470803</v>
       </c>
       <c r="G27">
-        <v>7.828</v>
+        <v>7.8280000000000003</v>
       </c>
       <c r="H27">
-        <v>36.983</v>
+        <v>36.982999999999997</v>
       </c>
       <c r="I27">
-        <v>36.984</v>
+        <v>36.984000000000002</v>
       </c>
       <c r="J27">
-        <v>36.986</v>
+        <v>36.985999999999997</v>
       </c>
       <c r="K27">
-        <v>36.987</v>
+        <v>36.987000000000002</v>
       </c>
       <c r="L27">
         <v>36.988</v>
@@ -7443,13 +7829,13 @@
         <v>103.4629289289786</v>
       </c>
       <c r="O27">
-        <v>103.4662642381549</v>
+        <v>103.46626423815491</v>
       </c>
       <c r="P27">
         <v>103.4595936198024</v>
       </c>
       <c r="Q27">
-        <v>0.003335309176249488</v>
+        <v>3.3353091762494879E-3</v>
       </c>
       <c r="R27" t="s">
         <v>144</v>
@@ -7458,34 +7844,34 @@
         <v>103.7158163532897</v>
       </c>
       <c r="T27">
-        <v>0.004215163179587172</v>
+        <v>4.2151631795871716E-3</v>
       </c>
       <c r="U27">
-        <v>0.003256671356629308</v>
+        <v>3.2566713566293082E-3</v>
       </c>
       <c r="V27">
-        <v>1284.728722430794</v>
+        <v>1284.7287224307941</v>
       </c>
       <c r="W27">
-        <v>0.003035511546691212</v>
+        <v>3.0355115466912121E-3</v>
       </c>
       <c r="X27">
         <v>1842.466698393031</v>
       </c>
       <c r="Y27">
-        <v>1284.728772433294</v>
+        <v>1284.7287724332939</v>
       </c>
       <c r="Z27">
-        <v>4480.483820212573</v>
+        <v>4480.4838202125729</v>
       </c>
       <c r="AA27">
-        <v>0.8798429890932248</v>
+        <v>0.87984298909322478</v>
       </c>
       <c r="AB27">
-        <v>5.669548411126203</v>
+        <v>5.6695484111262031</v>
       </c>
       <c r="AC27">
-        <v>0.7137412464933786</v>
+        <v>0.71374124649337856</v>
       </c>
       <c r="AD27">
         <v>1.75968597818645</v>
@@ -7494,34 +7880,34 @@
         <v>152</v>
       </c>
       <c r="AF27">
-        <v>1388.444638789084</v>
+        <v>1388.4446387890839</v>
       </c>
       <c r="AG27">
-        <v>0.001179651632895961</v>
+        <v>1.179651632895961E-3</v>
       </c>
       <c r="AH27">
         <v>3764.437147650202</v>
       </c>
       <c r="AI27">
-        <v>1388.444588786584</v>
+        <v>1388.4445887865841</v>
       </c>
       <c r="AJ27">
-        <v>7015.652493677584</v>
+        <v>7015.6524936775841</v>
       </c>
       <c r="AK27">
-        <v>0.6794597166300365</v>
+        <v>0.67945971663003646</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>6.4968439570594</v>
+        <v>6.4968439570593999</v>
       </c>
       <c r="AN27">
-        <v>0.6948061346905992</v>
+        <v>0.69480613469059915</v>
       </c>
       <c r="AO27">
-        <v>1.358919433260073</v>
+        <v>1.3589194332600729</v>
       </c>
       <c r="AP27" t="s">
         <v>152</v>
@@ -7530,7 +7916,7 @@
         <v>1264.55142243559</v>
       </c>
       <c r="AR27">
-        <v>595.6086592475244</v>
+        <v>595.60865924752443</v>
       </c>
       <c r="AS27">
         <v>1.734932353381256</v>
@@ -7539,19 +7925,19 @@
         <v>1409.840047561044</v>
       </c>
       <c r="AU27">
-        <v>765.9676416975462</v>
+        <v>765.96764169754624</v>
       </c>
       <c r="AV27">
         <v>1.177523801233459</v>
       </c>
       <c r="AW27">
-        <v>1370.278604934079</v>
+        <v>1370.2786049340791</v>
       </c>
       <c r="AX27">
-        <v>92.47408020494601</v>
+        <v>92.474080204946006</v>
       </c>
       <c r="AY27">
-        <v>0.3394371741630652</v>
+        <v>0.33943717416306518</v>
       </c>
       <c r="BF27" t="s">
         <v>144</v>
@@ -7572,7 +7958,7 @@
         <v>8</v>
       </c>
       <c r="BL27">
-        <v>34.406</v>
+        <v>34.405999999999999</v>
       </c>
       <c r="BM27">
         <v>10</v>
@@ -7593,7 +7979,7 @@
         <v>49275</v>
       </c>
       <c r="BS27">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT27" s="2">
         <v>45085.5703125</v>
@@ -7608,22 +7994,22 @@
         <v>52</v>
       </c>
       <c r="BX27" s="2">
-        <v>45085.57032537037</v>
+        <v>45085.570325370369</v>
       </c>
       <c r="BY27" s="2">
-        <v>45085.57092722222</v>
+        <v>45085.570927222223</v>
       </c>
       <c r="BZ27">
-        <v>7.828269577026367</v>
+        <v>7.8282695770263668</v>
       </c>
       <c r="CA27">
-        <v>0.0003426021999783677</v>
+        <v>3.426021999783677E-4</v>
       </c>
       <c r="CB27">
         <v>32.4814453125</v>
       </c>
       <c r="CC27">
-        <v>0.001989293981480955</v>
+        <v>1.9892939814809552E-3</v>
       </c>
       <c r="CD27" t="s">
         <v>144</v>
@@ -7635,16 +8021,29 @@
         <v>250</v>
       </c>
       <c r="CG27">
-        <v>36.9856</v>
+        <v>36.985599999999998</v>
       </c>
       <c r="CH27">
-        <v>0.002073644135333422</v>
+        <v>2.0736441353334219E-3</v>
       </c>
       <c r="CI27">
-        <v>0.2933982516753942</v>
+        <v>0.29339825167539418</v>
+      </c>
+      <c r="CJ27">
+        <f t="shared" si="0"/>
+        <v>0.9975617274857127</v>
+      </c>
+      <c r="CK27">
+        <v>0.99756223299525504</v>
+      </c>
+      <c r="CL27">
+        <v>0.99722454165968899</v>
+      </c>
+      <c r="CM27">
+        <v>1.0025618459744701</v>
       </c>
     </row>
-    <row r="28" spans="1:87">
+    <row r="28" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -7652,28 +8051,28 @@
         <v>112</v>
       </c>
       <c r="C28">
-        <v>0.0775041663796343</v>
+        <v>7.7504166379634296E-2</v>
       </c>
       <c r="D28">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E28">
         <v>0.28181081081081</v>
       </c>
       <c r="F28">
-        <v>7.75041663796343</v>
+        <v>7.7504166379634301</v>
       </c>
       <c r="G28">
-        <v>7.7526</v>
+        <v>7.7526000000000002</v>
       </c>
       <c r="H28">
-        <v>37.004</v>
+        <v>37.003999999999998</v>
       </c>
       <c r="I28">
-        <v>37.005</v>
+        <v>37.005000000000003</v>
       </c>
       <c r="J28">
-        <v>37.005</v>
+        <v>37.005000000000003</v>
       </c>
       <c r="K28">
         <v>37.006</v>
@@ -7685,13 +8084,13 @@
         <v>103.4421245126922</v>
       </c>
       <c r="O28">
-        <v>103.4456173212537</v>
+        <v>103.44561732125371</v>
       </c>
       <c r="P28">
         <v>103.4386317041308</v>
       </c>
       <c r="Q28">
-        <v>0.003492808561432092</v>
+        <v>3.4928085614320918E-3</v>
       </c>
       <c r="R28" t="s">
         <v>145</v>
@@ -7700,70 +8099,70 @@
         <v>103.694335315671</v>
       </c>
       <c r="T28">
-        <v>0.004323118757991063</v>
+        <v>4.3231187579910631E-3</v>
       </c>
       <c r="U28">
-        <v>0.003417666990957489</v>
+        <v>3.417666990957489E-3</v>
       </c>
       <c r="V28">
         <v>1284.783083340526</v>
       </c>
       <c r="W28">
-        <v>0.003242246605540132</v>
+        <v>3.2422466055401322E-3</v>
       </c>
       <c r="X28">
-        <v>1904.885243276858</v>
+        <v>1904.8852432768581</v>
       </c>
       <c r="Y28">
-        <v>1284.783133343026</v>
+        <v>1284.7831333430261</v>
       </c>
       <c r="Z28">
-        <v>4568.430801196391</v>
+        <v>4568.4308011963913</v>
       </c>
       <c r="AA28">
-        <v>0.8794137392298694</v>
+        <v>0.87941373922986943</v>
       </c>
       <c r="AB28">
-        <v>5.478896317987812</v>
+        <v>5.4788963179878118</v>
       </c>
       <c r="AC28">
-        <v>0.6814629645571305</v>
+        <v>0.68146296455713051</v>
       </c>
       <c r="AD28">
-        <v>1.758827478459739</v>
+        <v>1.7588274784597391</v>
       </c>
       <c r="AE28" t="s">
         <v>152</v>
       </c>
       <c r="AF28">
-        <v>1388.477518661197</v>
+        <v>1388.4775186611971</v>
       </c>
       <c r="AG28">
-        <v>0.001080872152450931</v>
+        <v>1.0808721524509311E-3</v>
       </c>
       <c r="AH28">
-        <v>3914.191227291841</v>
+        <v>3914.1912272918412</v>
       </c>
       <c r="AI28">
         <v>1388.477468658697</v>
       </c>
       <c r="AJ28">
-        <v>7171.711830601071</v>
+        <v>7171.7118306010707</v>
       </c>
       <c r="AK28">
-        <v>0.6695027902382336</v>
+        <v>0.66950279023823356</v>
       </c>
       <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28">
-        <v>6.316721729586993</v>
+        <v>6.3167217295869929</v>
       </c>
       <c r="AN28">
-        <v>0.6893515897704344</v>
+        <v>0.68935158977043443</v>
       </c>
       <c r="AO28">
-        <v>1.339005580476467</v>
+        <v>1.3390055804764669</v>
       </c>
       <c r="AP28" t="s">
         <v>152</v>
@@ -7772,28 +8171,28 @@
         <v>1264.592103905072</v>
       </c>
       <c r="AR28">
-        <v>587.4478869138586</v>
+        <v>587.44788691385861</v>
       </c>
       <c r="AS28">
-        <v>1.680959067647191</v>
+        <v>1.6809590676471911</v>
       </c>
       <c r="AT28">
-        <v>1409.890824204591</v>
+        <v>1409.8908242045909</v>
       </c>
       <c r="AU28">
-        <v>778.4279090179991</v>
+        <v>778.42790901799913</v>
       </c>
       <c r="AV28">
-        <v>1.085778164075231</v>
+        <v>1.0857781640752311</v>
       </c>
       <c r="AW28">
-        <v>1370.291349356249</v>
+        <v>1370.2913493562489</v>
       </c>
       <c r="AX28">
         <v>105.3759901359434</v>
       </c>
       <c r="AY28">
-        <v>0.3345065917164314</v>
+        <v>0.33450659171643138</v>
       </c>
       <c r="BF28" t="s">
         <v>145</v>
@@ -7814,7 +8213,7 @@
         <v>8</v>
       </c>
       <c r="BL28">
-        <v>34.403</v>
+        <v>34.402999999999999</v>
       </c>
       <c r="BM28">
         <v>10</v>
@@ -7835,13 +8234,13 @@
         <v>47819</v>
       </c>
       <c r="BS28">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT28" s="2">
-        <v>45085.55346064815</v>
+        <v>45085.553460648152</v>
       </c>
       <c r="BU28" s="2">
-        <v>45085.55346064815</v>
+        <v>45085.553460648152</v>
       </c>
       <c r="BV28">
         <v>1686230219</v>
@@ -7850,22 +8249,22 @@
         <v>52</v>
       </c>
       <c r="BX28" s="2">
-        <v>45085.55345050926</v>
+        <v>45085.553450509258</v>
       </c>
       <c r="BY28" s="2">
-        <v>45085.55405236111</v>
+        <v>45085.554052361113</v>
       </c>
       <c r="BZ28">
-        <v>7.754723358154298</v>
+        <v>7.7547233581542976</v>
       </c>
       <c r="CA28">
-        <v>0.0008350513599534932</v>
+        <v>8.3505135995349318E-4</v>
       </c>
       <c r="CB28">
         <v>32.365234375</v>
       </c>
       <c r="CC28">
-        <v>0.001121238425926979</v>
+        <v>1.1212384259269789E-3</v>
       </c>
       <c r="CD28" t="s">
         <v>145</v>
@@ -7877,16 +8276,29 @@
         <v>251</v>
       </c>
       <c r="CG28">
-        <v>37.0052</v>
+        <v>37.005200000000002</v>
       </c>
       <c r="CH28">
-        <v>0.0008366600265346734</v>
+        <v>8.3666002653467336E-4</v>
       </c>
       <c r="CI28">
-        <v>0.2823380882569609</v>
+        <v>0.28233808825696088</v>
+      </c>
+      <c r="CJ28">
+        <f t="shared" si="0"/>
+        <v>0.99756774753209998</v>
+      </c>
+      <c r="CK28">
+        <v>0.99756831168516602</v>
+      </c>
+      <c r="CL28">
+        <v>0.99722851441815796</v>
+      </c>
+      <c r="CM28">
+        <v>1.0025713862894801</v>
       </c>
     </row>
-    <row r="29" spans="1:87">
+    <row r="29" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -7894,46 +8306,46 @@
         <v>113</v>
       </c>
       <c r="C29">
-        <v>0.0764124436306942</v>
+        <v>7.6412443630694202E-2</v>
       </c>
       <c r="D29">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E29">
-        <v>0.26777027027027</v>
+        <v>0.26777027027027001</v>
       </c>
       <c r="F29">
-        <v>7.64124436306942</v>
+        <v>7.6412443630694202</v>
       </c>
       <c r="G29">
         <v>7.641</v>
       </c>
       <c r="H29">
-        <v>37.014</v>
+        <v>37.014000000000003</v>
       </c>
       <c r="I29">
-        <v>37.015</v>
+        <v>37.015000000000001</v>
       </c>
       <c r="J29">
-        <v>37.015</v>
+        <v>37.015000000000001</v>
       </c>
       <c r="K29">
-        <v>37.015</v>
+        <v>37.015000000000001</v>
       </c>
       <c r="L29">
-        <v>37.017</v>
+        <v>37.017000000000003</v>
       </c>
       <c r="N29">
         <v>103.4054344669337</v>
       </c>
       <c r="O29">
-        <v>103.4077650090154</v>
+        <v>103.40776500901541</v>
       </c>
       <c r="P29">
         <v>103.4031039248521</v>
       </c>
       <c r="Q29">
-        <v>0.002330542081663335</v>
+        <v>2.3305420816633351E-3</v>
       </c>
       <c r="R29" t="s">
         <v>146</v>
@@ -7942,34 +8354,34 @@
         <v>103.6568717268904</v>
       </c>
       <c r="T29">
-        <v>0.002949310680473161</v>
+        <v>2.949310680473161E-3</v>
       </c>
       <c r="U29">
-        <v>0.002206945443917755</v>
+        <v>2.2069454439177551E-3</v>
       </c>
       <c r="V29">
         <v>1284.85177128909</v>
       </c>
       <c r="W29">
-        <v>0.001985239049070307</v>
+        <v>1.985239049070307E-3</v>
       </c>
       <c r="X29">
         <v>1870.683224351829</v>
       </c>
       <c r="Y29">
-        <v>1284.85182129159</v>
+        <v>1284.8518212915901</v>
       </c>
       <c r="Z29">
-        <v>4394.817385393804</v>
+        <v>4394.8173853938042</v>
       </c>
       <c r="AA29">
-        <v>0.8545943554319654</v>
+        <v>0.85459435543196538</v>
       </c>
       <c r="AB29">
-        <v>5.141207503974605</v>
+        <v>5.1412075039746048</v>
       </c>
       <c r="AC29">
-        <v>0.7006612140908761</v>
+        <v>0.70066121409087612</v>
       </c>
       <c r="AD29">
         <v>1.709188710863931</v>
@@ -7978,19 +8390,19 @@
         <v>152</v>
       </c>
       <c r="AF29">
-        <v>1388.50874302098</v>
+        <v>1388.5087430209801</v>
       </c>
       <c r="AG29">
-        <v>0.0009640716314028543</v>
+        <v>9.6407163140285431E-4</v>
       </c>
       <c r="AH29">
-        <v>3801.825501159227</v>
+        <v>3801.8255011592269</v>
       </c>
       <c r="AI29">
         <v>1388.50869301848</v>
       </c>
       <c r="AJ29">
-        <v>6784.738112386972</v>
+        <v>6784.7381123869718</v>
       </c>
       <c r="AK29">
         <v>0.654678140877617</v>
@@ -7999,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AM29">
-        <v>5.976359350387956</v>
+        <v>5.9763593503879564</v>
       </c>
       <c r="AN29">
-        <v>0.679797053072396</v>
+        <v>0.67979705307239602</v>
       </c>
       <c r="AO29">
         <v>1.309356281755234</v>
@@ -8011,10 +8423,10 @@
         <v>152</v>
       </c>
       <c r="AQ29">
-        <v>1264.69233696</v>
+        <v>1264.6923369599999</v>
       </c>
       <c r="AR29">
-        <v>553.2411424275119</v>
+        <v>553.24114242751193</v>
       </c>
       <c r="AS29">
         <v>1.56850713189017</v>
@@ -8023,19 +8435,19 @@
         <v>1409.917628114837</v>
       </c>
       <c r="AU29">
-        <v>736.5676794138573</v>
+        <v>736.56767941385726</v>
       </c>
       <c r="AV29">
         <v>1.097991379233322</v>
       </c>
       <c r="AW29">
-        <v>1370.303378981915</v>
+        <v>1370.3033789819151</v>
       </c>
       <c r="AX29">
         <v>105.1834377826937</v>
       </c>
       <c r="AY29">
-        <v>0.3271442852621638</v>
+        <v>0.32714428526216383</v>
       </c>
       <c r="BF29" t="s">
         <v>146</v>
@@ -8056,7 +8468,7 @@
         <v>8</v>
       </c>
       <c r="BL29">
-        <v>34.475</v>
+        <v>34.475000000000001</v>
       </c>
       <c r="BM29">
         <v>10</v>
@@ -8077,13 +8489,13 @@
         <v>46369</v>
       </c>
       <c r="BS29">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT29" s="2">
-        <v>45085.53667824074</v>
+        <v>45085.536678240736</v>
       </c>
       <c r="BU29" s="2">
-        <v>45085.53667824074</v>
+        <v>45085.536678240736</v>
       </c>
       <c r="BV29">
         <v>1686228769</v>
@@ -8092,22 +8504,22 @@
         <v>51</v>
       </c>
       <c r="BX29" s="2">
-        <v>45085.5366790162</v>
+        <v>45085.536679016201</v>
       </c>
       <c r="BY29" s="2">
-        <v>45085.53726929398</v>
+        <v>45085.537269293978</v>
       </c>
       <c r="BZ29">
-        <v>7.642340850830078</v>
+        <v>7.6423408508300783</v>
       </c>
       <c r="CA29">
-        <v>0.0006160749283624971</v>
+        <v>6.160749283624971E-4</v>
       </c>
       <c r="CB29">
         <v>32.1865234375</v>
       </c>
       <c r="CC29">
-        <v>0.003453449394463766</v>
+        <v>3.4534493944637658E-3</v>
       </c>
       <c r="CD29" t="s">
         <v>146</v>
@@ -8122,13 +8534,26 @@
         <v>37.0152</v>
       </c>
       <c r="CH29">
-        <v>0.001095445115010698</v>
+        <v>1.095445115010698E-3</v>
       </c>
       <c r="CI29">
         <v>0.267739434628332</v>
       </c>
+      <c r="CJ29">
+        <f t="shared" si="0"/>
+        <v>0.99757433100413084</v>
+      </c>
+      <c r="CK29">
+        <v>0.99757495932621498</v>
+      </c>
+      <c r="CL29">
+        <v>0.99723234729322996</v>
+      </c>
+      <c r="CM29">
+        <v>1.0025821380986</v>
+      </c>
     </row>
-    <row r="30" spans="1:87">
+    <row r="30" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8136,31 +8561,31 @@
         <v>114</v>
       </c>
       <c r="C30">
-        <v>0.0751595999302298</v>
+        <v>7.5159599930229803E-2</v>
       </c>
       <c r="D30">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E30">
-        <v>0.253729729729729</v>
+        <v>0.25372972972972901</v>
       </c>
       <c r="F30">
-        <v>7.51595999302298</v>
+        <v>7.5159599930229799</v>
       </c>
       <c r="G30">
-        <v>7.5349</v>
+        <v>7.5349000000000004</v>
       </c>
       <c r="H30">
-        <v>37.001</v>
+        <v>37.000999999999998</v>
       </c>
       <c r="I30">
         <v>37</v>
       </c>
       <c r="J30">
-        <v>36.999</v>
+        <v>36.999000000000002</v>
       </c>
       <c r="K30">
-        <v>36.998</v>
+        <v>36.997999999999998</v>
       </c>
       <c r="L30">
         <v>36.997</v>
@@ -8172,10 +8597,10 @@
         <v>103.3824666434503</v>
       </c>
       <c r="P30">
-        <v>103.3770985889688</v>
+        <v>103.37709858896881</v>
       </c>
       <c r="Q30">
-        <v>0.002684027240747489</v>
+        <v>2.6840272407474891E-3</v>
       </c>
       <c r="R30" t="s">
         <v>147</v>
@@ -8184,34 +8609,34 @@
         <v>103.6310289222513</v>
       </c>
       <c r="T30">
-        <v>0.003249983950354759</v>
+        <v>3.249983950354759E-3</v>
       </c>
       <c r="U30">
-        <v>0.002578804109031733</v>
+        <v>2.5788041090317329E-3</v>
       </c>
       <c r="V30">
-        <v>1284.916415527479</v>
+        <v>1284.9164155274791</v>
       </c>
       <c r="W30">
-        <v>0.002452347036193262</v>
+        <v>2.452347036193262E-3</v>
       </c>
       <c r="X30">
-        <v>1825.197392488628</v>
+        <v>1825.1973924886281</v>
       </c>
       <c r="Y30">
         <v>1284.916465529979</v>
       </c>
       <c r="Z30">
-        <v>4118.820976466261</v>
+        <v>4118.8209764662606</v>
       </c>
       <c r="AA30">
-        <v>0.8197655448801847</v>
+        <v>0.81976554488018472</v>
       </c>
       <c r="AB30">
-        <v>5.228801843225711</v>
+        <v>5.2288018432257113</v>
       </c>
       <c r="AC30">
-        <v>0.7038372695230091</v>
+        <v>0.70383726952300907</v>
       </c>
       <c r="AD30">
         <v>1.639531089760369</v>
@@ -8223,28 +8648,28 @@
         <v>1388.547544454731</v>
       </c>
       <c r="AG30">
-        <v>0.0007976369141614974</v>
+        <v>7.9763691416149737E-4</v>
       </c>
       <c r="AH30">
-        <v>3603.685871813498</v>
+        <v>3603.6858718134981</v>
       </c>
       <c r="AI30">
         <v>1388.54749445223</v>
       </c>
       <c r="AJ30">
-        <v>6342.039798867037</v>
+        <v>6342.0397988670366</v>
       </c>
       <c r="AK30">
-        <v>0.6509429696526108</v>
+        <v>0.65094296965261078</v>
       </c>
       <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>5.437133608806345</v>
+        <v>5.4371336088063451</v>
       </c>
       <c r="AN30">
-        <v>0.6597500960060417</v>
+        <v>0.65975009600604173</v>
       </c>
       <c r="AO30">
         <v>1.301885939305222</v>
@@ -8256,25 +8681,25 @@
         <v>1264.76398589416</v>
       </c>
       <c r="AR30">
-        <v>509.231022572099</v>
+        <v>509.23102257209899</v>
       </c>
       <c r="AS30">
         <v>1.468245237787108</v>
       </c>
       <c r="AT30">
-        <v>1409.965166127353</v>
+        <v>1409.9651661273531</v>
       </c>
       <c r="AU30">
-        <v>693.1672802758329</v>
+        <v>693.16728027583292</v>
       </c>
       <c r="AV30">
         <v>1.018740327055357</v>
       </c>
       <c r="AW30">
-        <v>1370.309894748858</v>
+        <v>1370.3098947488579</v>
       </c>
       <c r="AX30">
-        <v>99.18690897001117</v>
+        <v>99.186908970011174</v>
       </c>
       <c r="AY30">
         <v>0.3253068072525348</v>
@@ -8319,13 +8744,13 @@
         <v>46110</v>
       </c>
       <c r="BS30">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT30" s="2">
-        <v>45085.53368055556</v>
+        <v>45085.533680555563</v>
       </c>
       <c r="BU30" s="2">
-        <v>45085.53368055556</v>
+        <v>45085.533680555563</v>
       </c>
       <c r="BV30">
         <v>1686228510</v>
@@ -8334,22 +8759,22 @@
         <v>51</v>
       </c>
       <c r="BX30" s="2">
-        <v>45085.53369293982</v>
+        <v>45085.533692939818</v>
       </c>
       <c r="BY30" s="2">
-        <v>45085.5342832176</v>
+        <v>45085.534283217603</v>
       </c>
       <c r="BZ30">
-        <v>7.535690307617188</v>
+        <v>7.5356903076171884</v>
       </c>
       <c r="CA30">
-        <v>0.0003893947931309307</v>
+        <v>3.8939479313093072E-4</v>
       </c>
       <c r="CB30">
         <v>32.1552734375</v>
       </c>
       <c r="CC30">
-        <v>0.001689554498269822</v>
+        <v>1.6895544982698219E-3</v>
       </c>
       <c r="CD30" t="s">
         <v>147</v>
@@ -8361,16 +8786,29 @@
         <v>253</v>
       </c>
       <c r="CG30">
-        <v>36.999</v>
+        <v>36.999000000000002</v>
       </c>
       <c r="CH30">
-        <v>0.001581138830083875</v>
+        <v>1.5811388300838751E-3</v>
       </c>
       <c r="CI30">
-        <v>0.2558271108545062</v>
+        <v>0.25582711085450621</v>
+      </c>
+      <c r="CJ30">
+        <f t="shared" si="0"/>
+        <v>0.99757556873983944</v>
+      </c>
+      <c r="CK30">
+        <v>0.99757620912965195</v>
+      </c>
+      <c r="CL30">
+        <v>0.99723301894960104</v>
+      </c>
+      <c r="CM30">
+        <v>1.00258418998621</v>
       </c>
     </row>
-    <row r="31" spans="1:87">
+    <row r="31" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8378,31 +8816,31 @@
         <v>115</v>
       </c>
       <c r="C31">
-        <v>0.0737261551499111</v>
+        <v>7.3726155149911099E-2</v>
       </c>
       <c r="D31">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E31">
-        <v>0.239689189189189</v>
+        <v>0.23968918918918899</v>
       </c>
       <c r="F31">
-        <v>7.37261551499111</v>
+        <v>7.3726155149911099</v>
       </c>
       <c r="G31">
         <v>7.4318</v>
       </c>
       <c r="H31">
-        <v>36.982</v>
+        <v>36.981999999999999</v>
       </c>
       <c r="I31">
-        <v>36.985</v>
+        <v>36.984999999999999</v>
       </c>
       <c r="J31">
         <v>36.988</v>
       </c>
       <c r="K31">
-        <v>36.995</v>
+        <v>36.994999999999997</v>
       </c>
       <c r="L31">
         <v>36.997</v>
@@ -8411,13 +8849,13 @@
         <v>103.3606237089175</v>
       </c>
       <c r="O31">
-        <v>103.3637566251652</v>
+        <v>103.36375662516519</v>
       </c>
       <c r="P31">
-        <v>103.3574907926698</v>
+        <v>103.35749079266979</v>
       </c>
       <c r="Q31">
-        <v>0.003132916247666364</v>
+        <v>3.1329162476663639E-3</v>
       </c>
       <c r="R31" t="s">
         <v>148</v>
@@ -8426,46 +8864,46 @@
         <v>103.6116420449282</v>
       </c>
       <c r="T31">
-        <v>0.004099368923895884</v>
+        <v>4.0993689238958842E-3</v>
       </c>
       <c r="U31">
-        <v>0.003044925400213928</v>
+        <v>3.0449254002139279E-3</v>
       </c>
       <c r="V31">
         <v>1284.961978630356</v>
       </c>
       <c r="W31">
-        <v>0.00270891048758949</v>
+        <v>2.7089104875894902E-3</v>
       </c>
       <c r="X31">
         <v>1676.812960466757</v>
       </c>
       <c r="Y31">
-        <v>1284.962028632856</v>
+        <v>1284.9620286328559</v>
       </c>
       <c r="Z31">
-        <v>3739.647130065338</v>
+        <v>3739.6471300653379</v>
       </c>
       <c r="AA31">
-        <v>0.8105572095729306</v>
+        <v>0.81055720957293065</v>
       </c>
       <c r="AB31">
-        <v>4.672240737116002</v>
+        <v>4.6722407371160024</v>
       </c>
       <c r="AC31">
-        <v>0.702745525166643</v>
+        <v>0.70274552516664301</v>
       </c>
       <c r="AD31">
-        <v>1.621114419145861</v>
+        <v>1.6211144191458611</v>
       </c>
       <c r="AE31" t="s">
         <v>152</v>
       </c>
       <c r="AF31">
-        <v>1388.573720680285</v>
+        <v>1388.5737206802851</v>
       </c>
       <c r="AG31">
-        <v>0.001390458436306394</v>
+        <v>1.390458436306394E-3</v>
       </c>
       <c r="AH31">
         <v>3322.736651179473</v>
@@ -8474,52 +8912,52 @@
         <v>1388.573670677785</v>
       </c>
       <c r="AJ31">
-        <v>5727.747848273539</v>
+        <v>5727.7478482735387</v>
       </c>
       <c r="AK31">
-        <v>0.6385374051614336</v>
+        <v>0.63853740516143365</v>
       </c>
       <c r="AL31">
         <v>0</v>
       </c>
       <c r="AM31">
-        <v>5.37355828705375</v>
+        <v>5.3735582870537497</v>
       </c>
       <c r="AN31">
-        <v>0.6561751588873679</v>
+        <v>0.65617515888736788</v>
       </c>
       <c r="AO31">
-        <v>1.277074810322867</v>
+        <v>1.2770748103228671</v>
       </c>
       <c r="AP31" t="s">
         <v>152</v>
       </c>
       <c r="AQ31">
-        <v>1264.745019092674</v>
+        <v>1264.7450190926741</v>
       </c>
       <c r="AR31">
-        <v>489.5787484352246</v>
+        <v>489.57874843522461</v>
       </c>
       <c r="AS31">
-        <v>1.549763847272929</v>
+        <v>1.5497638472729289</v>
       </c>
       <c r="AT31">
-        <v>1409.994272554149</v>
+        <v>1409.9942725541489</v>
       </c>
       <c r="AU31">
-        <v>645.8147589927676</v>
+        <v>645.81475899276757</v>
       </c>
       <c r="AV31">
         <v>1.052990423509617</v>
       </c>
       <c r="AW31">
-        <v>1370.624326444978</v>
+        <v>1370.6243264449779</v>
       </c>
       <c r="AX31">
-        <v>83.27067437792199</v>
+        <v>83.270674377921992</v>
       </c>
       <c r="AY31">
-        <v>0.3191168234984144</v>
+        <v>0.31911682349841441</v>
       </c>
       <c r="BF31" t="s">
         <v>148</v>
@@ -8561,7 +8999,7 @@
         <v>45751</v>
       </c>
       <c r="BS31">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT31" s="2">
         <v>45085.52952546296</v>
@@ -8576,22 +9014,22 @@
         <v>51</v>
       </c>
       <c r="BX31" s="2">
-        <v>45085.52952572917</v>
+        <v>45085.529525729173</v>
       </c>
       <c r="BY31" s="2">
-        <v>45085.53011600694</v>
+        <v>45085.530116006943</v>
       </c>
       <c r="BZ31">
-        <v>7.433209228515626</v>
+        <v>7.4332092285156257</v>
       </c>
       <c r="CA31">
-        <v>0.001134999593098929</v>
+        <v>1.1349995930989289E-3</v>
       </c>
       <c r="CB31">
         <v>32.1044921875</v>
       </c>
       <c r="CC31">
-        <v>0.001042872299382541</v>
+        <v>1.0428722993825409E-3</v>
       </c>
       <c r="CD31" t="s">
         <v>148</v>
@@ -8603,16 +9041,29 @@
         <v>254</v>
       </c>
       <c r="CG31">
-        <v>36.9894</v>
+        <v>36.989400000000003</v>
       </c>
       <c r="CH31">
-        <v>0.006426507605223579</v>
+        <v>6.4265076052235793E-3</v>
       </c>
       <c r="CI31">
-        <v>0.2454800387904136</v>
+        <v>0.24548003879041361</v>
+      </c>
+      <c r="CJ31">
+        <f t="shared" si="0"/>
+        <v>0.99757731533777005</v>
+      </c>
+      <c r="CK31">
+        <v>0.99757797275832205</v>
+      </c>
+      <c r="CL31">
+        <v>0.99723394342952898</v>
+      </c>
+      <c r="CM31">
+        <v>1.00258709996666</v>
       </c>
     </row>
-    <row r="32" spans="1:87">
+    <row r="32" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8620,34 +9071,34 @@
         <v>116</v>
       </c>
       <c r="C32">
-        <v>0.0720919699215273</v>
+        <v>7.2091969921527305E-2</v>
       </c>
       <c r="D32">
-        <v>310.15</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="E32">
         <v>0.225648648648648</v>
       </c>
       <c r="F32">
-        <v>7.20919699215273</v>
+        <v>7.2091969921527301</v>
       </c>
       <c r="G32">
-        <v>7.1625</v>
+        <v>7.1624999999999996</v>
       </c>
       <c r="H32">
         <v>36.994</v>
       </c>
       <c r="I32">
-        <v>36.995</v>
+        <v>36.994999999999997</v>
       </c>
       <c r="J32">
-        <v>36.996</v>
+        <v>36.996000000000002</v>
       </c>
       <c r="K32">
-        <v>36.996</v>
+        <v>36.996000000000002</v>
       </c>
       <c r="L32">
-        <v>36.996</v>
+        <v>36.996000000000002</v>
       </c>
       <c r="N32">
         <v>103.2985509604782</v>
@@ -8659,7 +9110,7 @@
         <v>103.2931616342114</v>
       </c>
       <c r="Q32">
-        <v>0.005389326266760587</v>
+        <v>5.3893262667605874E-3</v>
       </c>
       <c r="R32" t="s">
         <v>149</v>
@@ -8668,37 +9119,37 @@
         <v>103.5489465501532</v>
       </c>
       <c r="T32">
-        <v>0.006325485905911686</v>
+        <v>6.3254859059116864E-3</v>
       </c>
       <c r="U32">
-        <v>0.005346744938088011</v>
+        <v>5.3467449380880114E-3</v>
       </c>
       <c r="V32">
-        <v>1285.110680904712</v>
+        <v>1285.1106809047119</v>
       </c>
       <c r="W32">
-        <v>0.005234191173407668</v>
+        <v>5.2341911734076676E-3</v>
       </c>
       <c r="X32">
-        <v>1668.09207013868</v>
+        <v>1668.0920701386799</v>
       </c>
       <c r="Y32">
-        <v>1285.110680904712</v>
+        <v>1285.1106809047119</v>
       </c>
       <c r="Z32">
-        <v>3446.752873167003</v>
+        <v>3446.7528731670031</v>
       </c>
       <c r="AA32">
-        <v>0.7710709460174928</v>
+        <v>0.77107094601749282</v>
       </c>
       <c r="AB32">
-        <v>6.516752527553123</v>
+        <v>6.5167525275531233</v>
       </c>
       <c r="AC32">
-        <v>0.6445441469604183</v>
+        <v>0.64454414696041828</v>
       </c>
       <c r="AD32">
-        <v>1.542141892034986</v>
+        <v>1.5421418920349861</v>
       </c>
       <c r="AE32" t="s">
         <v>152</v>
@@ -8707,16 +9158,16 @@
         <v>1388.659677457365</v>
       </c>
       <c r="AG32">
-        <v>0.001091294732504017</v>
+        <v>1.0912947325040169E-3</v>
       </c>
       <c r="AH32">
-        <v>3233.801725413349</v>
+        <v>3233.8017254133488</v>
       </c>
       <c r="AI32">
-        <v>1388.659627454865</v>
+        <v>1388.6596274548649</v>
       </c>
       <c r="AJ32">
-        <v>5342.275973173733</v>
+        <v>5342.2759731737333</v>
       </c>
       <c r="AK32">
         <v>0.6156903988848087</v>
@@ -8725,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="AM32">
-        <v>5.023071785009043</v>
+        <v>5.0230717850090434</v>
       </c>
       <c r="AN32">
-        <v>0.6411485289669246</v>
+        <v>0.64114852896692465</v>
       </c>
       <c r="AO32">
         <v>1.231380797769617</v>
@@ -8737,22 +9188,22 @@
         <v>152</v>
       </c>
       <c r="AT32">
-        <v>1410.044605465415</v>
+        <v>1410.0446054654151</v>
       </c>
       <c r="AU32">
-        <v>594.8197192107705</v>
+        <v>594.81971921077047</v>
       </c>
       <c r="AV32">
-        <v>0.9556057345806717</v>
+        <v>0.95560573458067166</v>
       </c>
       <c r="AW32">
         <v>1370.313519245464</v>
       </c>
       <c r="AX32">
-        <v>84.24580100550433</v>
+        <v>84.245801005504333</v>
       </c>
       <c r="AY32">
-        <v>0.3076440509956063</v>
+        <v>0.30764405099560632</v>
       </c>
       <c r="BF32" t="s">
         <v>154</v>
@@ -8773,7 +9224,7 @@
         <v>8</v>
       </c>
       <c r="BL32">
-        <v>34.482</v>
+        <v>34.481999999999999</v>
       </c>
       <c r="BM32">
         <v>10</v>
@@ -8794,13 +9245,13 @@
         <v>44849</v>
       </c>
       <c r="BS32">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT32" s="2">
-        <v>45085.51908564815</v>
+        <v>45085.519085648149</v>
       </c>
       <c r="BU32" s="2">
-        <v>45085.51908564815</v>
+        <v>45085.519085648149</v>
       </c>
       <c r="BV32">
         <v>1686227249</v>
@@ -8809,22 +9260,22 @@
         <v>52</v>
       </c>
       <c r="BX32" s="2">
-        <v>45085.51907436342</v>
+        <v>45085.519074363423</v>
       </c>
       <c r="BY32" s="2">
-        <v>45085.51967621528</v>
+        <v>45085.519676215277</v>
       </c>
       <c r="BZ32">
-        <v>7.163984298706055</v>
+        <v>7.1639842987060547</v>
       </c>
       <c r="CA32">
-        <v>0.0007716473237967906</v>
+        <v>7.7164732379679057E-4</v>
       </c>
       <c r="CB32">
         <v>32.123046875</v>
       </c>
       <c r="CC32">
-        <v>0.001446759259260312</v>
+        <v>1.4467592592603119E-3</v>
       </c>
       <c r="CD32" t="s">
         <v>154</v>
@@ -8836,16 +9287,29 @@
         <v>255</v>
       </c>
       <c r="CG32">
-        <v>36.9954</v>
+        <v>36.995399999999997</v>
       </c>
       <c r="CH32">
-        <v>0.0008944271910014061</v>
+        <v>8.9442719100140615E-4</v>
       </c>
       <c r="CI32">
-        <v>0.2220870436506465</v>
+        <v>0.22208704365064649</v>
+      </c>
+      <c r="CJ32">
+        <f t="shared" si="0"/>
+        <v>0.9975818625102697</v>
+      </c>
+      <c r="CK32">
+        <v>0.99758256427790104</v>
+      </c>
+      <c r="CL32">
+        <v>0.99723623287737895</v>
+      </c>
+      <c r="CM32">
+        <v>1.00259474902996</v>
       </c>
     </row>
-    <row r="33" spans="1:87">
+    <row r="33" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8853,22 +9317,22 @@
         <v>117</v>
       </c>
       <c r="G33">
-        <v>7.166</v>
+        <v>7.1660000000000004</v>
       </c>
       <c r="H33">
         <v>37</v>
       </c>
       <c r="I33">
-        <v>37.001</v>
+        <v>37.000999999999998</v>
       </c>
       <c r="J33">
-        <v>37.002</v>
+        <v>37.002000000000002</v>
       </c>
       <c r="K33">
-        <v>37.005</v>
+        <v>37.005000000000003</v>
       </c>
       <c r="L33">
-        <v>37.004</v>
+        <v>37.003999999999998</v>
       </c>
       <c r="N33">
         <v>103.3020370306627</v>
@@ -8880,46 +9344,46 @@
         <v>103.2966509922251</v>
       </c>
       <c r="Q33">
-        <v>0.005386038437572549</v>
+        <v>5.3860384375725486E-3</v>
       </c>
       <c r="R33" t="s">
         <v>150</v>
       </c>
       <c r="S33">
-        <v>103.5524753386485</v>
+        <v>103.55247533864851</v>
       </c>
       <c r="T33">
-        <v>0.006375935805533075</v>
+        <v>6.3759358055330752E-3</v>
       </c>
       <c r="U33">
-        <v>0.005343465929513793</v>
+        <v>5.3434659295137927E-3</v>
       </c>
       <c r="V33">
-        <v>1285.106365979664</v>
+        <v>1285.1063659796639</v>
       </c>
       <c r="W33">
-        <v>0.005216064232053604</v>
+        <v>5.2160642320536041E-3</v>
       </c>
       <c r="X33">
         <v>1675.071443274994</v>
       </c>
       <c r="Y33">
-        <v>1285.106365979664</v>
+        <v>1285.1063659796639</v>
       </c>
       <c r="Z33">
-        <v>3470.278110468394</v>
+        <v>3470.2781104683941</v>
       </c>
       <c r="AA33">
-        <v>0.772549650424374</v>
+        <v>0.77254965042437396</v>
       </c>
       <c r="AB33">
-        <v>6.401949260898204</v>
+        <v>6.4019492608982036</v>
       </c>
       <c r="AC33">
-        <v>0.6463103424889436</v>
+        <v>0.64631034248894359</v>
       </c>
       <c r="AD33">
-        <v>1.545099300848748</v>
+        <v>1.5450993008487479</v>
       </c>
       <c r="AE33" t="s">
         <v>152</v>
@@ -8928,52 +9392,52 @@
         <v>1388.658891320812</v>
       </c>
       <c r="AG33">
-        <v>0.001159871573479471</v>
+        <v>1.159871573479471E-3</v>
       </c>
       <c r="AH33">
-        <v>3283.122443509886</v>
+        <v>3283.1224435098861</v>
       </c>
       <c r="AI33">
-        <v>1388.658841318312</v>
+        <v>1388.6588413183119</v>
       </c>
       <c r="AJ33">
-        <v>5424.735769873688</v>
+        <v>5424.7357698736878</v>
       </c>
       <c r="AK33">
-        <v>0.6173132808664216</v>
+        <v>0.61731328086642157</v>
       </c>
       <c r="AL33">
         <v>0</v>
       </c>
       <c r="AM33">
-        <v>5.182612899337745</v>
+        <v>5.1826128993377454</v>
       </c>
       <c r="AN33">
-        <v>0.6350956784818542</v>
+        <v>0.63509567848185422</v>
       </c>
       <c r="AO33">
-        <v>1.234626561732843</v>
+        <v>1.2346265617328429</v>
       </c>
       <c r="AP33" t="s">
         <v>152</v>
       </c>
       <c r="AT33">
-        <v>1410.022883990439</v>
+        <v>1410.0228839904389</v>
       </c>
       <c r="AU33">
-        <v>586.716941594483</v>
+        <v>586.71694159448305</v>
       </c>
       <c r="AV33">
-        <v>0.9414948739831073</v>
+        <v>0.94149487398310727</v>
       </c>
       <c r="AW33">
         <v>1370.644359394325</v>
       </c>
       <c r="AX33">
-        <v>83.82147950327168</v>
+        <v>83.821479503271675</v>
       </c>
       <c r="AY33">
-        <v>0.3084600848504117</v>
+        <v>0.30846008485041171</v>
       </c>
       <c r="BF33" t="s">
         <v>150</v>
@@ -8994,7 +9458,7 @@
         <v>8</v>
       </c>
       <c r="BL33">
-        <v>34.474</v>
+        <v>34.473999999999997</v>
       </c>
       <c r="BM33">
         <v>10</v>
@@ -9015,13 +9479,13 @@
         <v>44913</v>
       </c>
       <c r="BS33">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT33" s="2">
-        <v>45085.51982638889</v>
+        <v>45085.519826388889</v>
       </c>
       <c r="BU33" s="2">
-        <v>45085.51982638889</v>
+        <v>45085.519826388889</v>
       </c>
       <c r="BV33">
         <v>1686227313</v>
@@ -9030,22 +9494,22 @@
         <v>51</v>
       </c>
       <c r="BX33" s="2">
-        <v>45085.51983831019</v>
+        <v>45085.519838310189</v>
       </c>
       <c r="BY33" s="2">
-        <v>45085.52042858797</v>
+        <v>45085.520428587974</v>
       </c>
       <c r="BZ33">
         <v>7.16790771484375</v>
       </c>
       <c r="CA33">
-        <v>0.0008395871489105452</v>
+        <v>8.3958714891054517E-4</v>
       </c>
       <c r="CB33">
         <v>32.125</v>
       </c>
       <c r="CC33">
-        <v>0.001804444204152593</v>
+        <v>1.8044442041525929E-3</v>
       </c>
       <c r="CD33" t="s">
         <v>150</v>
@@ -9057,16 +9521,29 @@
         <v>256</v>
       </c>
       <c r="CG33">
-        <v>37.0024</v>
+        <v>37.002400000000002</v>
       </c>
       <c r="CH33">
-        <v>0.002073644135333421</v>
+        <v>2.073644135333421E-3</v>
       </c>
       <c r="CI33">
-        <v>0.2223555713594401</v>
+        <v>0.22235557135944009</v>
+      </c>
+      <c r="CJ33">
+        <f t="shared" si="0"/>
+        <v>0.99758153238571268</v>
+      </c>
+      <c r="CK33">
+        <v>0.99758223093336196</v>
+      </c>
+      <c r="CL33">
+        <v>0.997236072005249</v>
+      </c>
+      <c r="CM33">
+        <v>1.0025941903823301</v>
       </c>
     </row>
-    <row r="34" spans="1:87">
+    <row r="34" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9074,34 +9551,34 @@
         <v>118</v>
       </c>
       <c r="G34">
-        <v>7.1699</v>
+        <v>7.1699000000000002</v>
       </c>
       <c r="H34">
-        <v>37.007</v>
+        <v>37.006999999999998</v>
       </c>
       <c r="I34">
-        <v>37.008</v>
+        <v>37.008000000000003</v>
       </c>
       <c r="J34">
-        <v>37.008</v>
+        <v>37.008000000000003</v>
       </c>
       <c r="K34">
         <v>37.009</v>
       </c>
       <c r="L34">
-        <v>37.011</v>
+        <v>37.011000000000003</v>
       </c>
       <c r="N34">
-        <v>103.3030287051812</v>
+        <v>103.30302870518121</v>
       </c>
       <c r="O34">
-        <v>103.308260186801</v>
+        <v>103.30826018680099</v>
       </c>
       <c r="P34">
         <v>103.2977972235614</v>
       </c>
       <c r="Q34">
-        <v>0.00523148161979393</v>
+        <v>5.2314816197939302E-3</v>
       </c>
       <c r="R34" t="s">
         <v>151</v>
@@ -9110,16 +9587,16 @@
         <v>103.5534971730024</v>
       </c>
       <c r="T34">
-        <v>0.00616476245229742</v>
+        <v>6.1647624522974198E-3</v>
       </c>
       <c r="U34">
-        <v>0.005186917399742876</v>
+        <v>5.186917399742876E-3</v>
       </c>
       <c r="V34">
         <v>1285.105750623726</v>
       </c>
       <c r="W34">
-        <v>0.005070088959333766</v>
+        <v>5.0700889593337656E-3</v>
       </c>
       <c r="X34">
         <v>1700.089086311207</v>
@@ -9128,16 +9605,16 @@
         <v>1285.105750623726</v>
       </c>
       <c r="Z34">
-        <v>3529.536828080945</v>
+        <v>3529.5368280809448</v>
       </c>
       <c r="AA34">
-        <v>0.7748730288350154</v>
+        <v>0.77487302883501541</v>
       </c>
       <c r="AB34">
-        <v>6.732089120267027</v>
+        <v>6.7320891202670268</v>
       </c>
       <c r="AC34">
-        <v>0.6440310134346293</v>
+        <v>0.64403101343462932</v>
       </c>
       <c r="AD34">
         <v>1.549746057670031</v>
@@ -9146,31 +9623,31 @@
         <v>152</v>
       </c>
       <c r="AF34">
-        <v>1388.659297799229</v>
+        <v>1388.6592977992291</v>
       </c>
       <c r="AG34">
-        <v>0.001094673492963654</v>
+        <v>1.0946734929636541E-3</v>
       </c>
       <c r="AH34">
-        <v>3316.442130314556</v>
+        <v>3316.4421303145559</v>
       </c>
       <c r="AI34">
         <v>1388.659247796729</v>
       </c>
       <c r="AJ34">
-        <v>5469.417689640666</v>
+        <v>5469.4176896406661</v>
       </c>
       <c r="AK34">
-        <v>0.6185361608281201</v>
+        <v>0.61853616082812013</v>
       </c>
       <c r="AL34">
         <v>0</v>
       </c>
       <c r="AM34">
-        <v>5.162277053125464</v>
+        <v>5.1622770531254636</v>
       </c>
       <c r="AN34">
-        <v>0.6255084731612698</v>
+        <v>0.62550847316126978</v>
       </c>
       <c r="AO34">
         <v>1.23707232165624</v>
@@ -9179,10 +9656,10 @@
         <v>152</v>
       </c>
       <c r="AT34">
-        <v>1410.068144620743</v>
+        <v>1410.0681446207429</v>
       </c>
       <c r="AU34">
-        <v>590.8672498943284</v>
+        <v>590.86724989432844</v>
       </c>
       <c r="AV34">
         <v>0.9158799331626607</v>
@@ -9191,10 +9668,10 @@
         <v>1370.651405756287</v>
       </c>
       <c r="AX34">
-        <v>77.64138152656386</v>
+        <v>77.641381526563862</v>
       </c>
       <c r="AY34">
-        <v>0.3090750283508409</v>
+        <v>0.30907502835084089</v>
       </c>
       <c r="BF34" t="s">
         <v>151</v>
@@ -9236,13 +9713,13 @@
         <v>44965</v>
       </c>
       <c r="BS34">
-        <v>1325.004</v>
+        <v>1325.0039999999999</v>
       </c>
       <c r="BT34" s="2">
-        <v>45085.52042824074</v>
+        <v>45085.520428240743</v>
       </c>
       <c r="BU34" s="2">
-        <v>45085.52042824074</v>
+        <v>45085.520428240743</v>
       </c>
       <c r="BV34">
         <v>1686227365</v>
@@ -9251,22 +9728,22 @@
         <v>51</v>
       </c>
       <c r="BX34" s="2">
-        <v>45085.52042859954</v>
+        <v>45085.520428599542</v>
       </c>
       <c r="BY34" s="2">
-        <v>45085.52101887731</v>
+        <v>45085.521018877313</v>
       </c>
       <c r="BZ34">
-        <v>7.170807647705079</v>
+        <v>7.1708076477050788</v>
       </c>
       <c r="CA34">
-        <v>0.000655364990234454</v>
+        <v>6.5536499023445397E-4</v>
       </c>
       <c r="CB34">
         <v>32.13427734375</v>
       </c>
       <c r="CC34">
-        <v>0.002483603395061904</v>
+        <v>2.4836033950619038E-3</v>
       </c>
       <c r="CD34" t="s">
         <v>151</v>
@@ -9278,13 +9755,26 @@
         <v>257</v>
       </c>
       <c r="CG34">
-        <v>37.00859999999999</v>
+        <v>37.008599999999987</v>
       </c>
       <c r="CH34">
-        <v>0.001516575088811461</v>
+        <v>1.516575088811461E-3</v>
       </c>
       <c r="CI34">
-        <v>0.2225487659202094</v>
+        <v>0.22254876592020939</v>
+      </c>
+      <c r="CJ34">
+        <f t="shared" si="0"/>
+        <v>0.9975812650015794</v>
+      </c>
+      <c r="CK34">
+        <v>0.99758196094124896</v>
+      </c>
+      <c r="CL34">
+        <v>0.99723594111983305</v>
+      </c>
+      <c r="CM34">
+        <v>1.0025937382716901</v>
       </c>
     </row>
   </sheetData>

--- a/docs/UCB_Densimeter_fitting/Input_files/merged_df_wrho-6-8-23.xlsx
+++ b/docs/UCB_Densimeter_fitting/Input_files/merged_df_wrho-6-8-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\Box\Berkeley_new\DiadFit_outer\docs\UCB_Densimeter_fitting\Input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21878EE-AD5E-42A4-9004-F222F458865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566E7C8A-1981-4BFE-9584-B616389B3761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="263">
   <si>
     <t>Label</t>
   </si>
@@ -819,6 +819,9 @@
   </si>
   <si>
     <t>1220_1400_new</t>
+  </si>
+  <si>
+    <t>1117_1400_new</t>
   </si>
 </sst>
 </file>
@@ -880,13 +883,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1193,18 +1199,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CM34"/>
+  <dimension ref="A1:CN34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
-      <selection activeCell="CM6" sqref="CM6"/>
+    <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
+      <selection activeCell="CN3" sqref="CN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="89" max="89" width="17.08984375" customWidth="1"/>
+    <col min="92" max="92" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:92" ht="29" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1475,8 +1482,11 @@
       <c r="CM1" s="3" t="s">
         <v>261</v>
       </c>
+      <c r="CN1" s="4" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1721,8 +1731,11 @@
       <c r="CM2">
         <v>1.0025309458648199</v>
       </c>
+      <c r="CN2">
+        <v>0.99727914940086704</v>
+      </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1976,8 +1989,11 @@
       <c r="CM3">
         <v>1.0025303158921599</v>
       </c>
+      <c r="CN3">
+        <v>0.99727924998566297</v>
+      </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2231,8 +2247,11 @@
       <c r="CM4">
         <v>1.0025303038283599</v>
       </c>
+      <c r="CN4">
+        <v>0.99727929861077202</v>
+      </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2486,8 +2505,11 @@
       <c r="CM5">
         <v>1.0025305112542799</v>
       </c>
+      <c r="CN5">
+        <v>0.99727995110359402</v>
+      </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2732,8 +2754,11 @@
       <c r="CM6">
         <v>1.00253067479747</v>
       </c>
+      <c r="CN6">
+        <v>0.99728022698492502</v>
+      </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2987,8 +3012,11 @@
       <c r="CM7">
         <v>1.0025309837546199</v>
       </c>
+      <c r="CN7">
+        <v>0.99728068053923202</v>
+      </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3233,8 +3261,11 @@
       <c r="CM8">
         <v>1.00253138714454</v>
       </c>
+      <c r="CN8">
+        <v>0.99728121338167997</v>
+      </c>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3488,8 +3519,11 @@
       <c r="CM9">
         <v>1.0025317984195701</v>
       </c>
+      <c r="CN9">
+        <v>0.99728172119306402</v>
+      </c>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3743,8 +3777,11 @@
       <c r="CM10">
         <v>1.00253214452495</v>
       </c>
+      <c r="CN10">
+        <v>0.997282131384151</v>
+      </c>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3998,8 +4035,11 @@
       <c r="CM11">
         <v>1.0025323731973099</v>
       </c>
+      <c r="CN11">
+        <v>0.997282396118232</v>
+      </c>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4253,8 +4293,11 @@
       <c r="CM12">
         <v>1.0025337492327</v>
       </c>
+      <c r="CN12">
+        <v>0.99728392069530802</v>
+      </c>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4508,8 +4551,11 @@
       <c r="CM13">
         <v>1.00253462208003</v>
       </c>
+      <c r="CN13">
+        <v>0.99728484823588304</v>
+      </c>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4763,8 +4809,11 @@
       <c r="CM14">
         <v>1.00253589838954</v>
       </c>
+      <c r="CN14">
+        <v>0.99728617038121103</v>
+      </c>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5018,8 +5067,11 @@
       <c r="CM15">
         <v>1.0025367289443801</v>
       </c>
+      <c r="CN15">
+        <v>0.99728701475725601</v>
+      </c>
     </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5273,8 +5325,11 @@
       <c r="CM16">
         <v>1.00253785163017</v>
       </c>
+      <c r="CN16">
+        <v>0.99728814089881201</v>
+      </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5528,8 +5583,11 @@
       <c r="CM17">
         <v>1.0025390259465701</v>
       </c>
+      <c r="CN17">
+        <v>0.99728930382988001</v>
+      </c>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5774,8 +5832,11 @@
       <c r="CM18">
         <v>1.0025404059696399</v>
       </c>
+      <c r="CN18">
+        <v>0.99729065483216806</v>
+      </c>
     </row>
-    <row r="19" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6029,8 +6090,11 @@
       <c r="CM19">
         <v>1.0025417356770201</v>
       </c>
+      <c r="CN19">
+        <v>0.99729194357788997</v>
+      </c>
     </row>
-    <row r="20" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6275,8 +6339,11 @@
       <c r="CM20">
         <v>1.00254309681641</v>
       </c>
+      <c r="CN20">
+        <v>0.99729325186714701</v>
+      </c>
     </row>
-    <row r="21" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6521,8 +6588,11 @@
       <c r="CM21">
         <v>1.0025453601208001</v>
       </c>
+      <c r="CN21">
+        <v>0.99729540727634403</v>
+      </c>
     </row>
-    <row r="22" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6776,8 +6846,11 @@
       <c r="CM22">
         <v>1.0025467437094999</v>
       </c>
+      <c r="CN22">
+        <v>0.99729671463430802</v>
+      </c>
     </row>
-    <row r="23" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -7031,8 +7104,11 @@
       <c r="CM23">
         <v>1.0025497749304899</v>
       </c>
+      <c r="CN23">
+        <v>0.99729955676412196</v>
+      </c>
     </row>
-    <row r="24" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -7286,8 +7362,11 @@
       <c r="CM24">
         <v>1.0025510502372299</v>
       </c>
+      <c r="CN24">
+        <v>0.99730074479132802</v>
+      </c>
     </row>
-    <row r="25" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -7532,8 +7611,11 @@
       <c r="CM25">
         <v>1.0025538119155</v>
       </c>
+      <c r="CN25">
+        <v>0.99730330433950598</v>
+      </c>
     </row>
-    <row r="26" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -7787,8 +7869,11 @@
       <c r="CM26">
         <v>1.00255625524509</v>
       </c>
+      <c r="CN26">
+        <v>0.99730555587762204</v>
+      </c>
     </row>
-    <row r="27" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8042,8 +8127,11 @@
       <c r="CM27">
         <v>1.0025618459744701</v>
       </c>
+      <c r="CN27">
+        <v>0.99731067069754997</v>
+      </c>
     </row>
-    <row r="28" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8297,8 +8385,11 @@
       <c r="CM28">
         <v>1.0025713862894801</v>
       </c>
+      <c r="CN28">
+        <v>0.99731930931200297</v>
+      </c>
     </row>
-    <row r="29" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8552,8 +8643,11 @@
       <c r="CM29">
         <v>1.0025821380986</v>
       </c>
+      <c r="CN29">
+        <v>0.99732894926427496</v>
+      </c>
     </row>
-    <row r="30" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8807,8 +8901,11 @@
       <c r="CM30">
         <v>1.00258418998621</v>
       </c>
+      <c r="CN30">
+        <v>0.99733078008490295</v>
+      </c>
     </row>
-    <row r="31" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -9062,8 +9159,11 @@
       <c r="CM31">
         <v>1.00258709996666</v>
       </c>
+      <c r="CN31">
+        <v>0.99733337238342101</v>
+      </c>
     </row>
-    <row r="32" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -9308,8 +9408,11 @@
       <c r="CM32">
         <v>1.00259474902996</v>
       </c>
+      <c r="CN32">
+        <v>0.99734016552839799</v>
+      </c>
     </row>
-    <row r="33" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9542,8 +9645,11 @@
       <c r="CM33">
         <v>1.0025941903823301</v>
       </c>
+      <c r="CN33">
+        <v>0.99733967033328097</v>
+      </c>
     </row>
-    <row r="34" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9775,6 +9881,9 @@
       </c>
       <c r="CM34">
         <v>1.0025937382716901</v>
+      </c>
+      <c r="CN34">
+        <v>0.99733926947164497</v>
       </c>
     </row>
   </sheetData>

--- a/docs/UCB_Densimeter_fitting/Input_files/merged_df_wrho-6-8-23.xlsx
+++ b/docs/UCB_Densimeter_fitting/Input_files/merged_df_wrho-6-8-23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\Box\Berkeley_new\DiadFit_outer\docs\UCB_Densimeter_fitting\Input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566E7C8A-1981-4BFE-9584-B616389B3761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DEC3F6-7BB6-4685-8928-F94CE7753CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="268">
   <si>
     <t>Label</t>
   </si>
@@ -822,6 +822,21 @@
   </si>
   <si>
     <t>1117_1400_new</t>
+  </si>
+  <si>
+    <t>Ne_corr_1447_1117</t>
+  </si>
+  <si>
+    <t>Ne_corr_1400_1117</t>
+  </si>
+  <si>
+    <t>Ne_corr_1447_1220</t>
+  </si>
+  <si>
+    <t>Ne_corr_1400_1220</t>
+  </si>
+  <si>
+    <t>Ne_corr_1567_1220</t>
   </si>
 </sst>
 </file>
@@ -856,7 +871,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -879,11 +894,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -892,9 +916,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1199,275 +1227,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CN34"/>
+  <dimension ref="A1:CS34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
-      <selection activeCell="CN3" sqref="CN3"/>
+      <selection activeCell="CP3" sqref="CP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="89" max="89" width="17.08984375" customWidth="1"/>
     <col min="92" max="92" width="14.453125" customWidth="1"/>
+    <col min="93" max="93" width="14.453125" style="6" customWidth="1"/>
+    <col min="94" max="94" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:97" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CB1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CC1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CD1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CE1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CF1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CG1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CH1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CI1" s="4" t="s">
         <v>85</v>
       </c>
       <c r="CJ1" s="3" t="s">
@@ -1482,11 +1512,26 @@
       <c r="CM1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CN1" s="3" t="s">
         <v>262</v>
       </c>
+      <c r="CO1" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="CP1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="CQ1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="CR1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="CS1" s="3" t="s">
+        <v>267</v>
+      </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1734,8 +1779,23 @@
       <c r="CN2">
         <v>0.99727914940086704</v>
       </c>
+      <c r="CO2" s="6">
+        <v>0.99727914940086704</v>
+      </c>
+      <c r="CP2">
+        <v>0.99730055889757596</v>
+      </c>
+      <c r="CQ2">
+        <v>0.99712799702761601</v>
+      </c>
+      <c r="CR2">
+        <v>0.996618540431495</v>
+      </c>
+      <c r="CS2">
+        <v>0.99836803909615202</v>
+      </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1992,8 +2052,23 @@
       <c r="CN3">
         <v>0.99727924998566297</v>
       </c>
+      <c r="CO3" s="6">
+        <v>0.99727924998566297</v>
+      </c>
+      <c r="CP3">
+        <v>0.99730198476932896</v>
+      </c>
+      <c r="CQ3">
+        <v>0.99713111270671695</v>
+      </c>
+      <c r="CR3">
+        <v>0.99662176097310395</v>
+      </c>
+      <c r="CS3">
+        <v>0.99836913311043196</v>
+      </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2250,8 +2325,23 @@
       <c r="CN4">
         <v>0.99727929861077202</v>
       </c>
+      <c r="CO4" s="6">
+        <v>0.99727929861077202</v>
+      </c>
+      <c r="CP4">
+        <v>0.99730212243977701</v>
+      </c>
+      <c r="CQ4">
+        <v>0.99713142348085604</v>
+      </c>
+      <c r="CR4">
+        <v>0.99662208125944995</v>
+      </c>
+      <c r="CS4">
+        <v>0.99836923613033202</v>
+      </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2508,8 +2598,23 @@
       <c r="CN5">
         <v>0.99727995110359402</v>
       </c>
+      <c r="CO5" s="6">
+        <v>0.99727995110359402</v>
+      </c>
+      <c r="CP5">
+        <v>0.997303303517176</v>
+      </c>
+      <c r="CQ5">
+        <v>0.99713408428046002</v>
+      </c>
+      <c r="CR5">
+        <v>0.99662481770373201</v>
+      </c>
+      <c r="CS5">
+        <v>0.99837010192082598</v>
+      </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2757,8 +2862,23 @@
       <c r="CN6">
         <v>0.99728022698492502</v>
       </c>
+      <c r="CO6" s="6">
+        <v>0.99728022698492502</v>
+      </c>
+      <c r="CP6">
+        <v>0.99730367200129799</v>
+      </c>
+      <c r="CQ6">
+        <v>0.99713489931977695</v>
+      </c>
+      <c r="CR6">
+        <v>0.99662565404812697</v>
+      </c>
+      <c r="CS6">
+        <v>0.99837036604168705</v>
+      </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3015,8 +3135,23 @@
       <c r="CN7">
         <v>0.99728068053923202</v>
       </c>
+      <c r="CO7" s="6">
+        <v>0.99728068053923202</v>
+      </c>
+      <c r="CP7">
+        <v>0.99730421408820302</v>
+      </c>
+      <c r="CQ7">
+        <v>0.99713607540946503</v>
+      </c>
+      <c r="CR7">
+        <v>0.99662685951930496</v>
+      </c>
+      <c r="CS7">
+        <v>0.99837075019760801</v>
+      </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3264,8 +3399,23 @@
       <c r="CN8">
         <v>0.99728121338167997</v>
       </c>
+      <c r="CO8" s="6">
+        <v>0.99728121338167997</v>
+      </c>
+      <c r="CP8">
+        <v>0.99730479093077495</v>
+      </c>
+      <c r="CQ8">
+        <v>0.99713729188364297</v>
+      </c>
+      <c r="CR8">
+        <v>0.99662810481987796</v>
+      </c>
+      <c r="CS8">
+        <v>0.998371153980665</v>
+      </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3522,8 +3672,23 @@
       <c r="CN9">
         <v>0.99728172119306402</v>
       </c>
+      <c r="CO9" s="6">
+        <v>0.99728172119306402</v>
+      </c>
+      <c r="CP9">
+        <v>0.99730530428129904</v>
+      </c>
+      <c r="CQ9">
+        <v>0.99713834153273095</v>
+      </c>
+      <c r="CR9">
+        <v>0.996629178162868</v>
+      </c>
+      <c r="CS9">
+        <v>0.99837150964609001</v>
+      </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3780,8 +3945,23 @@
       <c r="CN10">
         <v>0.997282131384151</v>
       </c>
+      <c r="CO10" s="6">
+        <v>0.997282131384151</v>
+      </c>
+      <c r="CP10">
+        <v>0.99730570185951894</v>
+      </c>
+      <c r="CQ10">
+        <v>0.99713913261786602</v>
+      </c>
+      <c r="CR10">
+        <v>0.996629986430971</v>
+      </c>
+      <c r="CS10">
+        <v>0.99837178307280605</v>
+      </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4038,8 +4218,23 @@
       <c r="CN11">
         <v>0.997282396118232</v>
       </c>
+      <c r="CO11" s="6">
+        <v>0.997282396118232</v>
+      </c>
+      <c r="CP11">
+        <v>0.99730595248336396</v>
+      </c>
+      <c r="CQ11">
+        <v>0.99713962152124902</v>
+      </c>
+      <c r="CR11">
+        <v>0.99663048567805601</v>
+      </c>
+      <c r="CS11">
+        <v>0.99837195463333295</v>
+      </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4296,8 +4491,23 @@
       <c r="CN12">
         <v>0.99728392069530802</v>
       </c>
+      <c r="CO12" s="6">
+        <v>0.99728392069530802</v>
+      </c>
+      <c r="CP12">
+        <v>0.99730733947505301</v>
+      </c>
+      <c r="CQ12">
+        <v>0.99714219537470605</v>
+      </c>
+      <c r="CR12">
+        <v>0.99663311077384198</v>
+      </c>
+      <c r="CS12">
+        <v>0.99837289505969395</v>
+      </c>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4554,8 +4764,23 @@
       <c r="CN13">
         <v>0.99728484823588304</v>
       </c>
+      <c r="CO13" s="6">
+        <v>0.99728484823588304</v>
+      </c>
+      <c r="CP13">
+        <v>0.99730815730501599</v>
+      </c>
+      <c r="CQ13">
+        <v>0.99714361546276498</v>
+      </c>
+      <c r="CR13">
+        <v>0.99663455701385895</v>
+      </c>
+      <c r="CS13">
+        <v>0.99837344407298401</v>
+      </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4812,8 +5037,23 @@
       <c r="CN14">
         <v>0.99728617038121103</v>
       </c>
+      <c r="CO14" s="6">
+        <v>0.99728617038121103</v>
+      </c>
+      <c r="CP14">
+        <v>0.99730931022111402</v>
+      </c>
+      <c r="CQ14">
+        <v>0.997145508397277</v>
+      </c>
+      <c r="CR14">
+        <v>0.99663648270293703</v>
+      </c>
+      <c r="CS14">
+        <v>0.99837421320012998</v>
+      </c>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5070,8 +5310,23 @@
       <c r="CN15">
         <v>0.99728701475725601</v>
       </c>
+      <c r="CO15" s="6">
+        <v>0.99728701475725601</v>
+      </c>
+      <c r="CP15">
+        <v>0.99731004444181004</v>
+      </c>
+      <c r="CQ15">
+        <v>0.99714665414979498</v>
+      </c>
+      <c r="CR15">
+        <v>0.99663764719831804</v>
+      </c>
+      <c r="CS15">
+        <v>0.99837470078611901</v>
+      </c>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5328,8 +5583,23 @@
       <c r="CN16">
         <v>0.99728814089881201</v>
       </c>
+      <c r="CO16" s="6">
+        <v>0.99728814089881201</v>
+      </c>
+      <c r="CP16">
+        <v>0.99731102589587395</v>
+      </c>
+      <c r="CQ16">
+        <v>0.99714812102028405</v>
+      </c>
+      <c r="CR16">
+        <v>0.99663913695728501</v>
+      </c>
+      <c r="CS16">
+        <v>0.99837535053854598</v>
+      </c>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5586,8 +5856,23 @@
       <c r="CN17">
         <v>0.99728930382988001</v>
       </c>
+      <c r="CO17" s="6">
+        <v>0.99728930382988001</v>
+      </c>
+      <c r="CP17">
+        <v>0.99731204559271402</v>
+      </c>
+      <c r="CQ17">
+        <v>0.99714957469167897</v>
+      </c>
+      <c r="CR17">
+        <v>0.99664061215938704</v>
+      </c>
+      <c r="CS17">
+        <v>0.99837602374061896</v>
+      </c>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5835,8 +6120,23 @@
       <c r="CN18">
         <v>0.99729065483216806</v>
       </c>
+      <c r="CO18" s="6">
+        <v>0.99729065483216806</v>
+      </c>
+      <c r="CP18">
+        <v>0.99731324159793</v>
+      </c>
+      <c r="CQ18">
+        <v>0.99715119889959003</v>
+      </c>
+      <c r="CR18">
+        <v>0.99664225915618698</v>
+      </c>
+      <c r="CS18">
+        <v>0.99837681156365299</v>
+      </c>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6093,8 +6393,23 @@
       <c r="CN19">
         <v>0.99729194357788997</v>
       </c>
+      <c r="CO19" s="6">
+        <v>0.99729194357788997</v>
+      </c>
+      <c r="CP19">
+        <v>0.99731439636461805</v>
+      </c>
+      <c r="CQ19">
+        <v>0.99715269399067497</v>
+      </c>
+      <c r="CR19">
+        <v>0.996643774116453</v>
+      </c>
+      <c r="CS19">
+        <v>0.99837757091034696</v>
+      </c>
     </row>
-    <row r="20" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6342,8 +6657,23 @@
       <c r="CN20">
         <v>0.99729325186714701</v>
       </c>
+      <c r="CO20" s="6">
+        <v>0.99729325186714701</v>
+      </c>
+      <c r="CP20">
+        <v>0.99731558420992605</v>
+      </c>
+      <c r="CQ20">
+        <v>0.99715416570289805</v>
+      </c>
+      <c r="CR20">
+        <v>0.99664526441274504</v>
+      </c>
+      <c r="CS20">
+        <v>0.99837835106170103</v>
+      </c>
     </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6591,8 +6921,23 @@
       <c r="CN21">
         <v>0.99729540727634403</v>
       </c>
+      <c r="CO21" s="6">
+        <v>0.99729540727634403</v>
+      </c>
+      <c r="CP21">
+        <v>0.99731757826033296</v>
+      </c>
+      <c r="CQ21">
+        <v>0.99715650523828703</v>
+      </c>
+      <c r="CR21">
+        <v>0.99664763163336301</v>
+      </c>
+      <c r="CS21">
+        <v>0.99837965932520101</v>
+      </c>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6849,8 +7194,23 @@
       <c r="CN22">
         <v>0.99729671463430802</v>
       </c>
+      <c r="CO22" s="6">
+        <v>0.99729671463430802</v>
+      </c>
+      <c r="CP22">
+        <v>0.99731881133250799</v>
+      </c>
+      <c r="CQ22">
+        <v>0.99715788018834495</v>
+      </c>
+      <c r="CR22">
+        <v>0.99664902185700499</v>
+      </c>
+      <c r="CS22">
+        <v>0.99838046780202006</v>
+      </c>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -7107,8 +7467,23 @@
       <c r="CN23">
         <v>0.99729955676412196</v>
       </c>
+      <c r="CO23" s="6">
+        <v>0.99729955676412196</v>
+      </c>
+      <c r="CP23">
+        <v>0.99732155550494095</v>
+      </c>
+      <c r="CQ23">
+        <v>0.99716077374476497</v>
+      </c>
+      <c r="CR23">
+        <v>0.99665194532703105</v>
+      </c>
+      <c r="CS23">
+        <v>0.99838226646497796</v>
+      </c>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -7365,8 +7740,23 @@
       <c r="CN24">
         <v>0.99730074479132802</v>
       </c>
+      <c r="CO24" s="6">
+        <v>0.99730074479132802</v>
+      </c>
+      <c r="CP24">
+        <v>0.99732272873068695</v>
+      </c>
+      <c r="CQ24">
+        <v>0.99716194959716298</v>
+      </c>
+      <c r="CR24">
+        <v>0.99665313252355303</v>
+      </c>
+      <c r="CS24">
+        <v>0.99838303541208795</v>
+      </c>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -7614,8 +8004,23 @@
       <c r="CN25">
         <v>0.99730330433950598</v>
       </c>
+      <c r="CO25" s="6">
+        <v>0.99730330433950598</v>
+      </c>
+      <c r="CP25">
+        <v>0.997325309044648</v>
+      </c>
+      <c r="CQ25">
+        <v>0.99716442532492999</v>
+      </c>
+      <c r="CR25">
+        <v>0.99665563070777197</v>
+      </c>
+      <c r="CS25">
+        <v>0.998384726850294</v>
+      </c>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -7872,8 +8277,23 @@
       <c r="CN26">
         <v>0.99730555587762204</v>
       </c>
+      <c r="CO26" s="6">
+        <v>0.99730555587762204</v>
+      </c>
+      <c r="CP26">
+        <v>0.99732763816755199</v>
+      </c>
+      <c r="CQ26">
+        <v>0.99716654596913001</v>
+      </c>
+      <c r="CR26">
+        <v>0.99665776913696302</v>
+      </c>
+      <c r="CS26">
+        <v>0.99838625418777105</v>
+      </c>
     </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8130,8 +8550,23 @@
       <c r="CN27">
         <v>0.99731067069754997</v>
       </c>
+      <c r="CO27" s="6">
+        <v>0.99731067069754997</v>
+      </c>
+      <c r="CP27">
+        <v>0.99733313303280902</v>
+      </c>
+      <c r="CQ27">
+        <v>0.99717119906421503</v>
+      </c>
+      <c r="CR27">
+        <v>0.99666245697175304</v>
+      </c>
+      <c r="CS27">
+        <v>0.99838986044795697</v>
+      </c>
     </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8388,8 +8823,23 @@
       <c r="CN28">
         <v>0.99731930931200297</v>
       </c>
+      <c r="CO28" s="6">
+        <v>0.99731930931200297</v>
+      </c>
+      <c r="CP28">
+        <v>0.99734303693259596</v>
+      </c>
+      <c r="CQ28">
+        <v>0.99717865764134905</v>
+      </c>
+      <c r="CR28">
+        <v>0.99666996043523404</v>
+      </c>
+      <c r="CS28">
+        <v>0.99839637258814395</v>
+      </c>
     </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8646,8 +9096,23 @@
       <c r="CN29">
         <v>0.99732894926427496</v>
       </c>
+      <c r="CO29" s="6">
+        <v>0.99732894926427496</v>
+      </c>
+      <c r="CP29">
+        <v>0.99735496707042104</v>
+      </c>
+      <c r="CQ29">
+        <v>0.99718654901776205</v>
+      </c>
+      <c r="CR29">
+        <v>0.99667788702747495</v>
+      </c>
+      <c r="CS29">
+        <v>0.99840423772807496</v>
+      </c>
     </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8904,8 +9369,23 @@
       <c r="CN30">
         <v>0.99733078008490295</v>
       </c>
+      <c r="CO30" s="6">
+        <v>0.99733078008490295</v>
+      </c>
+      <c r="CP30">
+        <v>0.99735733287270401</v>
+      </c>
+      <c r="CQ30">
+        <v>0.99718800727322798</v>
+      </c>
+      <c r="CR30">
+        <v>0.99667935057680102</v>
+      </c>
+      <c r="CS30">
+        <v>0.99840579990189204</v>
+      </c>
     </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -9162,8 +9642,23 @@
       <c r="CN31">
         <v>0.99733337238342101</v>
       </c>
+      <c r="CO31" s="6">
+        <v>0.99733337238342101</v>
+      </c>
+      <c r="CP31">
+        <v>0.99736073561472705</v>
+      </c>
+      <c r="CQ31">
+        <v>0.99719005296799701</v>
+      </c>
+      <c r="CR31">
+        <v>0.99668140310995201</v>
+      </c>
+      <c r="CS31">
+        <v>0.99840804811950501</v>
+      </c>
     </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -9411,8 +9906,23 @@
       <c r="CN32">
         <v>0.99734016552839799</v>
       </c>
+      <c r="CO32" s="6">
+        <v>0.99734016552839799</v>
+      </c>
+      <c r="CP32">
+        <v>0.997369940125448</v>
+      </c>
+      <c r="CQ32">
+        <v>0.99719531797135696</v>
+      </c>
+      <c r="CR32">
+        <v>0.996686682734513</v>
+      </c>
+      <c r="CS32">
+        <v>0.99841413702937698</v>
+      </c>
     </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9648,8 +10158,23 @@
       <c r="CN33">
         <v>0.99733967033328097</v>
       </c>
+      <c r="CO33" s="6">
+        <v>0.99733967033328097</v>
+      </c>
+      <c r="CP33">
+        <v>0.99736925533790699</v>
+      </c>
+      <c r="CQ33">
+        <v>0.99719493850139496</v>
+      </c>
+      <c r="CR33">
+        <v>0.99668630234785904</v>
+      </c>
+      <c r="CS33">
+        <v>0.99841368367859196</v>
+      </c>
     </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9884,6 +10409,21 @@
       </c>
       <c r="CN34">
         <v>0.99733926947164497</v>
+      </c>
+      <c r="CO34" s="6">
+        <v>0.99733926947164497</v>
+      </c>
+      <c r="CP34">
+        <v>0.997368702572765</v>
+      </c>
+      <c r="CQ34">
+        <v>0.997194630845611</v>
+      </c>
+      <c r="CR34">
+        <v>0.99668599393368396</v>
+      </c>
+      <c r="CS34">
+        <v>0.998413317770935</v>
       </c>
     </row>
   </sheetData>
